--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -86,13 +86,16 @@
     <t xml:space="preserve">Projektbeschreibung / Terminplan</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">Recherche zu Serial USB Anbindung und Farbsensor</t>
   </si>
   <si>
     <t xml:space="preserve">Sollstunden:</t>
   </si>
   <si>
     <t xml:space="preserve">Iststunden:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Überlegungen zu Interboardkomminikation dokumentiert , zusätzliche Tex-Recherche</t>
   </si>
   <si>
     <t xml:space="preserve">Verbindliche Zielvereinbarung</t>
@@ -590,16 +593,16 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.38604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5674418604651"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -645,7 +648,7 @@
       </c>
       <c r="B7" s="8" t="n">
         <f aca="false">'Oktober 2017'!G34</f>
-        <v>9.16666666666667</v>
+        <v>11.35</v>
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">'Oktober 2017'!C33</f>
@@ -658,7 +661,7 @@
       </c>
       <c r="B8" s="8" t="n">
         <f aca="false">'November 2017'!G34</f>
-        <v>0</v>
+        <v>2.70000000000001</v>
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">'November 2017'!C33</f>
@@ -701,7 +704,7 @@
       </c>
       <c r="B12" s="8" t="n">
         <f aca="false">SUM(B7:B9)</f>
-        <v>9.16666666666667</v>
+        <v>14.05</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -714,7 +717,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -729,20 +732,20 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.0604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.61395348837209"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5674418604651"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
         <f aca="false">A24+1</f>
         <v>43032</v>
@@ -1310,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
         <f aca="false">A25+1</f>
         <v>43033</v>
@@ -1331,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
         <f aca="false">A26+1</f>
         <v>43034</v>
@@ -1352,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
         <f aca="false">A27+1</f>
         <v>43035</v>
@@ -1373,17 +1376,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="22" t="str">
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
+        <f aca="false">A28+1</f>
+        <v>43036</v>
+      </c>
+      <c r="B29" s="22" t="n">
         <f aca="false">A29</f>
-        <v> </v>
-      </c>
-      <c r="C29" s="0" t="e">
+        <v>43036</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <f aca="false">WEEKNUM(A29,2)</f>
-        <v>#VALUE!</v>
+        <v>44</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -1395,39 +1399,46 @@
       <c r="H29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="e">
+      <c r="A30" s="4" t="n">
         <f aca="false">A29+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B30" s="22" t="e">
+        <v>43037</v>
+      </c>
+      <c r="B30" s="22" t="n">
         <f aca="false">A30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C30" s="0" t="e">
+        <v>43037</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <f aca="false">WEEKNUM(A30,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="D30" s="23" t="n">
+        <v>0.631944444444444</v>
+      </c>
+      <c r="E30" s="23" t="n">
+        <v>0.722916666666667</v>
+      </c>
       <c r="F30" s="23"/>
       <c r="G30" s="8" t="n">
         <f aca="false">(E30-D30-F30)*24</f>
-        <v>0</v>
+        <v>2.18333333333333</v>
       </c>
       <c r="H30" s="8"/>
+      <c r="I30" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="e">
+      <c r="A31" s="4" t="n">
         <f aca="false">A30+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B31" s="22" t="e">
+        <v>43038</v>
+      </c>
+      <c r="B31" s="22" t="n">
         <f aca="false">A31</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C31" s="0" t="e">
+        <v>43038</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <f aca="false">WEEKNUM(A31,2)</f>
-        <v>#VALUE!</v>
+        <v>45</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -1438,17 +1449,17 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="e">
+      <c r="A32" s="28" t="n">
         <f aca="false">A31+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B32" s="29" t="e">
+        <v>43039</v>
+      </c>
+      <c r="B32" s="29" t="n">
         <f aca="false">A32</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C32" s="30" t="e">
+        <v>43039</v>
+      </c>
+      <c r="C32" s="30" t="n">
         <f aca="false">WEEKNUM(A32,2)</f>
-        <v>#VALUE!</v>
+        <v>45</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -1481,7 +1492,7 @@
       <c r="F34" s="35"/>
       <c r="G34" s="36" t="n">
         <f aca="false">SUM(G2:G32)</f>
-        <v>9.16666666666667</v>
+        <v>11.35</v>
       </c>
       <c r="H34" s="36"/>
     </row>
@@ -1552,7 +1563,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.159722222222222" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1567,20 +1578,20 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.0604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.38604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5674418604651"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1672,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <f aca="false">A4+1</f>
         <v>43043</v>
@@ -1685,14 +1696,20 @@
         <f aca="false">WEEKNUM(A5,2)</f>
         <v>45</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="23" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E5" s="23" t="n">
+        <v>0.904166666666667</v>
+      </c>
       <c r="F5" s="23"/>
       <c r="G5" s="8" t="n">
         <f aca="false">(E5-D5-F5)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="8"/>
+        <v>2.70000000000001</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -1963,7 +1980,7 @@
         <v>47</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
@@ -2278,7 +2295,7 @@
       <c r="F34" s="35"/>
       <c r="G34" s="36" t="n">
         <f aca="false">SUM(G2:G32)</f>
-        <v>0</v>
+        <v>2.70000000000001</v>
       </c>
       <c r="H34" s="36"/>
     </row>
@@ -2338,7 +2355,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.159722222222222" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2353,20 +2370,20 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.0604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.38604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5674418604651"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,7 +2725,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -3143,7 +3160,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.159722222222222" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3158,20 +3175,20 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.0604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.06046511627907"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.38604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5674418604651"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
@@ -3595,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -3941,7 +3958,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.159722222222222" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Summe</t>
   </si>
   <si>
+    <t xml:space="preserve">Prozentwert:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Datum</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teamtime</t>
   </si>
   <si>
     <t xml:space="preserve">Arbeitszeit</t>
@@ -86,6 +92,9 @@
     <t xml:space="preserve">Projektbeschreibung / Terminplan</t>
   </si>
   <si>
+    <t xml:space="preserve">Allgemeine Montageaufgaben, Softwareinstallationen, erste Einweisung von Kollegen in Git</t>
+  </si>
+  <si>
     <t xml:space="preserve">Recherche zu Serial USB Anbindung und Farbsensor</t>
   </si>
   <si>
@@ -95,7 +104,16 @@
     <t xml:space="preserve">Iststunden:</t>
   </si>
   <si>
+    <t xml:space="preserve">Programmierkonventionen, Strukturierung</t>
+  </si>
+  <si>
     <t xml:space="preserve">Überlegungen zu Interboardkomminikation dokumentiert , zusätzliche Tex-Recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serial Connection erste Versuche in Zusammenarbeit mit bof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versuch in C++ Komponente umgewandelt, Erweiterung meines Arbeitszeiten-Templates</t>
   </si>
   <si>
     <t xml:space="preserve">Verbindliche Zielvereinbarung</t>
@@ -114,15 +132,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="MMM\-YY"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="DDDD"/>
-    <numFmt numFmtId="169" formatCode="H:MM;@"/>
-    <numFmt numFmtId="170" formatCode="DD/MM/YY;@"/>
-    <numFmt numFmtId="171" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="[HH]:MM"/>
+    <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="167" formatCode="MMM\-YY"/>
+    <numFmt numFmtId="168" formatCode="0.00%"/>
+    <numFmt numFmtId="169" formatCode="YYYY/M/D"/>
+    <numFmt numFmtId="170" formatCode="DDDD"/>
+    <numFmt numFmtId="171" formatCode="0.00"/>
+    <numFmt numFmtId="172" formatCode="H:MM;@"/>
+    <numFmt numFmtId="173" formatCode="YYYY/MM/DD"/>
+    <numFmt numFmtId="174" formatCode="DD/MM/YY;@"/>
+    <numFmt numFmtId="175" formatCode="HH:MM"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -231,164 +253,228 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -591,10 +677,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -605,12 +691,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>9</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,73 +728,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>43009</v>
       </c>
       <c r="B7" s="8" t="n">
-        <f aca="false">'Oktober 2017'!G34</f>
-        <v>11.35</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">'Oktober 2017'!C33</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">'Oktober 2017'!H34</f>
+        <v>0.677083333333334</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <f aca="false">3*B1</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>43040</v>
       </c>
       <c r="B8" s="8" t="n">
-        <f aca="false">'November 2017'!G34</f>
-        <v>2.70000000000001</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <f aca="false">'November 2017'!C33</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">'November 2017'!H34</f>
+        <v>0.402777777777777</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <f aca="false">5*B1</f>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>43070</v>
       </c>
       <c r="B9" s="8" t="n">
-        <f aca="false">'Dezember 2017'!G34</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <f aca="false">'Dezember 2017'!C33</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">'Dezember 2017'!H34</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <f aca="false">4*B1</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>43101</v>
       </c>
       <c r="B10" s="8" t="n">
-        <f aca="false">'Januar 2018'!G34</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <f aca="false">'Januar 2018'!C33</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">'Januar 2018'!H34</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <f aca="false">5*B1</f>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="8" t="n">
-        <f aca="false">SUM(B7:B9)</f>
-        <v>14.05</v>
-      </c>
-      <c r="C12" s="0" t="n">
+        <f aca="false">SUM(B7:B10)</f>
+        <v>1.07986111111111</v>
+      </c>
+      <c r="C12" s="8" t="n">
         <f aca="false">SUM(C7:C10)</f>
-        <v>153</v>
+        <v>6.375</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <f aca="false">B12/C12</f>
+        <v>0.169389978213508</v>
       </c>
     </row>
   </sheetData>
@@ -730,17 +824,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
@@ -748,173 +842,179 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
+      <c r="H1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="n">
         <f aca="false">DATE(2017,10,1)</f>
         <v>43009</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="13" t="n">
         <f aca="false">A2</f>
         <v>43009</v>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="14" t="n">
         <f aca="false">WEEKNUM(A2,2)</f>
         <v>40</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15" t="n">
-        <f aca="false">(E2-D2-F2)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16" t="n">
+        <f aca="false">(E2-D2-F2+G2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="n">
         <f aca="false">A2+1</f>
         <v>43010</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="13" t="n">
         <f aca="false">A3</f>
         <v>43010</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="14" t="n">
         <f aca="false">WEEKNUM(A3,2)</f>
         <v>41</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15" t="n">
-        <f aca="false">(E3-D3-F3)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="16" t="n">
+        <f aca="false">(E3-D3-F3+G3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="n">
         <f aca="false">A3+1</f>
         <v>43011</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="13" t="n">
         <f aca="false">A4</f>
         <v>43011</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="14" t="n">
         <f aca="false">WEEKNUM(A4,2)</f>
         <v>41</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15" t="n">
-        <f aca="false">(E4-D4-F4)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="16" t="n">
+        <f aca="false">(E4-D4-F4+G4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="n">
         <f aca="false">A4+1</f>
         <v>43012</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="13" t="n">
         <f aca="false">A5</f>
         <v>43012</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="14" t="n">
         <f aca="false">WEEKNUM(A5,2)</f>
         <v>41</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15" t="n">
-        <f aca="false">(E5-D5-F5)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="16" t="n">
+        <f aca="false">(E5-D5-F5+G5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="n">
         <f aca="false">A5+1</f>
         <v>43013</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="13" t="n">
+      <c r="B6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14" t="n">
         <f aca="false">WEEKNUM(A6,2)</f>
         <v>41</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15" t="n">
-        <f aca="false">(E6-D6-F6)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="19" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="16" t="n">
+        <f aca="false">(E6-D6-F6+G6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="21" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="n">
         <f aca="false">A6+1</f>
         <v>43014</v>
       </c>
-      <c r="B7" s="18" t="n">
+      <c r="B7" s="20" t="n">
         <f aca="false">A7</f>
         <v>43014</v>
       </c>
-      <c r="C7" s="19" t="n">
+      <c r="C7" s="21" t="n">
         <f aca="false">WEEKNUM(A7,2)</f>
         <v>41</v>
       </c>
-      <c r="D7" s="20" t="n">
-        <v>0.510416666666667</v>
-      </c>
-      <c r="E7" s="20" t="n">
-        <v>0.572916666666667</v>
-      </c>
-      <c r="F7" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="21" t="n">
-        <f aca="false">(E7-D7-F7)*24</f>
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="H7" s="16" t="n">
+        <f aca="false">(E7-D7-F7+G7)</f>
+        <v>0.0625</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="n">
         <f aca="false">A7+1</f>
         <v>43015</v>
       </c>
-      <c r="B8" s="22" t="n">
+      <c r="B8" s="23" t="n">
         <f aca="false">A8</f>
         <v>43015</v>
       </c>
@@ -922,21 +1022,22 @@
         <f aca="false">WEEKNUM(A8,2)</f>
         <v>41</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="8" t="n">
-        <f aca="false">(E8-D8-F8)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="n">
+        <f aca="false">(E8-D8-F8+G8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="n">
         <f aca="false">A8+1</f>
         <v>43016</v>
       </c>
-      <c r="B9" s="22" t="n">
+      <c r="B9" s="23" t="n">
         <f aca="false">A9</f>
         <v>43016</v>
       </c>
@@ -944,21 +1045,22 @@
         <f aca="false">WEEKNUM(A9,2)</f>
         <v>41</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="8" t="n">
-        <f aca="false">(E9-D9-F9)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16" t="n">
+        <f aca="false">(E9-D9-F9+G9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="n">
         <f aca="false">A9+1</f>
         <v>43017</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="23" t="n">
         <f aca="false">A10</f>
         <v>43017</v>
       </c>
@@ -966,20 +1068,21 @@
         <f aca="false">WEEKNUM(A10,2)</f>
         <v>42</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="8" t="n">
-        <f aca="false">(E10-D10-F10)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16" t="n">
+        <f aca="false">(E10-D10-F10+G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="n">
         <f aca="false">A10+1</f>
         <v>43018</v>
       </c>
-      <c r="B11" s="22" t="n">
+      <c r="B11" s="23" t="n">
         <f aca="false">A11</f>
         <v>43018</v>
       </c>
@@ -987,20 +1090,21 @@
         <f aca="false">WEEKNUM(A11,2)</f>
         <v>42</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="8" t="n">
-        <f aca="false">(E11-D11-F11)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16" t="n">
+        <f aca="false">(E11-D11-F11+G11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22" t="n">
         <f aca="false">A11+1</f>
         <v>43019</v>
       </c>
-      <c r="B12" s="22" t="n">
+      <c r="B12" s="23" t="n">
         <f aca="false">A12</f>
         <v>43019</v>
       </c>
@@ -1008,20 +1112,21 @@
         <f aca="false">WEEKNUM(A12,2)</f>
         <v>42</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="8" t="n">
-        <f aca="false">(E12-D12-F12)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="n">
+        <f aca="false">(E12-D12-F12+G12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="n">
         <f aca="false">A12+1</f>
         <v>43020</v>
       </c>
-      <c r="B13" s="22" t="n">
+      <c r="B13" s="23" t="n">
         <f aca="false">A13</f>
         <v>43020</v>
       </c>
@@ -1029,20 +1134,21 @@
         <f aca="false">WEEKNUM(A13,2)</f>
         <v>42</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="8" t="n">
-        <f aca="false">(E13-D13-F13)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="n">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16" t="n">
+        <f aca="false">(E13-D13-F13+G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="25" t="n">
         <f aca="false">A13+1</f>
         <v>43021</v>
       </c>
-      <c r="B14" s="25" t="n">
+      <c r="B14" s="26" t="n">
         <f aca="false">A14</f>
         <v>43021</v>
       </c>
@@ -1050,19 +1156,30 @@
         <f aca="false">WEEKNUM(A14,2)</f>
         <v>42</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="16" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H14" s="16" t="n">
+        <f aca="false">(E14-D14-F14+G14)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="22" t="n">
         <f aca="false">A14+1</f>
         <v>43022</v>
       </c>
-      <c r="B15" s="22" t="n">
+      <c r="B15" s="23" t="n">
         <f aca="false">A15</f>
         <v>43022</v>
       </c>
@@ -1070,21 +1187,22 @@
         <f aca="false">WEEKNUM(A15,2)</f>
         <v>42</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="8" t="n">
-        <f aca="false">(E15-D15-F15)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16" t="n">
+        <f aca="false">(E15-D15-F15+G15)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="n">
         <f aca="false">A15+1</f>
         <v>43023</v>
       </c>
-      <c r="B16" s="22" t="n">
+      <c r="B16" s="23" t="n">
         <f aca="false">A16</f>
         <v>43023</v>
       </c>
@@ -1092,21 +1210,22 @@
         <f aca="false">WEEKNUM(A16,2)</f>
         <v>42</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="8" t="n">
-        <f aca="false">(E16-D16-F16)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16" t="n">
+        <f aca="false">(E16-D16-F16+G16)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="n">
         <f aca="false">A16+1</f>
         <v>43024</v>
       </c>
-      <c r="B17" s="22" t="n">
+      <c r="B17" s="23" t="n">
         <f aca="false">A17</f>
         <v>43024</v>
       </c>
@@ -1114,21 +1233,22 @@
         <f aca="false">WEEKNUM(A17,2)</f>
         <v>43</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="8" t="n">
-        <f aca="false">(E17-D17-F17)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16" t="n">
+        <f aca="false">(E17-D17-F17+G17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="n">
         <f aca="false">A17+1</f>
         <v>43025</v>
       </c>
-      <c r="B18" s="22" t="n">
+      <c r="B18" s="23" t="n">
         <f aca="false">A18</f>
         <v>43025</v>
       </c>
@@ -1136,22 +1256,24 @@
         <f aca="false">WEEKNUM(A18,2)</f>
         <v>43</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="8" t="n">
-        <v>0.1</v>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16" t="n">
+        <f aca="false">(E18-D18-F18+G18)</f>
+        <v>0</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="n">
         <f aca="false">A18+1</f>
         <v>43026</v>
       </c>
-      <c r="B19" s="22" t="n">
+      <c r="B19" s="23" t="n">
         <f aca="false">A19</f>
         <v>43026</v>
       </c>
@@ -1159,20 +1281,21 @@
         <f aca="false">WEEKNUM(A19,2)</f>
         <v>43</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="8" t="n">
-        <f aca="false">(E19-D19-F19)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16" t="n">
+        <f aca="false">(E19-D19-F19+G19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="22" t="n">
         <f aca="false">A19+1</f>
         <v>43027</v>
       </c>
-      <c r="B20" s="22" t="n">
+      <c r="B20" s="23" t="n">
         <f aca="false">A20</f>
         <v>43027</v>
       </c>
@@ -1180,26 +1303,27 @@
         <f aca="false">WEEKNUM(A20,2)</f>
         <v>43</v>
       </c>
-      <c r="D20" s="23" t="n">
+      <c r="D20" s="8" t="n">
         <v>0.68125</v>
       </c>
-      <c r="E20" s="23" t="n">
+      <c r="E20" s="8" t="n">
         <v>0.979166666666667</v>
       </c>
-      <c r="F20" s="23" t="n">
+      <c r="F20" s="8" t="n">
         <v>0.125</v>
       </c>
-      <c r="G20" s="8" t="n">
-        <f aca="false">(E20-D20-F20)*24</f>
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="n">
+      <c r="G20" s="16"/>
+      <c r="H20" s="16" t="n">
+        <f aca="false">(E20-D20-F20+G20)</f>
+        <v>0.172916666666667</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="25" t="n">
         <f aca="false">A20+1</f>
         <v>43028</v>
       </c>
-      <c r="B21" s="25" t="n">
+      <c r="B21" s="26" t="n">
         <f aca="false">A21</f>
         <v>43028</v>
       </c>
@@ -1207,32 +1331,36 @@
         <f aca="false">WEEKNUM(A21,2)</f>
         <v>43</v>
       </c>
-      <c r="D21" s="23" t="n">
+      <c r="D21" s="8" t="n">
         <v>0.688888888888889</v>
       </c>
-      <c r="E21" s="23" t="n">
+      <c r="E21" s="8" t="n">
         <v>0.89375</v>
       </c>
-      <c r="F21" s="23" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="G21" s="8" t="n">
-        <f aca="false">(E21-D21-F21)*24</f>
-        <v>3.41666666666667</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="F21" s="8" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="G21" s="16" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H21" s="16" t="n">
+        <f aca="false">(E21-D21-F21+G21)</f>
+        <v>0.184027777777778</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="22" t="n">
         <f aca="false">A21+1</f>
         <v>43029</v>
       </c>
-      <c r="B22" s="22" t="n">
+      <c r="B22" s="23" t="n">
         <f aca="false">A22</f>
         <v>43029</v>
       </c>
@@ -1240,21 +1368,22 @@
         <f aca="false">WEEKNUM(A22,2)</f>
         <v>43</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="8" t="n">
-        <f aca="false">(E22-D22-F22)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16" t="n">
+        <f aca="false">(E22-D22-F22+G22)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="22" t="n">
         <f aca="false">A22+1</f>
         <v>43030</v>
       </c>
-      <c r="B23" s="22" t="n">
+      <c r="B23" s="23" t="n">
         <f aca="false">A23</f>
         <v>43030</v>
       </c>
@@ -1262,21 +1391,22 @@
         <f aca="false">WEEKNUM(A23,2)</f>
         <v>43</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="8" t="n">
-        <f aca="false">(E23-D23-F23)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16" t="n">
+        <f aca="false">(E23-D23-F23+G23)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="22" t="n">
         <f aca="false">A23+1</f>
         <v>43031</v>
       </c>
-      <c r="B24" s="22" t="n">
+      <c r="B24" s="23" t="n">
         <f aca="false">A24</f>
         <v>43031</v>
       </c>
@@ -1284,20 +1414,21 @@
         <f aca="false">WEEKNUM(A24,2)</f>
         <v>44</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="8" t="n">
-        <f aca="false">(E24-D24-F24)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16" t="n">
+        <f aca="false">(E24-D24-F24+G24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22" t="n">
         <f aca="false">A24+1</f>
         <v>43032</v>
       </c>
-      <c r="B25" s="22" t="n">
+      <c r="B25" s="23" t="n">
         <f aca="false">A25</f>
         <v>43032</v>
       </c>
@@ -1305,20 +1436,21 @@
         <f aca="false">WEEKNUM(A25,2)</f>
         <v>44</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="8" t="n">
-        <f aca="false">(E25-D25-F25)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16" t="n">
+        <f aca="false">(E25-D25-F25+G25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22" t="n">
         <f aca="false">A25+1</f>
         <v>43033</v>
       </c>
-      <c r="B26" s="22" t="n">
+      <c r="B26" s="23" t="n">
         <f aca="false">A26</f>
         <v>43033</v>
       </c>
@@ -1326,20 +1458,21 @@
         <f aca="false">WEEKNUM(A26,2)</f>
         <v>44</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="8" t="n">
-        <f aca="false">(E26-D26-F26)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16" t="n">
+        <f aca="false">(E26-D26-F26+G26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="22" t="n">
         <f aca="false">A26+1</f>
         <v>43034</v>
       </c>
-      <c r="B27" s="22" t="n">
+      <c r="B27" s="23" t="n">
         <f aca="false">A27</f>
         <v>43034</v>
       </c>
@@ -1347,20 +1480,21 @@
         <f aca="false">WEEKNUM(A27,2)</f>
         <v>44</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="8" t="n">
-        <f aca="false">(E27-D27-F27)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16" t="n">
+        <f aca="false">(E27-D27-F27+G27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="22" t="n">
         <f aca="false">A27+1</f>
         <v>43035</v>
       </c>
-      <c r="B28" s="22" t="n">
+      <c r="B28" s="23" t="n">
         <f aca="false">A28</f>
         <v>43035</v>
       </c>
@@ -1368,20 +1502,26 @@
         <f aca="false">WEEKNUM(A28,2)</f>
         <v>44</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="8" t="n">
-        <f aca="false">(E28-D28-F28)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="16" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H28" s="16" t="n">
+        <f aca="false">(E28-D28-F28+G28)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="22" t="n">
         <f aca="false">A28+1</f>
         <v>43036</v>
       </c>
-      <c r="B29" s="22" t="n">
+      <c r="B29" s="23" t="n">
         <f aca="false">A29</f>
         <v>43036</v>
       </c>
@@ -1389,21 +1529,22 @@
         <f aca="false">WEEKNUM(A29,2)</f>
         <v>44</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="8" t="n">
-        <f aca="false">(E29-D29-F29)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16" t="n">
+        <f aca="false">(E29-D29-F29+G29)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="22" t="n">
         <f aca="false">A29+1</f>
         <v>43037</v>
       </c>
-      <c r="B30" s="22" t="n">
+      <c r="B30" s="23" t="n">
         <f aca="false">A30</f>
         <v>43037</v>
       </c>
@@ -1411,28 +1552,28 @@
         <f aca="false">WEEKNUM(A30,2)</f>
         <v>44</v>
       </c>
-      <c r="D30" s="23" t="n">
+      <c r="D30" s="8" t="n">
         <v>0.631944444444444</v>
       </c>
-      <c r="E30" s="23" t="n">
+      <c r="E30" s="8" t="n">
         <v>0.722916666666667</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="8" t="n">
-        <f aca="false">(E30-D30-F30)*24</f>
-        <v>2.18333333333333</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="F30" s="8"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16" t="n">
+        <f aca="false">(E30-D30-F30+G30)</f>
+        <v>0.090972222222223</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="22" t="n">
         <f aca="false">A30+1</f>
         <v>43038</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="23" t="n">
         <f aca="false">A31</f>
         <v>43038</v>
       </c>
@@ -1440,65 +1581,72 @@
         <f aca="false">WEEKNUM(A31,2)</f>
         <v>45</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="8" t="n">
-        <f aca="false">(E31-D31-F31)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="n">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16" t="n">
+        <f aca="false">(E31-D31-F31+G31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="31" t="n">
         <f aca="false">A31+1</f>
         <v>43039</v>
       </c>
-      <c r="B32" s="29" t="n">
+      <c r="B32" s="32" t="n">
         <f aca="false">A32</f>
         <v>43039</v>
       </c>
-      <c r="C32" s="30" t="n">
+      <c r="C32" s="33" t="n">
         <f aca="false">WEEKNUM(A32,2)</f>
         <v>45</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32" t="n">
-        <f aca="false">(E32-D32-F32)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="32"/>
-    </row>
-    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="0" t="n">
-        <f aca="false">3*Zusammenfassung!B1</f>
-        <v>27</v>
-      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="16" t="n">
+        <f aca="false">(E32-D32-F32+G32)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="35"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="8" t="n">
+        <f aca="false">Zusammenfassung!C7</f>
+        <v>1.125</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-    </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36" t="n">
-        <f aca="false">SUM(G2:G32)</f>
-        <v>11.35</v>
-      </c>
-      <c r="H34" s="36"/>
+      <c r="H33" s="37"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40" t="n">
+        <f aca="false">SUM(H2:H32)</f>
+        <v>0.677083333333334</v>
+      </c>
+      <c r="I34" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I14:L14"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
@@ -1506,59 +1654,59 @@
   <conditionalFormatting sqref="B2:C32">
     <cfRule type="timePeriod" priority="2" timePeriod="yesterday" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="J8">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>WEEKDAY($A8,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
+  <conditionalFormatting sqref="J2">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>WEEKDAY($A2,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
+  <conditionalFormatting sqref="J9">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>WEEKDAY($A9,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="J15">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>WEEKDAY($A15,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="J17">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>WEEKDAY($A17,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
+  <conditionalFormatting sqref="J16">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>WEEKDAY($A16,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="J22">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>WEEKDAY($A22,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="J23">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>WEEKDAY($A23,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="J29">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>WEEKDAY($A29,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="J32">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>WEEKDAY($A30,2) &gt; 5</formula>
+      <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="I30">
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>WEEKDAY($A32,2) &gt; 5</formula>
+      <formula>WEEKDAY($A30,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1576,17 +1724,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
@@ -1594,38 +1742,41 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="H1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42" t="n">
         <f aca="false">DATE(2017,11,1)</f>
         <v>43040</v>
       </c>
-      <c r="B2" s="22" t="n">
+      <c r="B2" s="23" t="n">
         <f aca="false">A2</f>
         <v>43040</v>
       </c>
@@ -1633,20 +1784,21 @@
         <f aca="false">WEEKNUM(A2,2)</f>
         <v>45</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="8" t="n">
-        <f aca="false">(E2-D2-F2)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="n">
+        <f aca="false">(E2-D2-F2+G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="42" t="n">
         <f aca="false">A2+1</f>
         <v>43041</v>
       </c>
-      <c r="B3" s="22" t="n">
+      <c r="B3" s="23" t="n">
         <f aca="false">A3</f>
         <v>43041</v>
       </c>
@@ -1654,20 +1806,21 @@
         <f aca="false">WEEKNUM(A3,2)</f>
         <v>45</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="8" t="n">
-        <f aca="false">(E3-D3-F3)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="n">
+        <f aca="false">(E3-D3-F3+G3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="42" t="n">
         <f aca="false">A3+1</f>
         <v>43042</v>
       </c>
-      <c r="B4" s="22" t="n">
+      <c r="B4" s="23" t="n">
         <f aca="false">A4</f>
         <v>43042</v>
       </c>
@@ -1675,20 +1828,26 @@
         <f aca="false">WEEKNUM(A4,2)</f>
         <v>45</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="8" t="n">
-        <f aca="false">(E4-D4-F4)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <f aca="false">(E4-D4-F4+G4)</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="42" t="n">
         <f aca="false">A4+1</f>
         <v>43043</v>
       </c>
-      <c r="B5" s="22" t="n">
+      <c r="B5" s="23" t="n">
         <f aca="false">A5</f>
         <v>43043</v>
       </c>
@@ -1696,27 +1855,28 @@
         <f aca="false">WEEKNUM(A5,2)</f>
         <v>45</v>
       </c>
-      <c r="D5" s="23" t="n">
+      <c r="D5" s="8" t="n">
         <v>0.791666666666667</v>
       </c>
-      <c r="E5" s="23" t="n">
+      <c r="E5" s="8" t="n">
         <v>0.904166666666667</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="8" t="n">
-        <f aca="false">(E5-D5-F5)*24</f>
-        <v>2.70000000000001</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="n">
+        <f aca="false">(E5-D5-F5+G5)</f>
+        <v>0.1125</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="42" t="n">
         <f aca="false">A5+1</f>
         <v>43044</v>
       </c>
-      <c r="B6" s="22" t="n">
+      <c r="B6" s="23" t="n">
         <f aca="false">A6</f>
         <v>43044</v>
       </c>
@@ -1724,21 +1884,22 @@
         <f aca="false">WEEKNUM(A6,2)</f>
         <v>45</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="8" t="n">
-        <f aca="false">(E6-D6-F6)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="n">
+        <f aca="false">(E6-D6-F6+G6)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="42" t="n">
         <f aca="false">A6+1</f>
         <v>43045</v>
       </c>
-      <c r="B7" s="22" t="n">
+      <c r="B7" s="23" t="n">
         <f aca="false">A7</f>
         <v>43045</v>
       </c>
@@ -1746,20 +1907,21 @@
         <f aca="false">WEEKNUM(A7,2)</f>
         <v>46</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="8" t="n">
-        <f aca="false">(E7-D7-F7)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="n">
+        <f aca="false">(E7-D7-F7+G7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="42" t="n">
         <f aca="false">A7+1</f>
         <v>43046</v>
       </c>
-      <c r="B8" s="22" t="n">
+      <c r="B8" s="23" t="n">
         <f aca="false">A8</f>
         <v>43046</v>
       </c>
@@ -1767,20 +1929,28 @@
         <f aca="false">WEEKNUM(A8,2)</f>
         <v>46</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="8" t="n">
-        <f aca="false">(E8-D8-F8)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="D8" s="8" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>0.697916666666667</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="n">
+        <f aca="false">(E8-D8-F8+G8)</f>
+        <v>0.0729166666666666</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="42" t="n">
         <f aca="false">A8+1</f>
         <v>43047</v>
       </c>
-      <c r="B9" s="22" t="n">
+      <c r="B9" s="23" t="n">
         <f aca="false">A9</f>
         <v>43047</v>
       </c>
@@ -1788,20 +1958,30 @@
         <f aca="false">WEEKNUM(A9,2)</f>
         <v>46</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="8" t="n">
-        <f aca="false">(E9-D9-F9)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="D9" s="8" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>0.988194444444444</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="n">
+        <f aca="false">(E9-D9-F9+G9)</f>
+        <v>0.134027777777777</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="42" t="n">
         <f aca="false">A9+1</f>
         <v>43048</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="23" t="n">
         <f aca="false">A10</f>
         <v>43048</v>
       </c>
@@ -1809,20 +1989,21 @@
         <f aca="false">WEEKNUM(A10,2)</f>
         <v>46</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="8" t="n">
-        <f aca="false">(E10-D10-F10)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="n">
+        <f aca="false">(E10-D10-F10+G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="42" t="n">
         <f aca="false">A10+1</f>
         <v>43049</v>
       </c>
-      <c r="B11" s="22" t="n">
+      <c r="B11" s="23" t="n">
         <f aca="false">A11</f>
         <v>43049</v>
       </c>
@@ -1830,20 +2011,21 @@
         <f aca="false">WEEKNUM(A11,2)</f>
         <v>46</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="8" t="n">
-        <f aca="false">(E11-D11-F11)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="n">
+        <f aca="false">(E11-D11-F11+G11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="42" t="n">
         <f aca="false">A11+1</f>
         <v>43050</v>
       </c>
-      <c r="B12" s="22" t="n">
+      <c r="B12" s="23" t="n">
         <f aca="false">A12</f>
         <v>43050</v>
       </c>
@@ -1851,21 +2033,22 @@
         <f aca="false">WEEKNUM(A12,2)</f>
         <v>46</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="8" t="n">
-        <f aca="false">(E12-D12-F12)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="n">
+        <f aca="false">(E12-D12-F12+G12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="42" t="n">
         <f aca="false">A12+1</f>
         <v>43051</v>
       </c>
-      <c r="B13" s="22" t="n">
+      <c r="B13" s="23" t="n">
         <f aca="false">A13</f>
         <v>43051</v>
       </c>
@@ -1873,21 +2056,22 @@
         <f aca="false">WEEKNUM(A13,2)</f>
         <v>46</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="8" t="n">
-        <f aca="false">(E13-D13-F13)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="n">
+        <f aca="false">(E13-D13-F13+G13)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="42" t="n">
         <f aca="false">A13+1</f>
         <v>43052</v>
       </c>
-      <c r="B14" s="22" t="n">
+      <c r="B14" s="23" t="n">
         <f aca="false">A14</f>
         <v>43052</v>
       </c>
@@ -1895,20 +2079,21 @@
         <f aca="false">WEEKNUM(A14,2)</f>
         <v>47</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="8" t="n">
-        <f aca="false">(E14-D14-F14)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="n">
+        <f aca="false">(E14-D14-F14+G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="42" t="n">
         <f aca="false">A14+1</f>
         <v>43053</v>
       </c>
-      <c r="B15" s="22" t="n">
+      <c r="B15" s="23" t="n">
         <f aca="false">A15</f>
         <v>43053</v>
       </c>
@@ -1916,20 +2101,21 @@
         <f aca="false">WEEKNUM(A15,2)</f>
         <v>47</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="8" t="n">
-        <f aca="false">(E15-D15-F15)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="n">
+        <f aca="false">(E15-D15-F15+G15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="42" t="n">
         <f aca="false">A15+1</f>
         <v>43054</v>
       </c>
-      <c r="B16" s="22" t="n">
+      <c r="B16" s="23" t="n">
         <f aca="false">A16</f>
         <v>43054</v>
       </c>
@@ -1937,20 +2123,21 @@
         <f aca="false">WEEKNUM(A16,2)</f>
         <v>47</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="8" t="n">
-        <f aca="false">(E16-D16-F16)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="n">
+        <f aca="false">(E16-D16-F16+G16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="42" t="n">
         <f aca="false">A16+1</f>
         <v>43055</v>
       </c>
-      <c r="B17" s="22" t="n">
+      <c r="B17" s="23" t="n">
         <f aca="false">A17</f>
         <v>43055</v>
       </c>
@@ -1958,20 +2145,21 @@
         <f aca="false">WEEKNUM(A17,2)</f>
         <v>47</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="8" t="n">
-        <f aca="false">(E17-D17-F17)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="n">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="n">
+        <f aca="false">(E17-D17-F17+G17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="44" t="n">
         <f aca="false">A17+1</f>
         <v>43056</v>
       </c>
-      <c r="B18" s="25" t="n">
+      <c r="B18" s="26" t="n">
         <f aca="false">A18</f>
         <v>43056</v>
       </c>
@@ -1979,19 +2167,27 @@
         <f aca="false">WEEKNUM(A18,2)</f>
         <v>47</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="n">
+        <f aca="false">(E18-D18-F18+G18)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="42" t="n">
         <f aca="false">A18+1</f>
         <v>43057</v>
       </c>
-      <c r="B19" s="22" t="n">
+      <c r="B19" s="23" t="n">
         <f aca="false">A19</f>
         <v>43057</v>
       </c>
@@ -1999,21 +2195,22 @@
         <f aca="false">WEEKNUM(A19,2)</f>
         <v>47</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="8" t="n">
-        <f aca="false">(E19-D19-F19)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="n">
+        <f aca="false">(E19-D19-F19+G19)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="42" t="n">
         <f aca="false">A19+1</f>
         <v>43058</v>
       </c>
-      <c r="B20" s="22" t="n">
+      <c r="B20" s="23" t="n">
         <f aca="false">A20</f>
         <v>43058</v>
       </c>
@@ -2021,21 +2218,22 @@
         <f aca="false">WEEKNUM(A20,2)</f>
         <v>47</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="8" t="n">
-        <f aca="false">(E20-D20-F20)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="n">
+        <f aca="false">(E20-D20-F20+G20)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="42" t="n">
         <f aca="false">A20+1</f>
         <v>43059</v>
       </c>
-      <c r="B21" s="22" t="n">
+      <c r="B21" s="23" t="n">
         <f aca="false">A21</f>
         <v>43059</v>
       </c>
@@ -2043,20 +2241,21 @@
         <f aca="false">WEEKNUM(A21,2)</f>
         <v>48</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="8" t="n">
-        <f aca="false">(E21-D21-F21)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="n">
+        <f aca="false">(E21-D21-F21+G21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="42" t="n">
         <f aca="false">A21+1</f>
         <v>43060</v>
       </c>
-      <c r="B22" s="22" t="n">
+      <c r="B22" s="23" t="n">
         <f aca="false">A22</f>
         <v>43060</v>
       </c>
@@ -2064,20 +2263,21 @@
         <f aca="false">WEEKNUM(A22,2)</f>
         <v>48</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="8" t="n">
-        <f aca="false">(E22-D22-F22)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="n">
+        <f aca="false">(E22-D22-F22+G22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="42" t="n">
         <f aca="false">A22+1</f>
         <v>43061</v>
       </c>
-      <c r="B23" s="22" t="n">
+      <c r="B23" s="23" t="n">
         <f aca="false">A23</f>
         <v>43061</v>
       </c>
@@ -2085,20 +2285,21 @@
         <f aca="false">WEEKNUM(A23,2)</f>
         <v>48</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="8" t="n">
-        <f aca="false">(E23-D23-F23)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="n">
+        <f aca="false">(E23-D23-F23+G23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="42" t="n">
         <f aca="false">A23+1</f>
         <v>43062</v>
       </c>
-      <c r="B24" s="22" t="n">
+      <c r="B24" s="23" t="n">
         <f aca="false">A24</f>
         <v>43062</v>
       </c>
@@ -2106,20 +2307,21 @@
         <f aca="false">WEEKNUM(A24,2)</f>
         <v>48</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="8" t="n">
-        <f aca="false">(E24-D24-F24)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8" t="n">
+        <f aca="false">(E24-D24-F24+G24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="42" t="n">
         <f aca="false">A24+1</f>
         <v>43063</v>
       </c>
-      <c r="B25" s="22" t="n">
+      <c r="B25" s="23" t="n">
         <f aca="false">A25</f>
         <v>43063</v>
       </c>
@@ -2127,20 +2329,21 @@
         <f aca="false">WEEKNUM(A25,2)</f>
         <v>48</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="8" t="n">
-        <f aca="false">(E25-D25-F25)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8" t="n">
+        <f aca="false">(E25-D25-F25+G25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="42" t="n">
         <f aca="false">A25+1</f>
         <v>43064</v>
       </c>
-      <c r="B26" s="22" t="n">
+      <c r="B26" s="23" t="n">
         <f aca="false">A26</f>
         <v>43064</v>
       </c>
@@ -2148,21 +2351,22 @@
         <f aca="false">WEEKNUM(A26,2)</f>
         <v>48</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="8" t="n">
-        <f aca="false">(E26-D26-F26)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8" t="n">
+        <f aca="false">(E26-D26-F26+G26)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="42" t="n">
         <f aca="false">A26+1</f>
         <v>43065</v>
       </c>
-      <c r="B27" s="22" t="n">
+      <c r="B27" s="23" t="n">
         <f aca="false">A27</f>
         <v>43065</v>
       </c>
@@ -2170,21 +2374,22 @@
         <f aca="false">WEEKNUM(A27,2)</f>
         <v>48</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="8" t="n">
-        <f aca="false">(E27-D27-F27)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8" t="n">
+        <f aca="false">(E27-D27-F27+G27)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="42" t="n">
         <f aca="false">A27+1</f>
         <v>43066</v>
       </c>
-      <c r="B28" s="22" t="n">
+      <c r="B28" s="23" t="n">
         <f aca="false">A28</f>
         <v>43066</v>
       </c>
@@ -2192,20 +2397,21 @@
         <f aca="false">WEEKNUM(A28,2)</f>
         <v>49</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="8" t="n">
-        <f aca="false">(E28-D28-F28)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8" t="n">
+        <f aca="false">(E28-D28-F28+G28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="42" t="n">
         <f aca="false">A28+1</f>
         <v>43067</v>
       </c>
-      <c r="B29" s="22" t="n">
+      <c r="B29" s="23" t="n">
         <f aca="false">A29</f>
         <v>43067</v>
       </c>
@@ -2213,20 +2419,21 @@
         <f aca="false">WEEKNUM(A29,2)</f>
         <v>49</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="8" t="n">
-        <f aca="false">(E29-D29-F29)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="n">
+        <f aca="false">(E29-D29-F29+G29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="42" t="n">
         <f aca="false">A29+1</f>
         <v>43068</v>
       </c>
-      <c r="B30" s="22" t="n">
+      <c r="B30" s="23" t="n">
         <f aca="false">A30</f>
         <v>43068</v>
       </c>
@@ -2234,20 +2441,21 @@
         <f aca="false">WEEKNUM(A30,2)</f>
         <v>49</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="8" t="n">
-        <f aca="false">(E30-D30-F30)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8" t="n">
+        <f aca="false">(E30-D30-F30+G30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="42" t="n">
         <f aca="false">A30+1</f>
         <v>43069</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="23" t="n">
         <f aca="false">A31</f>
         <v>43069</v>
       </c>
@@ -2255,100 +2463,107 @@
         <f aca="false">WEEKNUM(A31,2)</f>
         <v>49</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="8" t="n">
-        <f aca="false">(E31-D31-F31)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="37"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-    </row>
-    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="0" t="n">
-        <f aca="false">5*Zusammenfassung!B1</f>
-        <v>45</v>
-      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8" t="n">
+        <f aca="false">(E31-D31-F31+G31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="45"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="35"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="8" t="n">
+        <f aca="false">Zusammenfassung!C8</f>
+        <v>1.875</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-    </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36" t="n">
-        <f aca="false">SUM(G2:G32)</f>
-        <v>2.70000000000001</v>
-      </c>
-      <c r="H34" s="36"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40" t="n">
+        <f aca="false">SUM(H2:H32)</f>
+        <v>0.402777777777777</v>
+      </c>
+      <c r="I34" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:L18"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C32">
     <cfRule type="timePeriod" priority="2" timePeriod="yesterday" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
+  <conditionalFormatting sqref="I5">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>WEEKDAY($A5,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="I6">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>WEEKDAY($A6,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="I12">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>WEEKDAY($A12,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="I13">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>WEEKDAY($A13,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="I19">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>WEEKDAY($A19,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="I20">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>WEEKDAY($A20,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="I26">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>WEEKDAY($A26,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="I27">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>WEEKDAY($A27,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="I32">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
@@ -2368,17 +2583,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
@@ -2386,39 +2601,41 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="38"/>
-    </row>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="H1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42" t="n">
         <f aca="false">DATE(2017,12,1)</f>
         <v>43070</v>
       </c>
-      <c r="B2" s="22" t="n">
+      <c r="B2" s="23" t="n">
         <f aca="false">A2</f>
         <v>43070</v>
       </c>
@@ -2426,20 +2643,20 @@
         <f aca="false">WEEKNUM(A2,2)</f>
         <v>49</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="8" t="n">
-        <f aca="false">(E2-D2-F2)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="H2" s="47" t="n">
+        <f aca="false">(E2-D2-F2+G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="42" t="n">
         <f aca="false">A2+1</f>
         <v>43071</v>
       </c>
-      <c r="B3" s="22" t="n">
+      <c r="B3" s="23" t="n">
         <f aca="false">A3</f>
         <v>43071</v>
       </c>
@@ -2447,21 +2664,21 @@
         <f aca="false">WEEKNUM(A3,2)</f>
         <v>49</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="8" t="n">
-        <f aca="false">(E3-D3-F3)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="H3" s="47" t="n">
+        <f aca="false">(E3-D3-F3+G3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="42" t="n">
         <f aca="false">A3+1</f>
         <v>43072</v>
       </c>
-      <c r="B4" s="22" t="n">
+      <c r="B4" s="23" t="n">
         <f aca="false">A4</f>
         <v>43072</v>
       </c>
@@ -2469,21 +2686,21 @@
         <f aca="false">WEEKNUM(A4,2)</f>
         <v>49</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="8" t="n">
-        <f aca="false">(E4-D4-F4)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="H4" s="47" t="n">
+        <f aca="false">(E4-D4-F4+G4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="42" t="n">
         <f aca="false">A4+1</f>
         <v>43073</v>
       </c>
-      <c r="B5" s="22" t="n">
+      <c r="B5" s="23" t="n">
         <f aca="false">A5</f>
         <v>43073</v>
       </c>
@@ -2491,20 +2708,20 @@
         <f aca="false">WEEKNUM(A5,2)</f>
         <v>50</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="8" t="n">
-        <f aca="false">(E5-D5-F5)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="H5" s="47" t="n">
+        <f aca="false">(E5-D5-F5+G5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="42" t="n">
         <f aca="false">A5+1</f>
         <v>43074</v>
       </c>
-      <c r="B6" s="22" t="n">
+      <c r="B6" s="23" t="n">
         <f aca="false">A6</f>
         <v>43074</v>
       </c>
@@ -2512,20 +2729,20 @@
         <f aca="false">WEEKNUM(A6,2)</f>
         <v>50</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="8" t="n">
-        <f aca="false">(E6-D6-F6)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="H6" s="47" t="n">
+        <f aca="false">(E6-D6-F6+G6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="42" t="n">
         <f aca="false">A6+1</f>
         <v>43075</v>
       </c>
-      <c r="B7" s="22" t="n">
+      <c r="B7" s="23" t="n">
         <f aca="false">A7</f>
         <v>43075</v>
       </c>
@@ -2533,20 +2750,20 @@
         <f aca="false">WEEKNUM(A7,2)</f>
         <v>50</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="8" t="n">
-        <f aca="false">(E7-D7-F7)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="H7" s="47" t="n">
+        <f aca="false">(E7-D7-F7+G7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="42" t="n">
         <f aca="false">A7+1</f>
         <v>43076</v>
       </c>
-      <c r="B8" s="22" t="n">
+      <c r="B8" s="23" t="n">
         <f aca="false">A8</f>
         <v>43076</v>
       </c>
@@ -2554,20 +2771,20 @@
         <f aca="false">WEEKNUM(A8,2)</f>
         <v>50</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="8" t="n">
-        <f aca="false">(E8-D8-F8)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="H8" s="47" t="n">
+        <f aca="false">(E8-D8-F8+G8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="42" t="n">
         <f aca="false">A8+1</f>
         <v>43077</v>
       </c>
-      <c r="B9" s="22" t="n">
+      <c r="B9" s="23" t="n">
         <f aca="false">A9</f>
         <v>43077</v>
       </c>
@@ -2575,20 +2792,20 @@
         <f aca="false">WEEKNUM(A9,2)</f>
         <v>50</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="8" t="n">
-        <f aca="false">(E9-D9-F9)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="H9" s="47" t="n">
+        <f aca="false">(E9-D9-F9+G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="42" t="n">
         <f aca="false">A9+1</f>
         <v>43078</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="23" t="n">
         <f aca="false">A10</f>
         <v>43078</v>
       </c>
@@ -2596,21 +2813,21 @@
         <f aca="false">WEEKNUM(A10,2)</f>
         <v>50</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="8" t="n">
-        <f aca="false">(E10-D10-F10)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="H10" s="47" t="n">
+        <f aca="false">(E10-D10-F10+G10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="42" t="n">
         <f aca="false">A10+1</f>
         <v>43079</v>
       </c>
-      <c r="B11" s="22" t="n">
+      <c r="B11" s="23" t="n">
         <f aca="false">A11</f>
         <v>43079</v>
       </c>
@@ -2618,21 +2835,21 @@
         <f aca="false">WEEKNUM(A11,2)</f>
         <v>50</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="8" t="n">
-        <f aca="false">(E11-D11-F11)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="H11" s="47" t="n">
+        <f aca="false">(E11-D11-F11+G11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="42" t="n">
         <f aca="false">A11+1</f>
         <v>43080</v>
       </c>
-      <c r="B12" s="22" t="n">
+      <c r="B12" s="23" t="n">
         <f aca="false">A12</f>
         <v>43080</v>
       </c>
@@ -2640,20 +2857,20 @@
         <f aca="false">WEEKNUM(A12,2)</f>
         <v>51</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="8" t="n">
-        <f aca="false">(E12-D12-F12)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="H12" s="47" t="n">
+        <f aca="false">(E12-D12-F12+G12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="42" t="n">
         <f aca="false">A12+1</f>
         <v>43081</v>
       </c>
-      <c r="B13" s="22" t="n">
+      <c r="B13" s="23" t="n">
         <f aca="false">A13</f>
         <v>43081</v>
       </c>
@@ -2661,20 +2878,20 @@
         <f aca="false">WEEKNUM(A13,2)</f>
         <v>51</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="8" t="n">
-        <f aca="false">(E13-D13-F13)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="H13" s="47" t="n">
+        <f aca="false">(E13-D13-F13+G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="42" t="n">
         <f aca="false">A13+1</f>
         <v>43082</v>
       </c>
-      <c r="B14" s="22" t="n">
+      <c r="B14" s="23" t="n">
         <f aca="false">A14</f>
         <v>43082</v>
       </c>
@@ -2682,20 +2899,20 @@
         <f aca="false">WEEKNUM(A14,2)</f>
         <v>51</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="8" t="n">
-        <f aca="false">(E14-D14-F14)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="H14" s="47" t="n">
+        <f aca="false">(E14-D14-F14+G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="42" t="n">
         <f aca="false">A14+1</f>
         <v>43083</v>
       </c>
-      <c r="B15" s="22" t="n">
+      <c r="B15" s="23" t="n">
         <f aca="false">A15</f>
         <v>43083</v>
       </c>
@@ -2703,20 +2920,20 @@
         <f aca="false">WEEKNUM(A15,2)</f>
         <v>51</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="8" t="n">
-        <f aca="false">(E15-D15-F15)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="n">
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="H15" s="47" t="n">
+        <f aca="false">(E15-D15-F15+G15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="44" t="n">
         <f aca="false">A15+1</f>
         <v>43084</v>
       </c>
-      <c r="B16" s="25" t="n">
+      <c r="B16" s="26" t="n">
         <f aca="false">A16</f>
         <v>43084</v>
       </c>
@@ -2724,19 +2941,27 @@
         <f aca="false">WEEKNUM(A16,2)</f>
         <v>51</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="47" t="n">
+        <f aca="false">(E16-D16-F16+G16)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="42" t="n">
         <f aca="false">A16+1</f>
         <v>43085</v>
       </c>
-      <c r="B17" s="22" t="n">
+      <c r="B17" s="23" t="n">
         <f aca="false">A17</f>
         <v>43085</v>
       </c>
@@ -2744,21 +2969,21 @@
         <f aca="false">WEEKNUM(A17,2)</f>
         <v>51</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="8" t="n">
-        <f aca="false">(E17-D17-F17)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="H17" s="47" t="n">
+        <f aca="false">(E17-D17-F17+G17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="42" t="n">
         <f aca="false">A17+1</f>
         <v>43086</v>
       </c>
-      <c r="B18" s="22" t="n">
+      <c r="B18" s="23" t="n">
         <f aca="false">A18</f>
         <v>43086</v>
       </c>
@@ -2766,21 +2991,21 @@
         <f aca="false">WEEKNUM(A18,2)</f>
         <v>51</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="8" t="n">
-        <f aca="false">(E18-D18-F18)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="H18" s="47" t="n">
+        <f aca="false">(E18-D18-F18+G18)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="42" t="n">
         <f aca="false">A18+1</f>
         <v>43087</v>
       </c>
-      <c r="B19" s="22" t="n">
+      <c r="B19" s="23" t="n">
         <f aca="false">A19</f>
         <v>43087</v>
       </c>
@@ -2788,20 +3013,20 @@
         <f aca="false">WEEKNUM(A19,2)</f>
         <v>52</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="8" t="n">
-        <f aca="false">(E19-D19-F19)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="H19" s="47" t="n">
+        <f aca="false">(E19-D19-F19+G19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="42" t="n">
         <f aca="false">A19+1</f>
         <v>43088</v>
       </c>
-      <c r="B20" s="22" t="n">
+      <c r="B20" s="23" t="n">
         <f aca="false">A20</f>
         <v>43088</v>
       </c>
@@ -2809,20 +3034,20 @@
         <f aca="false">WEEKNUM(A20,2)</f>
         <v>52</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="8" t="n">
-        <f aca="false">(E20-D20-F20)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="H20" s="47" t="n">
+        <f aca="false">(E20-D20-F20+G20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="42" t="n">
         <f aca="false">A20+1</f>
         <v>43089</v>
       </c>
-      <c r="B21" s="22" t="n">
+      <c r="B21" s="23" t="n">
         <f aca="false">A21</f>
         <v>43089</v>
       </c>
@@ -2830,20 +3055,20 @@
         <f aca="false">WEEKNUM(A21,2)</f>
         <v>52</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="8" t="n">
-        <f aca="false">(E21-D21-F21)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="H21" s="47" t="n">
+        <f aca="false">(E21-D21-F21+G21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="42" t="n">
         <f aca="false">A21+1</f>
         <v>43090</v>
       </c>
-      <c r="B22" s="22" t="n">
+      <c r="B22" s="23" t="n">
         <f aca="false">A22</f>
         <v>43090</v>
       </c>
@@ -2851,20 +3076,20 @@
         <f aca="false">WEEKNUM(A22,2)</f>
         <v>52</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="8" t="n">
-        <f aca="false">(E22-D22-F22)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="H22" s="47" t="n">
+        <f aca="false">(E22-D22-F22+G22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="42" t="n">
         <f aca="false">A22+1</f>
         <v>43091</v>
       </c>
-      <c r="B23" s="22" t="n">
+      <c r="B23" s="23" t="n">
         <f aca="false">A23</f>
         <v>43091</v>
       </c>
@@ -2872,20 +3097,20 @@
         <f aca="false">WEEKNUM(A23,2)</f>
         <v>52</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="8" t="n">
-        <f aca="false">(E23-D23-F23)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="H23" s="47" t="n">
+        <f aca="false">(E23-D23-F23+G23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="42" t="n">
         <f aca="false">A23+1</f>
         <v>43092</v>
       </c>
-      <c r="B24" s="22" t="n">
+      <c r="B24" s="23" t="n">
         <f aca="false">A24</f>
         <v>43092</v>
       </c>
@@ -2893,21 +3118,21 @@
         <f aca="false">WEEKNUM(A24,2)</f>
         <v>52</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="8" t="n">
-        <f aca="false">(E24-D24-F24)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="H24" s="47" t="n">
+        <f aca="false">(E24-D24-F24+G24)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="42" t="n">
         <f aca="false">A24+1</f>
         <v>43093</v>
       </c>
-      <c r="B25" s="22" t="n">
+      <c r="B25" s="23" t="n">
         <f aca="false">A25</f>
         <v>43093</v>
       </c>
@@ -2915,21 +3140,21 @@
         <f aca="false">WEEKNUM(A25,2)</f>
         <v>52</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="8" t="n">
-        <f aca="false">(E25-D25-F25)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="H25" s="47" t="n">
+        <f aca="false">(E25-D25-F25+G25)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="42" t="n">
         <f aca="false">A25+1</f>
         <v>43094</v>
       </c>
-      <c r="B26" s="22" t="n">
+      <c r="B26" s="23" t="n">
         <f aca="false">A26</f>
         <v>43094</v>
       </c>
@@ -2937,20 +3162,20 @@
         <f aca="false">WEEKNUM(A26,2)</f>
         <v>53</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="8" t="n">
-        <f aca="false">(E26-D26-F26)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="H26" s="47" t="n">
+        <f aca="false">(E26-D26-F26+G26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="42" t="n">
         <f aca="false">A26+1</f>
         <v>43095</v>
       </c>
-      <c r="B27" s="22" t="n">
+      <c r="B27" s="23" t="n">
         <f aca="false">A27</f>
         <v>43095</v>
       </c>
@@ -2958,20 +3183,20 @@
         <f aca="false">WEEKNUM(A27,2)</f>
         <v>53</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="8" t="n">
-        <f aca="false">(E27-D27-F27)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="H27" s="47" t="n">
+        <f aca="false">(E27-D27-F27+G27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="42" t="n">
         <f aca="false">A27+1</f>
         <v>43096</v>
       </c>
-      <c r="B28" s="22" t="n">
+      <c r="B28" s="23" t="n">
         <f aca="false">A28</f>
         <v>43096</v>
       </c>
@@ -2979,20 +3204,20 @@
         <f aca="false">WEEKNUM(A28,2)</f>
         <v>53</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="8" t="n">
-        <f aca="false">(E28-D28-F28)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="H28" s="47" t="n">
+        <f aca="false">(E28-D28-F28+G28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="42" t="n">
         <f aca="false">A28+1</f>
         <v>43097</v>
       </c>
-      <c r="B29" s="22" t="n">
+      <c r="B29" s="23" t="n">
         <f aca="false">A29</f>
         <v>43097</v>
       </c>
@@ -3000,20 +3225,20 @@
         <f aca="false">WEEKNUM(A29,2)</f>
         <v>53</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="8" t="n">
-        <f aca="false">(E29-D29-F29)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="H29" s="47" t="n">
+        <f aca="false">(E29-D29-F29+G29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="42" t="n">
         <f aca="false">A29+1</f>
         <v>43098</v>
       </c>
-      <c r="B30" s="22" t="n">
+      <c r="B30" s="23" t="n">
         <f aca="false">A30</f>
         <v>43098</v>
       </c>
@@ -3021,20 +3246,20 @@
         <f aca="false">WEEKNUM(A30,2)</f>
         <v>53</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="8" t="n">
-        <f aca="false">(E30-D30-F30)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="H30" s="47" t="n">
+        <f aca="false">(E30-D30-F30+G30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="42" t="n">
         <f aca="false">A30+1</f>
         <v>43099</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="23" t="n">
         <f aca="false">A31</f>
         <v>43099</v>
       </c>
@@ -3042,119 +3267,122 @@
         <f aca="false">WEEKNUM(A31,2)</f>
         <v>53</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="8" t="n">
-        <f aca="false">(E31-D31-F31)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="n">
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="H31" s="47" t="n">
+        <f aca="false">(E31-D31-F31+G31)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="48" t="n">
         <f aca="false">A31+1</f>
         <v>43100</v>
       </c>
-      <c r="B32" s="29" t="n">
+      <c r="B32" s="32" t="n">
         <f aca="false">A32</f>
         <v>43100</v>
       </c>
-      <c r="C32" s="30" t="n">
+      <c r="C32" s="33" t="n">
         <f aca="false">WEEKNUM(A32,2)</f>
         <v>53</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32" t="n">
-        <f aca="false">(E32-D32-F32)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="32"/>
-    </row>
-    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="0" t="n">
-        <f aca="false">4*Zusammenfassung!B1</f>
-        <v>36</v>
-      </c>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36" t="n">
-        <f aca="false">SUM(G2:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="36"/>
-    </row>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="47" t="n">
+        <f aca="false">(E32-D32-F32+G32)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="35"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="8" t="n">
+        <f aca="false">Zusammenfassung!C9</f>
+        <v>1.5</v>
+      </c>
+      <c r="H33" s="50"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="51" t="n">
+        <f aca="false">SUM(H2:H32)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="41"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:L16"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C32">
     <cfRule type="timePeriod" priority="2" timePeriod="yesterday" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="I25">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>WEEKDAY($A25,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="I31">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>WEEKDAY($A31,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="I24">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>WEEKDAY($A24,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
+  <conditionalFormatting sqref="I18">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>WEEKDAY($A18,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="I17">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>WEEKDAY($A17,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="I11">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>WEEKDAY($A11,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="I10">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>WEEKDAY($A10,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="I4">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>WEEKDAY($A4,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="I3">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>WEEKDAY($A3,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3173,17 +3401,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
@@ -3191,39 +3419,41 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="39"/>
-    </row>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="H1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42" t="n">
         <f aca="false">DATE(2018,1,1)</f>
         <v>43101</v>
       </c>
-      <c r="B2" s="22" t="n">
+      <c r="B2" s="23" t="n">
         <f aca="false">A2</f>
         <v>43101</v>
       </c>
@@ -3231,19 +3461,21 @@
         <f aca="false">WEEKNUM(A2,2)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="n">
+        <f aca="false">E2-D2-F2+G2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="42" t="n">
         <f aca="false">A2+1</f>
         <v>43102</v>
       </c>
-      <c r="B3" s="22" t="n">
+      <c r="B3" s="23" t="n">
         <f aca="false">A3</f>
         <v>43102</v>
       </c>
@@ -3251,20 +3483,21 @@
         <f aca="false">WEEKNUM(A3,2)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="8" t="n">
-        <f aca="false">(E3-D3-F3)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="n">
+        <f aca="false">E3-D3-F3+G3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="42" t="n">
         <f aca="false">A3+1</f>
         <v>43103</v>
       </c>
-      <c r="B4" s="22" t="n">
+      <c r="B4" s="23" t="n">
         <f aca="false">A4</f>
         <v>43103</v>
       </c>
@@ -3272,20 +3505,21 @@
         <f aca="false">WEEKNUM(A4,2)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="8" t="n">
-        <f aca="false">(E4-D4-F4)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47" t="n">
+        <f aca="false">E4-D4-F4+G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="42" t="n">
         <f aca="false">A4+1</f>
         <v>43104</v>
       </c>
-      <c r="B5" s="22" t="n">
+      <c r="B5" s="23" t="n">
         <f aca="false">A5</f>
         <v>43104</v>
       </c>
@@ -3293,20 +3527,21 @@
         <f aca="false">WEEKNUM(A5,2)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="8" t="n">
-        <f aca="false">(E5-D5-F5)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="n">
+        <f aca="false">E5-D5-F5+G5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="42" t="n">
         <f aca="false">A5+1</f>
         <v>43105</v>
       </c>
-      <c r="B6" s="22" t="n">
+      <c r="B6" s="23" t="n">
         <f aca="false">A6</f>
         <v>43105</v>
       </c>
@@ -3314,20 +3549,21 @@
         <f aca="false">WEEKNUM(A6,2)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="8" t="n">
-        <f aca="false">(E6-D6-F6)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47" t="n">
+        <f aca="false">E6-D6-F6+G6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="42" t="n">
         <f aca="false">A6+1</f>
         <v>43106</v>
       </c>
-      <c r="B7" s="22" t="n">
+      <c r="B7" s="23" t="n">
         <f aca="false">A7</f>
         <v>43106</v>
       </c>
@@ -3335,21 +3571,22 @@
         <f aca="false">WEEKNUM(A7,2)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="8" t="n">
-        <f aca="false">(E7-D7-F7)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47" t="n">
+        <f aca="false">E7-D7-F7+G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="42" t="n">
         <f aca="false">A7+1</f>
         <v>43107</v>
       </c>
-      <c r="B8" s="22" t="n">
+      <c r="B8" s="23" t="n">
         <f aca="false">A8</f>
         <v>43107</v>
       </c>
@@ -3357,21 +3594,22 @@
         <f aca="false">WEEKNUM(A8,2)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="8" t="n">
-        <f aca="false">(E8-D8-F8)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47" t="n">
+        <f aca="false">E8-D8-F8+G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="42" t="n">
         <f aca="false">A8+1</f>
         <v>43108</v>
       </c>
-      <c r="B9" s="22" t="n">
+      <c r="B9" s="23" t="n">
         <f aca="false">A9</f>
         <v>43108</v>
       </c>
@@ -3379,20 +3617,21 @@
         <f aca="false">WEEKNUM(A9,2)</f>
         <v>2</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="8" t="n">
-        <f aca="false">(E9-D9-F9)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47" t="n">
+        <f aca="false">E9-D9-F9+G9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="42" t="n">
         <f aca="false">A9+1</f>
         <v>43109</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="23" t="n">
         <f aca="false">A10</f>
         <v>43109</v>
       </c>
@@ -3400,20 +3639,21 @@
         <f aca="false">WEEKNUM(A10,2)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="8" t="n">
-        <f aca="false">(E10-D10-F10)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47" t="n">
+        <f aca="false">E10-D10-F10+G10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="42" t="n">
         <f aca="false">A10+1</f>
         <v>43110</v>
       </c>
-      <c r="B11" s="22" t="n">
+      <c r="B11" s="23" t="n">
         <f aca="false">A11</f>
         <v>43110</v>
       </c>
@@ -3421,20 +3661,21 @@
         <f aca="false">WEEKNUM(A11,2)</f>
         <v>2</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="8" t="n">
-        <f aca="false">(E11-D11-F11)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47" t="n">
+        <f aca="false">E11-D11-F11+G11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="42" t="n">
         <f aca="false">A11+1</f>
         <v>43111</v>
       </c>
-      <c r="B12" s="22" t="n">
+      <c r="B12" s="23" t="n">
         <f aca="false">A12</f>
         <v>43111</v>
       </c>
@@ -3442,20 +3683,21 @@
         <f aca="false">WEEKNUM(A12,2)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="8" t="n">
-        <f aca="false">(E12-D12-F12)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="n">
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47" t="n">
+        <f aca="false">E12-D12-F12+G12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="44" t="n">
         <f aca="false">A12+1</f>
         <v>43112</v>
       </c>
-      <c r="B13" s="25" t="n">
+      <c r="B13" s="26" t="n">
         <f aca="false">A13</f>
         <v>43112</v>
       </c>
@@ -3463,19 +3705,27 @@
         <f aca="false">WEEKNUM(A13,2)</f>
         <v>2</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47" t="n">
+        <f aca="false">E13-D13-F13+G13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="42" t="n">
         <f aca="false">A13+1</f>
         <v>43113</v>
       </c>
-      <c r="B14" s="22" t="n">
+      <c r="B14" s="23" t="n">
         <f aca="false">A14</f>
         <v>43113</v>
       </c>
@@ -3483,21 +3733,25 @@
         <f aca="false">WEEKNUM(A14,2)</f>
         <v>2</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="8" t="n">
-        <f aca="false">(E14-D14-F14)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47" t="n">
+        <f aca="false">E14-D14-F14+G14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="42" t="n">
         <f aca="false">A14+1</f>
         <v>43114</v>
       </c>
-      <c r="B15" s="22" t="n">
+      <c r="B15" s="23" t="n">
         <f aca="false">A15</f>
         <v>43114</v>
       </c>
@@ -3505,21 +3759,25 @@
         <f aca="false">WEEKNUM(A15,2)</f>
         <v>2</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="8" t="n">
-        <f aca="false">(E15-D15-F15)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47" t="n">
+        <f aca="false">E15-D15-F15+G15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="42" t="n">
         <f aca="false">A15+1</f>
         <v>43115</v>
       </c>
-      <c r="B16" s="22" t="n">
+      <c r="B16" s="23" t="n">
         <f aca="false">A16</f>
         <v>43115</v>
       </c>
@@ -3527,20 +3785,25 @@
         <f aca="false">WEEKNUM(A16,2)</f>
         <v>3</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="8" t="n">
-        <f aca="false">(E16-D16-F16)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47" t="n">
+        <f aca="false">E16-D16-F16+G16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="42" t="n">
         <f aca="false">A16+1</f>
         <v>43116</v>
       </c>
-      <c r="B17" s="22" t="n">
+      <c r="B17" s="23" t="n">
         <f aca="false">A17</f>
         <v>43116</v>
       </c>
@@ -3548,20 +3811,25 @@
         <f aca="false">WEEKNUM(A17,2)</f>
         <v>3</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="8" t="n">
-        <f aca="false">(E17-D17-F17)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47" t="n">
+        <f aca="false">E17-D17-F17+G17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="53"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="42" t="n">
         <f aca="false">A17+1</f>
         <v>43117</v>
       </c>
-      <c r="B18" s="22" t="n">
+      <c r="B18" s="23" t="n">
         <f aca="false">A18</f>
         <v>43117</v>
       </c>
@@ -3569,20 +3837,25 @@
         <f aca="false">WEEKNUM(A18,2)</f>
         <v>3</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="8" t="n">
-        <f aca="false">(E18-D18-F18)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47" t="n">
+        <f aca="false">E18-D18-F18+G18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="53"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="42" t="n">
         <f aca="false">A18+1</f>
         <v>43118</v>
       </c>
-      <c r="B19" s="22" t="n">
+      <c r="B19" s="23" t="n">
         <f aca="false">A19</f>
         <v>43118</v>
       </c>
@@ -3590,20 +3863,25 @@
         <f aca="false">WEEKNUM(A19,2)</f>
         <v>3</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="8" t="n">
-        <f aca="false">(E19-D19-F19)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="n">
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47" t="n">
+        <f aca="false">E19-D19-F19+G19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
+    </row>
+    <row r="20" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="44" t="n">
         <f aca="false">A19+1</f>
         <v>43119</v>
       </c>
-      <c r="B20" s="25" t="n">
+      <c r="B20" s="26" t="n">
         <f aca="false">A20</f>
         <v>43119</v>
       </c>
@@ -3611,19 +3889,27 @@
         <f aca="false">WEEKNUM(A20,2)</f>
         <v>3</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47" t="n">
+        <f aca="false">E20-D20-F20+G20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="42" t="n">
         <f aca="false">A20+1</f>
         <v>43120</v>
       </c>
-      <c r="B21" s="22" t="n">
+      <c r="B21" s="23" t="n">
         <f aca="false">A21</f>
         <v>43120</v>
       </c>
@@ -3631,21 +3917,22 @@
         <f aca="false">WEEKNUM(A21,2)</f>
         <v>3</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="8" t="n">
-        <f aca="false">(E21-D21-F21)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47" t="n">
+        <f aca="false">E21-D21-F21+G21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="42" t="n">
         <f aca="false">A21+1</f>
         <v>43121</v>
       </c>
-      <c r="B22" s="22" t="n">
+      <c r="B22" s="23" t="n">
         <f aca="false">A22</f>
         <v>43121</v>
       </c>
@@ -3653,21 +3940,22 @@
         <f aca="false">WEEKNUM(A22,2)</f>
         <v>3</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="8" t="n">
-        <f aca="false">(E22-D22-F22)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47" t="n">
+        <f aca="false">E22-D22-F22+G22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="42" t="n">
         <f aca="false">A22+1</f>
         <v>43122</v>
       </c>
-      <c r="B23" s="22" t="n">
+      <c r="B23" s="23" t="n">
         <f aca="false">A23</f>
         <v>43122</v>
       </c>
@@ -3675,20 +3963,21 @@
         <f aca="false">WEEKNUM(A23,2)</f>
         <v>4</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="8" t="n">
-        <f aca="false">(E23-D23-F23)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47" t="n">
+        <f aca="false">E23-D23-F23+G23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="42" t="n">
         <f aca="false">A23+1</f>
         <v>43123</v>
       </c>
-      <c r="B24" s="22" t="n">
+      <c r="B24" s="23" t="n">
         <f aca="false">A24</f>
         <v>43123</v>
       </c>
@@ -3696,20 +3985,21 @@
         <f aca="false">WEEKNUM(A24,2)</f>
         <v>4</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="8" t="n">
-        <f aca="false">(E24-D24-F24)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47" t="n">
+        <f aca="false">E24-D24-F24+G24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="42" t="n">
         <f aca="false">A24+1</f>
         <v>43124</v>
       </c>
-      <c r="B25" s="22" t="n">
+      <c r="B25" s="23" t="n">
         <f aca="false">A25</f>
         <v>43124</v>
       </c>
@@ -3717,20 +4007,21 @@
         <f aca="false">WEEKNUM(A25,2)</f>
         <v>4</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="8" t="n">
-        <f aca="false">(E25-D25-F25)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47" t="n">
+        <f aca="false">E25-D25-F25+G25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="42" t="n">
         <f aca="false">A25+1</f>
         <v>43125</v>
       </c>
-      <c r="B26" s="22" t="n">
+      <c r="B26" s="23" t="n">
         <f aca="false">A26</f>
         <v>43125</v>
       </c>
@@ -3738,20 +4029,21 @@
         <f aca="false">WEEKNUM(A26,2)</f>
         <v>4</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="8" t="n">
-        <f aca="false">(E26-D26-F26)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47" t="n">
+        <f aca="false">E26-D26-F26+G26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="42" t="n">
         <f aca="false">A26+1</f>
         <v>43126</v>
       </c>
-      <c r="B27" s="22" t="n">
+      <c r="B27" s="23" t="n">
         <f aca="false">A27</f>
         <v>43126</v>
       </c>
@@ -3759,20 +4051,21 @@
         <f aca="false">WEEKNUM(A27,2)</f>
         <v>4</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="8" t="n">
-        <f aca="false">(E27-D27-F27)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47" t="n">
+        <f aca="false">E27-D27-F27+G27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="42" t="n">
         <f aca="false">A27+1</f>
         <v>43127</v>
       </c>
-      <c r="B28" s="22" t="n">
+      <c r="B28" s="23" t="n">
         <f aca="false">A28</f>
         <v>43127</v>
       </c>
@@ -3780,21 +4073,22 @@
         <f aca="false">WEEKNUM(A28,2)</f>
         <v>4</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="8" t="n">
-        <f aca="false">(E28-D28-F28)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47" t="n">
+        <f aca="false">E28-D28-F28+G28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="42" t="n">
         <f aca="false">A28+1</f>
         <v>43128</v>
       </c>
-      <c r="B29" s="22" t="n">
+      <c r="B29" s="23" t="n">
         <f aca="false">A29</f>
         <v>43128</v>
       </c>
@@ -3802,21 +4096,22 @@
         <f aca="false">WEEKNUM(A29,2)</f>
         <v>4</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="8" t="n">
-        <f aca="false">(E29-D29-F29)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47" t="n">
+        <f aca="false">E29-D29-F29+G29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="42" t="n">
         <f aca="false">A29+1</f>
         <v>43129</v>
       </c>
-      <c r="B30" s="22" t="n">
+      <c r="B30" s="23" t="n">
         <f aca="false">A30</f>
         <v>43129</v>
       </c>
@@ -3824,20 +4119,21 @@
         <f aca="false">WEEKNUM(A30,2)</f>
         <v>5</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="8" t="n">
-        <f aca="false">(E30-D30-F30)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47" t="n">
+        <f aca="false">E30-D30-F30+G30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="42" t="n">
         <f aca="false">A30+1</f>
         <v>43130</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="23" t="n">
         <f aca="false">A31</f>
         <v>43130</v>
       </c>
@@ -3845,114 +4141,107 @@
         <f aca="false">WEEKNUM(A31,2)</f>
         <v>5</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="8" t="n">
-        <f aca="false">(E31-D31-F31)*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="n">
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47" t="n">
+        <f aca="false">E31-D31-F31+G31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="48" t="n">
         <f aca="false">A31+1</f>
         <v>43131</v>
       </c>
-      <c r="B32" s="29" t="n">
+      <c r="B32" s="32" t="n">
         <f aca="false">A32</f>
         <v>43131</v>
       </c>
-      <c r="C32" s="30" t="n">
+      <c r="C32" s="33" t="n">
         <f aca="false">WEEKNUM(A32,2)</f>
         <v>5</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32" t="n">
-        <f aca="false">(E32-D32-F32)*24</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="32"/>
-    </row>
-    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="0" t="n">
-        <f aca="false">5*Zusammenfassung!B1</f>
-        <v>45</v>
-      </c>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36" t="n">
-        <f aca="false">SUM(G2:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="36"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="47" t="n">
+        <f aca="false">E32-D32-F32+G32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="35"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="8" t="n">
+        <f aca="false">Zusammenfassung!C10</f>
+        <v>1.875</v>
+      </c>
+      <c r="H33" s="55"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="41" t="n">
+        <f aca="false">SUM(H2:H32)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I20:L20"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C32">
     <cfRule type="timePeriod" priority="2" timePeriod="yesterday" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="I8">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>WEEKDAY($A8,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="I7">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>WEEKDAY($A7,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>WEEKDAY($A14,2) &gt; 5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>WEEKDAY($A15,2) &gt; 5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>WEEKDAY($A21,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>WEEKDAY($A22,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>WEEKDAY($A32,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>WEEKDAY($A29,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>WEEKDAY($A28,2) &gt; 5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t xml:space="preserve">Versuch in C++ Komponente umgewandelt, Erweiterung meines Arbeitszeiten-Templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Organisationsklasse für Serial Header experimentiert, nach hash funktionen recherchiert</t>
   </si>
   <si>
     <t xml:space="preserve">Verbindliche Zielvereinbarung</t>
@@ -747,7 +750,7 @@
       </c>
       <c r="B8" s="8" t="n">
         <f aca="false">'November 2017'!H34</f>
-        <v>0.402777777777777</v>
+        <v>0.48611111111111</v>
       </c>
       <c r="C8" s="8" t="n">
         <f aca="false">5*B1</f>
@@ -791,7 +794,7 @@
       </c>
       <c r="B12" s="8" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>1.07986111111111</v>
+        <v>1.16319444444444</v>
       </c>
       <c r="C12" s="8" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -802,7 +805,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>0.169389978213508</v>
+        <v>0.182461873638344</v>
       </c>
     </row>
   </sheetData>
@@ -1727,7 +1730,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2145,13 +2148,20 @@
         <f aca="false">WEEKNUM(A17,2)</f>
         <v>47</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="8" t="n">
+        <v>0.895833333333333</v>
+      </c>
+      <c r="E17" s="8" t="n">
+        <v>0.979166666666667</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="n">
         <f aca="false">(E17-D17-F17+G17)</f>
-        <v>0</v>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -2510,7 +2520,7 @@
       <c r="G34" s="40"/>
       <c r="H34" s="40" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>0.402777777777777</v>
+        <v>0.48611111111111</v>
       </c>
       <c r="I34" s="41"/>
     </row>
@@ -2950,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -3714,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -3898,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t xml:space="preserve">Versuch in C++ Komponente umgewandelt, Erweiterung meines Arbeitszeiten-Templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Überlegungen zur Verteilung von Nachrichten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemetierung weiterer Kontrollstrukturen für Nachrichten</t>
   </si>
   <si>
     <t xml:space="preserve">An Organisationsklasse für Serial Header experimentiert, nach hash funktionen recherchiert</t>
@@ -750,7 +756,7 @@
       </c>
       <c r="B8" s="8" t="n">
         <f aca="false">'November 2017'!H34</f>
-        <v>0.48611111111111</v>
+        <v>0.775694444444443</v>
       </c>
       <c r="C8" s="8" t="n">
         <f aca="false">5*B1</f>
@@ -794,7 +800,7 @@
       </c>
       <c r="B12" s="8" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>1.16319444444444</v>
+        <v>1.45277777777778</v>
       </c>
       <c r="C12" s="8" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -805,7 +811,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>0.182461873638344</v>
+        <v>0.227886710239651</v>
       </c>
     </row>
   </sheetData>
@@ -1730,7 +1736,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2017,10 +2023,12 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8" t="n">
+        <v>0.0833333333333333</v>
+      </c>
       <c r="H11" s="8" t="n">
         <f aca="false">(E11-D11-F11+G11)</f>
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,13 +2090,22 @@
         <f aca="false">WEEKNUM(A14,2)</f>
         <v>47</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="8" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>0.0625</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="n">
         <f aca="false">(E14-D14-F14+G14)</f>
-        <v>0</v>
+        <v>0.0625</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2104,13 +2121,22 @@
         <f aca="false">WEEKNUM(A15,2)</f>
         <v>47</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="8" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>0.820833333333333</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>0.03125</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="n">
         <f aca="false">(E15-D15-F15+G15)</f>
-        <v>0</v>
+        <v>0.14375</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2161,7 +2187,7 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2186,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -2520,7 +2546,7 @@
       <c r="G34" s="40"/>
       <c r="H34" s="40" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>0.48611111111111</v>
+        <v>0.775694444444443</v>
       </c>
       <c r="I34" s="41"/>
     </row>
@@ -2960,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -3724,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -3908,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t xml:space="preserve">Versuch in C++ Komponente umgewandelt, Erweiterung meines Arbeitszeiten-Templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Überlegungen zur Verteilung von Nachrichten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemetierung weiterer Kontrollstrukturen für Nachrichten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packet und Inbox strukturen für Nachrichten implementiert</t>
   </si>
   <si>
     <t xml:space="preserve">An Organisationsklasse für Serial Header experimentiert, nach hash funktionen recherchiert</t>
@@ -750,7 +759,7 @@
       </c>
       <c r="B8" s="8" t="n">
         <f aca="false">'November 2017'!H34</f>
-        <v>0.48611111111111</v>
+        <v>0.909027777777777</v>
       </c>
       <c r="C8" s="8" t="n">
         <f aca="false">5*B1</f>
@@ -794,7 +803,7 @@
       </c>
       <c r="B12" s="8" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>1.16319444444444</v>
+        <v>1.58611111111111</v>
       </c>
       <c r="C12" s="8" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -805,7 +814,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>0.182461873638344</v>
+        <v>0.24880174291939</v>
       </c>
     </row>
   </sheetData>
@@ -1730,7 +1739,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2017,10 +2026,12 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8" t="n">
+        <v>0.0833333333333333</v>
+      </c>
       <c r="H11" s="8" t="n">
         <f aca="false">(E11-D11-F11+G11)</f>
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,13 +2093,22 @@
         <f aca="false">WEEKNUM(A14,2)</f>
         <v>47</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="8" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>0.0625</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="n">
         <f aca="false">(E14-D14-F14+G14)</f>
-        <v>0</v>
+        <v>0.0625</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2104,13 +2124,22 @@
         <f aca="false">WEEKNUM(A15,2)</f>
         <v>47</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="8" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>0.820833333333333</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>0.03125</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="n">
         <f aca="false">(E15-D15-F15+G15)</f>
-        <v>0</v>
+        <v>0.14375</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,13 +2155,22 @@
         <f aca="false">WEEKNUM(A16,2)</f>
         <v>47</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>0.154166666666667</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>0.0208333333333333</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="n">
         <f aca="false">(E16-D16-F16+G16)</f>
-        <v>0</v>
+        <v>0.133333333333333</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2161,7 +2199,7 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2186,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -2520,7 +2558,7 @@
       <c r="G34" s="40"/>
       <c r="H34" s="40" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>0.48611111111111</v>
+        <v>0.909027777777777</v>
       </c>
       <c r="I34" s="41"/>
     </row>
@@ -2960,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -3724,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -3908,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t xml:space="preserve">Verbindliche Zielvereinbarung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beginn Refactoring IBC auf Grund von Anforderungsänderungen ()</t>
   </si>
   <si>
     <t xml:space="preserve">Erste Ergebnisvorstellung</t>
@@ -691,16 +694,15 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.57"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.50697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,7 +761,7 @@
       </c>
       <c r="B8" s="8" t="n">
         <f aca="false">'November 2017'!H34</f>
-        <v>0.909027777777777</v>
+        <v>0.909027777777776</v>
       </c>
       <c r="C8" s="8" t="n">
         <f aca="false">5*B1</f>
@@ -823,7 +825,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -838,20 +840,19 @@
   </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.57"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.306976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.62790697674419"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.38604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,7 +1724,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.159722222222222" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1738,20 +1739,19 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.57"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.306976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.38604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2230,7 +2230,7 @@
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="42" t="n">
         <f aca="false">A18+1</f>
         <v>43057</v>
@@ -2243,9 +2243,6 @@
         <f aca="false">WEEKNUM(A19,2)</f>
         <v>47</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="n">
         <f aca="false">(E19-D19-F19+G19)</f>
@@ -2253,7 +2250,7 @@
       </c>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="42" t="n">
         <f aca="false">A19+1</f>
         <v>43058</v>
@@ -2266,15 +2263,20 @@
         <f aca="false">WEEKNUM(A20,2)</f>
         <v>47</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="8" t="n">
+        <v>0.673611111111111</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>0.848611111111111</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>0.03125</v>
+      </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="8" t="n">
-        <f aca="false">(E20-D20-F20+G20)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="24"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="43" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="42" t="n">
@@ -2558,7 +2560,7 @@
       <c r="G34" s="40"/>
       <c r="H34" s="40" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>0.909027777777777</v>
+        <v>0.909027777777776</v>
       </c>
       <c r="I34" s="41"/>
     </row>
@@ -2618,7 +2620,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.159722222222222" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2631,22 +2633,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.57"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.306976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.38604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2890,7 +2891,7 @@
         <f aca="false">(E11-D11-F11+G11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="42" t="n">
@@ -2998,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -3374,7 +3375,6 @@
       </c>
       <c r="I34" s="41"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="I16:L16"/>
@@ -3436,7 +3436,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.159722222222222" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3451,20 +3451,19 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.57"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.306976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.29302325581395"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.38604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.446511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3762,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -3946,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -4152,7 +4151,7 @@
         <f aca="false">E29-D29-F29+G29</f>
         <v>0</v>
       </c>
-      <c r="I29" s="24"/>
+      <c r="I29" s="43"/>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="42" t="n">
@@ -4295,7 +4294,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.159722222222222" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -44,10 +44,10 @@
     <t xml:space="preserve">Sollzeit</t>
   </si>
   <si>
-    <t xml:space="preserve">Summe</t>
+    <t xml:space="preserve">Prozentwert:</t>
   </si>
   <si>
-    <t xml:space="preserve">Prozentwert:</t>
+    <t xml:space="preserve">Summe</t>
   </si>
   <si>
     <t xml:space="preserve">Datum</t>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t xml:space="preserve">Verbindliche Zielvereinbarung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beginn Refactoring IBC auf Grund von Anforderungsänderungen ()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactored Protocoll, but made a mistake so it was all for naught</t>
   </si>
   <si>
     <t xml:space="preserve">Erste Ergebnisvorstellung</t>
@@ -294,16 +300,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -691,16 +697,16 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,7 +735,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -739,82 +745,99 @@
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="8" t="n">
         <v>43009</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <f aca="false">'Oktober 2017'!H34</f>
         <v>0.677083333333334</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="9" t="n">
         <f aca="false">3*B1</f>
         <v>1.125</v>
       </c>
+      <c r="E7" s="10" t="n">
+        <f aca="false">B7/C7</f>
+        <v>0.601851851851853</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="8" t="n">
         <v>43040</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <f aca="false">'November 2017'!H34</f>
-        <v>0.909027777777777</v>
-      </c>
-      <c r="C8" s="8" t="n">
+        <v>1.05486111111111</v>
+      </c>
+      <c r="C8" s="9" t="n">
         <f aca="false">5*B1</f>
         <v>1.875</v>
       </c>
+      <c r="E8" s="10" t="n">
+        <f aca="false">B8/C8</f>
+        <v>0.562592592592592</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="8" t="n">
         <v>43070</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <f aca="false">'Dezember 2017'!H34</f>
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="9" t="n">
         <f aca="false">4*B1</f>
         <v>1.5</v>
       </c>
+      <c r="E9" s="10" t="n">
+        <f aca="false">B9/C9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="8" t="n">
         <v>43101</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="9" t="n">
         <f aca="false">'Januar 2018'!H34</f>
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="9" t="n">
         <f aca="false">5*B1</f>
         <v>1.875</v>
       </c>
+      <c r="E10" s="10" t="n">
+        <f aca="false">B10/C10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="n">
+      <c r="A12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>1.58611111111111</v>
-      </c>
-      <c r="C12" s="8" t="n">
+        <v>1.73194444444444</v>
+      </c>
+      <c r="C12" s="9" t="n">
         <f aca="false">SUM(C7:C10)</f>
         <v>6.375</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>0.24880174291939</v>
+        <v>0.271677559912854</v>
       </c>
     </row>
   </sheetData>
@@ -844,14 +867,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,7 +945,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="16" t="n">
         <f aca="false">(E3-D3-F3+G3)</f>
         <v>0</v>
@@ -944,7 +967,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="16" t="n">
         <f aca="false">(E4-D4-F4+G4)</f>
         <v>0</v>
@@ -966,7 +989,7 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="16" t="n">
         <f aca="false">(E5-D5-F5+G5)</f>
         <v>0</v>
@@ -987,7 +1010,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="16" t="n">
         <f aca="false">(E6-D6-F6+G6)</f>
         <v>0</v>
@@ -1034,9 +1057,9 @@
         <f aca="false">WEEKNUM(A8,2)</f>
         <v>41</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="n">
         <f aca="false">(E8-D8-F8+G8)</f>
@@ -1057,9 +1080,9 @@
         <f aca="false">WEEKNUM(A9,2)</f>
         <v>41</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16" t="n">
         <f aca="false">(E9-D9-F9+G9)</f>
@@ -1080,9 +1103,9 @@
         <f aca="false">WEEKNUM(A10,2)</f>
         <v>42</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16" t="n">
         <f aca="false">(E10-D10-F10+G10)</f>
@@ -1102,9 +1125,9 @@
         <f aca="false">WEEKNUM(A11,2)</f>
         <v>42</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16" t="n">
         <f aca="false">(E11-D11-F11+G11)</f>
@@ -1124,9 +1147,9 @@
         <f aca="false">WEEKNUM(A12,2)</f>
         <v>42</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="n">
         <f aca="false">(E12-D12-F12+G12)</f>
@@ -1146,9 +1169,9 @@
         <f aca="false">WEEKNUM(A13,2)</f>
         <v>42</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16" t="n">
         <f aca="false">(E13-D13-F13+G13)</f>
@@ -1168,9 +1191,9 @@
         <f aca="false">WEEKNUM(A14,2)</f>
         <v>42</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="16" t="n">
         <v>0.0833333333333333</v>
       </c>
@@ -1199,9 +1222,9 @@
         <f aca="false">WEEKNUM(A15,2)</f>
         <v>42</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16" t="n">
         <f aca="false">(E15-D15-F15+G15)</f>
@@ -1222,9 +1245,9 @@
         <f aca="false">WEEKNUM(A16,2)</f>
         <v>42</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16" t="n">
         <f aca="false">(E16-D16-F16+G16)</f>
@@ -1245,9 +1268,9 @@
         <f aca="false">WEEKNUM(A17,2)</f>
         <v>43</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16" t="n">
         <f aca="false">(E17-D17-F17+G17)</f>
@@ -1268,9 +1291,9 @@
         <f aca="false">WEEKNUM(A18,2)</f>
         <v>43</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16" t="n">
         <f aca="false">(E18-D18-F18+G18)</f>
@@ -1293,9 +1316,9 @@
         <f aca="false">WEEKNUM(A19,2)</f>
         <v>43</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16" t="n">
         <f aca="false">(E19-D19-F19+G19)</f>
@@ -1315,13 +1338,13 @@
         <f aca="false">WEEKNUM(A20,2)</f>
         <v>43</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="9" t="n">
         <v>0.68125</v>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="E20" s="9" t="n">
         <v>0.979166666666667</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="9" t="n">
         <v>0.125</v>
       </c>
       <c r="G20" s="16"/>
@@ -1343,13 +1366,13 @@
         <f aca="false">WEEKNUM(A21,2)</f>
         <v>43</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="9" t="n">
         <v>0.688888888888889</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="9" t="n">
         <v>0.89375</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="9" t="n">
         <v>0.104166666666667</v>
       </c>
       <c r="G21" s="16" t="n">
@@ -1380,9 +1403,9 @@
         <f aca="false">WEEKNUM(A22,2)</f>
         <v>43</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16" t="n">
         <f aca="false">(E22-D22-F22+G22)</f>
@@ -1403,9 +1426,9 @@
         <f aca="false">WEEKNUM(A23,2)</f>
         <v>43</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16" t="n">
         <f aca="false">(E23-D23-F23+G23)</f>
@@ -1426,9 +1449,9 @@
         <f aca="false">WEEKNUM(A24,2)</f>
         <v>44</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16" t="n">
         <f aca="false">(E24-D24-F24+G24)</f>
@@ -1448,9 +1471,9 @@
         <f aca="false">WEEKNUM(A25,2)</f>
         <v>44</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16" t="n">
         <f aca="false">(E25-D25-F25+G25)</f>
@@ -1470,9 +1493,9 @@
         <f aca="false">WEEKNUM(A26,2)</f>
         <v>44</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16" t="n">
         <f aca="false">(E26-D26-F26+G26)</f>
@@ -1492,9 +1515,9 @@
         <f aca="false">WEEKNUM(A27,2)</f>
         <v>44</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16" t="n">
         <f aca="false">(E27-D27-F27+G27)</f>
@@ -1514,9 +1537,9 @@
         <f aca="false">WEEKNUM(A28,2)</f>
         <v>44</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="16" t="n">
         <v>0.0833333333333333</v>
       </c>
@@ -1541,9 +1564,9 @@
         <f aca="false">WEEKNUM(A29,2)</f>
         <v>44</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16" t="n">
         <f aca="false">(E29-D29-F29+G29)</f>
@@ -1564,13 +1587,13 @@
         <f aca="false">WEEKNUM(A30,2)</f>
         <v>44</v>
       </c>
-      <c r="D30" s="8" t="n">
+      <c r="D30" s="9" t="n">
         <v>0.631944444444444</v>
       </c>
-      <c r="E30" s="8" t="n">
+      <c r="E30" s="9" t="n">
         <v>0.722916666666667</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16" t="n">
         <f aca="false">(E30-D30-F30+G30)</f>
@@ -1593,9 +1616,9 @@
         <f aca="false">WEEKNUM(A31,2)</f>
         <v>45</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16" t="n">
         <f aca="false">(E31-D31-F31+G31)</f>
@@ -1630,14 +1653,14 @@
         <v>24</v>
       </c>
       <c r="B33" s="36"/>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="9" t="n">
         <f aca="false">Zusammenfassung!C7</f>
         <v>1.125</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="37"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,20 +1761,20 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,11 +1819,11 @@
         <f aca="false">WEEKNUM(A2,2)</f>
         <v>45</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="n">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="n">
         <f aca="false">(E2-D2-F2+G2)</f>
         <v>0</v>
       </c>
@@ -1818,11 +1841,11 @@
         <f aca="false">WEEKNUM(A3,2)</f>
         <v>45</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="n">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="n">
         <f aca="false">(E3-D3-F3+G3)</f>
         <v>0</v>
       </c>
@@ -1840,13 +1863,13 @@
         <f aca="false">WEEKNUM(A4,2)</f>
         <v>45</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="n">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="9" t="n">
         <f aca="false">(E4-D4-F4+G4)</f>
         <v>0.0833333333333333</v>
       </c>
@@ -1867,15 +1890,15 @@
         <f aca="false">WEEKNUM(A5,2)</f>
         <v>45</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9" t="n">
         <v>0.791666666666667</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="9" t="n">
         <v>0.904166666666667</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="n">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="n">
         <f aca="false">(E5-D5-F5+G5)</f>
         <v>0.1125</v>
       </c>
@@ -1896,11 +1919,11 @@
         <f aca="false">WEEKNUM(A6,2)</f>
         <v>45</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="n">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="n">
         <f aca="false">(E6-D6-F6+G6)</f>
         <v>0</v>
       </c>
@@ -1919,11 +1942,11 @@
         <f aca="false">WEEKNUM(A7,2)</f>
         <v>46</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="n">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="n">
         <f aca="false">(E7-D7-F7+G7)</f>
         <v>0</v>
       </c>
@@ -1941,15 +1964,15 @@
         <f aca="false">WEEKNUM(A8,2)</f>
         <v>46</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="9" t="n">
         <v>0.625</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="9" t="n">
         <v>0.697916666666667</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="n">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="n">
         <f aca="false">(E8-D8-F8+G8)</f>
         <v>0.0729166666666666</v>
       </c>
@@ -1970,17 +1993,17 @@
         <f aca="false">WEEKNUM(A9,2)</f>
         <v>46</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="9" t="n">
         <v>0.791666666666667</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="9" t="n">
         <v>0.988194444444444</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="9" t="n">
         <v>0.0625</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="n">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="n">
         <f aca="false">(E9-D9-F9+G9)</f>
         <v>0.134027777777777</v>
       </c>
@@ -2001,11 +2024,11 @@
         <f aca="false">WEEKNUM(A10,2)</f>
         <v>46</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="n">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="n">
         <f aca="false">(E10-D10-F10+G10)</f>
         <v>0</v>
       </c>
@@ -2023,13 +2046,13 @@
         <f aca="false">WEEKNUM(A11,2)</f>
         <v>46</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="n">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="9" t="n">
         <f aca="false">(E11-D11-F11+G11)</f>
         <v>0.0833333333333333</v>
       </c>
@@ -2047,11 +2070,11 @@
         <f aca="false">WEEKNUM(A12,2)</f>
         <v>46</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="n">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="n">
         <f aca="false">(E12-D12-F12+G12)</f>
         <v>0</v>
       </c>
@@ -2070,11 +2093,11 @@
         <f aca="false">WEEKNUM(A13,2)</f>
         <v>46</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="n">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="n">
         <f aca="false">(E13-D13-F13+G13)</f>
         <v>0</v>
       </c>
@@ -2093,17 +2116,17 @@
         <f aca="false">WEEKNUM(A14,2)</f>
         <v>47</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="9" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="9" t="n">
         <v>0.791666666666667</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="9" t="n">
         <v>0.0625</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="n">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="n">
         <f aca="false">(E14-D14-F14+G14)</f>
         <v>0.0625</v>
       </c>
@@ -2124,17 +2147,17 @@
         <f aca="false">WEEKNUM(A15,2)</f>
         <v>47</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="9" t="n">
         <v>0.645833333333333</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="9" t="n">
         <v>0.820833333333333</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="9" t="n">
         <v>0.03125</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="n">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="n">
         <f aca="false">(E15-D15-F15+G15)</f>
         <v>0.14375</v>
       </c>
@@ -2155,17 +2178,17 @@
         <f aca="false">WEEKNUM(A16,2)</f>
         <v>47</v>
       </c>
-      <c r="D16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8" t="n">
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="n">
         <v>0.154166666666667</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="9" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8" t="n">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="n">
         <f aca="false">(E16-D16-F16+G16)</f>
         <v>0.133333333333333</v>
       </c>
@@ -2186,15 +2209,15 @@
         <f aca="false">WEEKNUM(A17,2)</f>
         <v>47</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="9" t="n">
         <v>0.895833333333333</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="9" t="n">
         <v>0.979166666666667</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="n">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="n">
         <f aca="false">(E17-D17-F17+G17)</f>
         <v>0.0833333333333333</v>
       </c>
@@ -2215,11 +2238,11 @@
         <f aca="false">WEEKNUM(A18,2)</f>
         <v>47</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="n">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="n">
         <f aca="false">(E18-D18-F18+G18)</f>
         <v>0</v>
       </c>
@@ -2230,7 +2253,7 @@
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="42" t="n">
         <f aca="false">A18+1</f>
         <v>43057</v>
@@ -2243,17 +2266,14 @@
         <f aca="false">WEEKNUM(A19,2)</f>
         <v>47</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="n">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="n">
         <f aca="false">(E19-D19-F19+G19)</f>
         <v>0</v>
       </c>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="42" t="n">
         <f aca="false">A19+1</f>
         <v>43058</v>
@@ -2266,15 +2286,20 @@
         <f aca="false">WEEKNUM(A20,2)</f>
         <v>47</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8" t="n">
-        <f aca="false">(E20-D20-F20+G20)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="24"/>
+      <c r="D20" s="9" t="n">
+        <v>0.673611111111111</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>0.848611111111111</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="43" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="42" t="n">
@@ -2289,11 +2314,11 @@
         <f aca="false">WEEKNUM(A21,2)</f>
         <v>48</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="n">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="n">
         <f aca="false">(E21-D21-F21+G21)</f>
         <v>0</v>
       </c>
@@ -2311,11 +2336,11 @@
         <f aca="false">WEEKNUM(A22,2)</f>
         <v>48</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8" t="n">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="n">
         <f aca="false">(E22-D22-F22+G22)</f>
         <v>0</v>
       </c>
@@ -2333,13 +2358,22 @@
         <f aca="false">WEEKNUM(A23,2)</f>
         <v>48</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8" t="n">
+      <c r="D23" s="9" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9" t="n">
         <f aca="false">(E23-D23-F23+G23)</f>
-        <v>0</v>
+        <v>0.145833333333333</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,11 +2389,11 @@
         <f aca="false">WEEKNUM(A24,2)</f>
         <v>48</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8" t="n">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="n">
         <f aca="false">(E24-D24-F24+G24)</f>
         <v>0</v>
       </c>
@@ -2377,11 +2411,11 @@
         <f aca="false">WEEKNUM(A25,2)</f>
         <v>48</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8" t="n">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9" t="n">
         <f aca="false">(E25-D25-F25+G25)</f>
         <v>0</v>
       </c>
@@ -2399,11 +2433,11 @@
         <f aca="false">WEEKNUM(A26,2)</f>
         <v>48</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8" t="n">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="n">
         <f aca="false">(E26-D26-F26+G26)</f>
         <v>0</v>
       </c>
@@ -2422,11 +2456,11 @@
         <f aca="false">WEEKNUM(A27,2)</f>
         <v>48</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8" t="n">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9" t="n">
         <f aca="false">(E27-D27-F27+G27)</f>
         <v>0</v>
       </c>
@@ -2445,11 +2479,11 @@
         <f aca="false">WEEKNUM(A28,2)</f>
         <v>49</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8" t="n">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="n">
         <f aca="false">(E28-D28-F28+G28)</f>
         <v>0</v>
       </c>
@@ -2467,11 +2501,11 @@
         <f aca="false">WEEKNUM(A29,2)</f>
         <v>49</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8" t="n">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="n">
         <f aca="false">(E29-D29-F29+G29)</f>
         <v>0</v>
       </c>
@@ -2489,11 +2523,11 @@
         <f aca="false">WEEKNUM(A30,2)</f>
         <v>49</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8" t="n">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="n">
         <f aca="false">(E30-D30-F30+G30)</f>
         <v>0</v>
       </c>
@@ -2511,11 +2545,11 @@
         <f aca="false">WEEKNUM(A31,2)</f>
         <v>49</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8" t="n">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9" t="n">
         <f aca="false">(E31-D31-F31+G31)</f>
         <v>0</v>
       </c>
@@ -2536,15 +2570,15 @@
         <v>24</v>
       </c>
       <c r="B33" s="36"/>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="9" t="n">
         <f aca="false">Zusammenfassung!C8</f>
         <v>1.875</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="38" t="s">
@@ -2558,7 +2592,7 @@
       <c r="G34" s="40"/>
       <c r="H34" s="40" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>0.909027777777777</v>
+        <v>1.05486111111111</v>
       </c>
       <c r="I34" s="41"/>
     </row>
@@ -2631,7 +2665,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
@@ -2639,14 +2673,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2890,7 +2924,7 @@
         <f aca="false">(E11-D11-F11+G11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="42" t="n">
@@ -2998,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -3352,7 +3386,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="36"/>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="9" t="n">
         <f aca="false">Zusammenfassung!C9</f>
         <v>1.5</v>
       </c>
@@ -3374,7 +3408,6 @@
       </c>
       <c r="I34" s="41"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="I16:L16"/>
@@ -3457,14 +3490,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3762,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -3946,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -4152,7 +4185,7 @@
         <f aca="false">E29-D29-F29+G29</f>
         <v>0</v>
       </c>
-      <c r="I29" s="24"/>
+      <c r="I29" s="43"/>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="42" t="n">
@@ -4226,7 +4259,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="36"/>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="9" t="n">
         <f aca="false">Zusammenfassung!C10</f>
         <v>1.875</v>
       </c>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t xml:space="preserve">Refactored Protocoll, but made a mistake so it was all for naught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactored Protocoll again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix errors and implementing more special features , adding TODO tags to what is still missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation der Serial Verbindung für Testvorgänge zu Hause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally started writing and debugging tests for the actual Interboard communication</t>
   </si>
   <si>
     <t xml:space="preserve">Erste Ergebnisvorstellung</t>
@@ -698,7 +710,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="Q25:Q26 F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -772,7 +784,7 @@
       </c>
       <c r="B8" s="9" t="n">
         <f aca="false">'November 2017'!H34</f>
-        <v>1.05486111111111</v>
+        <v>1.76180555555555</v>
       </c>
       <c r="C8" s="9" t="n">
         <f aca="false">5*B1</f>
@@ -780,7 +792,7 @@
       </c>
       <c r="E8" s="10" t="n">
         <f aca="false">B8/C8</f>
-        <v>0.562592592592592</v>
+        <v>0.939629629629629</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,7 +841,7 @@
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>1.73194444444444</v>
+        <v>2.43888888888889</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -837,7 +849,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>0.271677559912854</v>
+        <v>0.382570806100218</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +874,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+      <selection pane="topLeft" activeCell="I28" activeCellId="1" sqref="Q25:Q26 I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1762,10 +1774,10 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="Q25" activeCellId="0" sqref="Q25:Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.31"/>
@@ -2398,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="42" t="n">
         <f aca="false">A24+1</f>
         <v>43063</v>
@@ -2411,13 +2423,24 @@
         <f aca="false">WEEKNUM(A25,2)</f>
         <v>48</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="D25" s="9" t="n">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>0.711111111111111</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>0.0625</v>
+      </c>
       <c r="H25" s="9" t="n">
         <f aca="false">(E25-D25-F25+G25)</f>
-        <v>0</v>
+        <v>0.211111111111111</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2479,13 +2502,22 @@
         <f aca="false">WEEKNUM(A28,2)</f>
         <v>49</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="D28" s="9" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>0.794444444444444</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>0.0625</v>
+      </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="n">
         <f aca="false">(E28-D28-F28+G28)</f>
-        <v>0</v>
+        <v>0.190277777777778</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,16 +2555,25 @@
         <f aca="false">WEEKNUM(A30,2)</f>
         <v>49</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="D30" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>0.916666666666667</v>
+      </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="G30" s="9" t="n">
+        <v>0.0416666666666667</v>
+      </c>
       <c r="H30" s="9" t="n">
         <f aca="false">(E30-D30-F30+G30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="42" t="n">
         <f aca="false">A30+1</f>
         <v>43069</v>
@@ -2545,13 +2586,20 @@
         <f aca="false">WEEKNUM(A31,2)</f>
         <v>49</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="D31" s="9" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>0.722222222222222</v>
+      </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9" t="n">
         <f aca="false">(E31-D31-F31+G31)</f>
-        <v>0</v>
+        <v>0.0972222222222222</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,7 +2640,7 @@
       <c r="G34" s="40"/>
       <c r="H34" s="40" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>1.05486111111111</v>
+        <v>1.76180555555555</v>
       </c>
       <c r="I34" s="41"/>
     </row>
@@ -2668,7 +2716,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="1" sqref="Q25:Q26 C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3032,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -3485,7 +3533,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
+      <selection pane="topLeft" activeCell="P17" activeCellId="1" sqref="Q25:Q26 P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3795,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -3979,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t xml:space="preserve">Finally started writing and debugging tests for the actual Interboard communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teamtreffen am Freitag , Dokumentiation, dazu Latex Recherche und debugging von Latex code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debugging mit erfolgreichem Unittest der Interboardcommunicationsstrukturen</t>
   </si>
   <si>
     <t xml:space="preserve">Erste Ergebnisvorstellung</t>
@@ -710,7 +716,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="Q25:Q26 F12"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -801,7 +807,7 @@
       </c>
       <c r="B9" s="9" t="n">
         <f aca="false">'Dezember 2017'!H34</f>
-        <v>0</v>
+        <v>0.378472222222222</v>
       </c>
       <c r="C9" s="9" t="n">
         <f aca="false">4*B1</f>
@@ -809,7 +815,7 @@
       </c>
       <c r="E9" s="10" t="n">
         <f aca="false">B9/C9</f>
-        <v>0</v>
+        <v>0.252314814814815</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,7 +847,7 @@
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>2.43888888888889</v>
+        <v>2.81736111111111</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -849,7 +855,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>0.382570806100218</v>
+        <v>0.44193899782135</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +880,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="1" sqref="Q25:Q26 I28"/>
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1773,8 +1779,8 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q25" activeCellId="0" sqref="Q25:Q26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q25" activeCellId="0" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2715,13 +2721,13 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="1" sqref="Q25:Q26 C33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.38"/>
@@ -2760,7 +2766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="n">
         <f aca="false">DATE(2017,12,1)</f>
         <v>43070</v>
@@ -2773,12 +2779,24 @@
         <f aca="false">WEEKNUM(A2,2)</f>
         <v>49</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="D2" s="46" t="n">
+        <v>0.634722222222222</v>
+      </c>
+      <c r="E2" s="46" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F2" s="46" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="G2" s="46" t="n">
+        <v>0.125</v>
+      </c>
       <c r="H2" s="47" t="n">
         <f aca="false">(E2-D2-F2+G2)</f>
-        <v>0</v>
+        <v>0.240277777777778</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,16 +2812,25 @@
         <f aca="false">WEEKNUM(A3,2)</f>
         <v>49</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="D3" s="46" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="E3" s="46" t="n">
+        <v>0.846527777777778</v>
+      </c>
+      <c r="F3" s="46" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="G3" s="46"/>
       <c r="H3" s="47" t="n">
         <f aca="false">(E3-D3-F3+G3)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.138194444444444</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="n">
         <f aca="false">A3+1</f>
         <v>43072</v>
@@ -2819,13 +2846,14 @@
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="47" t="n">
         <f aca="false">(E4-D4-F4+G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="24"/>
     </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="42" t="n">
         <f aca="false">A4+1</f>
         <v>43073</v>
@@ -2841,12 +2869,13 @@
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
       <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="47" t="n">
         <f aca="false">(E5-D5-F5+G5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="n">
         <f aca="false">A5+1</f>
         <v>43074</v>
@@ -2862,12 +2891,13 @@
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="47" t="n">
         <f aca="false">(E6-D6-F6+G6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="n">
         <f aca="false">A6+1</f>
         <v>43075</v>
@@ -2883,12 +2913,13 @@
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="47" t="n">
         <f aca="false">(E7-D7-F7+G7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="42" t="n">
         <f aca="false">A7+1</f>
         <v>43076</v>
@@ -2904,12 +2935,13 @@
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="47" t="n">
         <f aca="false">(E8-D8-F8+G8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="n">
         <f aca="false">A8+1</f>
         <v>43077</v>
@@ -2925,12 +2957,13 @@
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="47" t="n">
         <f aca="false">(E9-D9-F9+G9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="42" t="n">
         <f aca="false">A9+1</f>
         <v>43078</v>
@@ -2946,13 +2979,14 @@
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="47" t="n">
         <f aca="false">(E10-D10-F10+G10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="42" t="n">
         <f aca="false">A10+1</f>
         <v>43079</v>
@@ -2968,13 +3002,14 @@
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="47" t="n">
         <f aca="false">(E11-D11-F11+G11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="43"/>
     </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="42" t="n">
         <f aca="false">A11+1</f>
         <v>43080</v>
@@ -2990,12 +3025,13 @@
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="47" t="n">
         <f aca="false">(E12-D12-F12+G12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="42" t="n">
         <f aca="false">A12+1</f>
         <v>43081</v>
@@ -3011,12 +3047,13 @@
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="47" t="n">
         <f aca="false">(E13-D13-F13+G13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="42" t="n">
         <f aca="false">A13+1</f>
         <v>43082</v>
@@ -3032,12 +3069,13 @@
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="47" t="n">
         <f aca="false">(E14-D14-F14+G14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="42" t="n">
         <f aca="false">A14+1</f>
         <v>43083</v>
@@ -3053,12 +3091,13 @@
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="47" t="n">
         <f aca="false">(E15-D15-F15+G15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="n">
         <f aca="false">A15+1</f>
         <v>43084</v>
@@ -3074,19 +3113,19 @@
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="47" t="n">
         <f aca="false">(E16-D16-F16+G16)</f>
         <v>0</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
     </row>
-    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="42" t="n">
         <f aca="false">A16+1</f>
         <v>43085</v>
@@ -3102,13 +3141,14 @@
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="47" t="n">
         <f aca="false">(E17-D17-F17+G17)</f>
         <v>0</v>
       </c>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="42" t="n">
         <f aca="false">A17+1</f>
         <v>43086</v>
@@ -3124,13 +3164,14 @@
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="47" t="n">
         <f aca="false">(E18-D18-F18+G18)</f>
         <v>0</v>
       </c>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="42" t="n">
         <f aca="false">A18+1</f>
         <v>43087</v>
@@ -3146,12 +3187,13 @@
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="47" t="n">
         <f aca="false">(E19-D19-F19+G19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="42" t="n">
         <f aca="false">A19+1</f>
         <v>43088</v>
@@ -3167,12 +3209,13 @@
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="47" t="n">
         <f aca="false">(E20-D20-F20+G20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="42" t="n">
         <f aca="false">A20+1</f>
         <v>43089</v>
@@ -3188,12 +3231,13 @@
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="47" t="n">
         <f aca="false">(E21-D21-F21+G21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="42" t="n">
         <f aca="false">A21+1</f>
         <v>43090</v>
@@ -3209,12 +3253,13 @@
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
       <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
       <c r="H22" s="47" t="n">
         <f aca="false">(E22-D22-F22+G22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="42" t="n">
         <f aca="false">A22+1</f>
         <v>43091</v>
@@ -3230,12 +3275,13 @@
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
       <c r="H23" s="47" t="n">
         <f aca="false">(E23-D23-F23+G23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="42" t="n">
         <f aca="false">A23+1</f>
         <v>43092</v>
@@ -3251,13 +3297,14 @@
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
       <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="47" t="n">
         <f aca="false">(E24-D24-F24+G24)</f>
         <v>0</v>
       </c>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="42" t="n">
         <f aca="false">A24+1</f>
         <v>43093</v>
@@ -3273,13 +3320,14 @@
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
       <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
       <c r="H25" s="47" t="n">
         <f aca="false">(E25-D25-F25+G25)</f>
         <v>0</v>
       </c>
       <c r="I25" s="43"/>
     </row>
-    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="42" t="n">
         <f aca="false">A25+1</f>
         <v>43094</v>
@@ -3295,12 +3343,13 @@
       <c r="D26" s="46"/>
       <c r="E26" s="46"/>
       <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="47" t="n">
         <f aca="false">(E26-D26-F26+G26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="42" t="n">
         <f aca="false">A26+1</f>
         <v>43095</v>
@@ -3316,12 +3365,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="47" t="n">
         <f aca="false">(E27-D27-F27+G27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="42" t="n">
         <f aca="false">A27+1</f>
         <v>43096</v>
@@ -3337,12 +3387,13 @@
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
       <c r="H28" s="47" t="n">
         <f aca="false">(E28-D28-F28+G28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="42" t="n">
         <f aca="false">A28+1</f>
         <v>43097</v>
@@ -3358,12 +3409,13 @@
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
       <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
       <c r="H29" s="47" t="n">
         <f aca="false">(E29-D29-F29+G29)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="42" t="n">
         <f aca="false">A29+1</f>
         <v>43098</v>
@@ -3379,12 +3431,13 @@
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
       <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
       <c r="H30" s="47" t="n">
         <f aca="false">(E30-D30-F30+G30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="42" t="n">
         <f aca="false">A30+1</f>
         <v>43099</v>
@@ -3400,13 +3453,14 @@
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
       <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
       <c r="H31" s="47" t="n">
         <f aca="false">(E31-D31-F31+G31)</f>
         <v>0</v>
       </c>
       <c r="I31" s="24"/>
     </row>
-    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="48" t="n">
         <f aca="false">A31+1</f>
         <v>43100</v>
@@ -3452,7 +3506,7 @@
       <c r="G34" s="39"/>
       <c r="H34" s="51" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>0</v>
+        <v>0.378472222222222</v>
       </c>
       <c r="I34" s="41"/>
     </row>
@@ -3533,7 +3587,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P17" activeCellId="1" sqref="Q25:Q26 P17"/>
+      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3843,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -4027,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t xml:space="preserve">Debugging mit erfolgreichem Unittest der Interboardcommunicationsstrukturen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentieren und Kommentieren</t>
   </si>
   <si>
     <t xml:space="preserve">Erste Ergebnisvorstellung</t>
@@ -807,7 +810,7 @@
       </c>
       <c r="B9" s="9" t="n">
         <f aca="false">'Dezember 2017'!H34</f>
-        <v>0.378472222222222</v>
+        <v>-1.21180555555556</v>
       </c>
       <c r="C9" s="9" t="n">
         <f aca="false">4*B1</f>
@@ -815,7 +818,7 @@
       </c>
       <c r="E9" s="10" t="n">
         <f aca="false">B9/C9</f>
-        <v>0.252314814814815</v>
+        <v>-0.80787037037037</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,7 +850,7 @@
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>2.81736111111111</v>
+        <v>1.22708333333333</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -855,7 +858,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>0.44193899782135</v>
+        <v>0.192483660130718</v>
       </c>
     </row>
   </sheetData>
@@ -2722,7 +2725,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2830,7 +2833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="n">
         <f aca="false">A3+1</f>
         <v>43072</v>
@@ -2843,15 +2846,23 @@
         <f aca="false">WEEKNUM(A4,2)</f>
         <v>49</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="D4" s="46" t="n">
+        <v>0.729166666666667</v>
+      </c>
+      <c r="E4" s="46" t="n">
+        <v>0.805555555555556</v>
+      </c>
+      <c r="F4" s="46" t="n">
+        <v>1.66666666666667</v>
+      </c>
       <c r="G4" s="46"/>
       <c r="H4" s="47" t="n">
         <f aca="false">(E4-D4-F4+G4)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="24"/>
+        <v>-1.59027777777778</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="42" t="n">
@@ -3119,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -3506,7 +3517,7 @@
       <c r="G34" s="39"/>
       <c r="H34" s="51" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>0.378472222222222</v>
+        <v>-1.21180555555556</v>
       </c>
       <c r="I34" s="41"/>
     </row>
@@ -3897,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -4081,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dokumentieren und Kommentieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sendeprozess thread safe, implementierung von Arduino test cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vereinfachung der benutzung des Protokolls auf Arduiono Seite</t>
   </si>
   <si>
     <t xml:space="preserve">Erste Ergebnisvorstellung</t>
@@ -810,7 +816,7 @@
       </c>
       <c r="B9" s="9" t="n">
         <f aca="false">'Dezember 2017'!H34</f>
-        <v>-1.21180555555556</v>
+        <v>0.734722222222222</v>
       </c>
       <c r="C9" s="9" t="n">
         <f aca="false">4*B1</f>
@@ -818,7 +824,7 @@
       </c>
       <c r="E9" s="10" t="n">
         <f aca="false">B9/C9</f>
-        <v>-0.80787037037037</v>
+        <v>0.489814814814815</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,7 +856,7 @@
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>1.22708333333333</v>
+        <v>3.17361111111111</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -858,7 +864,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>0.192483660130718</v>
+        <v>0.497821350762526</v>
       </c>
     </row>
   </sheetData>
@@ -2725,7 +2731,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2852,13 +2858,11 @@
       <c r="E4" s="46" t="n">
         <v>0.805555555555556</v>
       </c>
-      <c r="F4" s="46" t="n">
-        <v>1.66666666666667</v>
-      </c>
+      <c r="F4" s="46"/>
       <c r="G4" s="46"/>
       <c r="H4" s="47" t="n">
         <f aca="false">(E4-D4-F4+G4)</f>
-        <v>-1.59027777777778</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>43</v>
@@ -2908,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="n">
         <f aca="false">A6+1</f>
         <v>43075</v>
@@ -2921,13 +2925,20 @@
         <f aca="false">WEEKNUM(A7,2)</f>
         <v>50</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="D7" s="46" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E7" s="46" t="n">
+        <v>0.479166666666667</v>
+      </c>
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
       <c r="H7" s="47" t="n">
         <f aca="false">(E7-D7-F7+G7)</f>
-        <v>0</v>
+        <v>0.0833333333333334</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,13 +2954,20 @@
         <f aca="false">WEEKNUM(A8,2)</f>
         <v>50</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="D8" s="46" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E8" s="46" t="n">
+        <v>0.967361111111111</v>
+      </c>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="47" t="n">
         <f aca="false">(E8-D8-F8+G8)</f>
-        <v>0</v>
+        <v>0.196527777777778</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -3517,7 +3535,7 @@
       <c r="G34" s="39"/>
       <c r="H34" s="51" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>-1.21180555555556</v>
+        <v>0.734722222222222</v>
       </c>
       <c r="I34" s="41"/>
     </row>
@@ -3908,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -4092,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vereinfachung der benutzung des Protokolls auf Arduiono Seite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNO code generator und Arduino API</t>
   </si>
   <si>
     <t xml:space="preserve">Erste Ergebnisvorstellung</t>
@@ -816,7 +819,7 @@
       </c>
       <c r="B9" s="9" t="n">
         <f aca="false">'Dezember 2017'!H34</f>
-        <v>0.734722222222222</v>
+        <v>1.07291666666667</v>
       </c>
       <c r="C9" s="9" t="n">
         <f aca="false">4*B1</f>
@@ -824,7 +827,7 @@
       </c>
       <c r="E9" s="10" t="n">
         <f aca="false">B9/C9</f>
-        <v>0.489814814814815</v>
+        <v>0.715277777777778</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,7 +859,7 @@
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>3.17361111111111</v>
+        <v>3.51180555555555</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -864,7 +867,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>0.497821350762526</v>
+        <v>0.550871459694988</v>
       </c>
     </row>
   </sheetData>
@@ -2731,7 +2734,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2970,7 +2973,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="n">
         <f aca="false">A8+1</f>
         <v>43077</v>
@@ -2983,13 +2986,22 @@
         <f aca="false">WEEKNUM(A9,2)</f>
         <v>50</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="D9" s="46" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="E9" s="46" t="n">
+        <v>0.900694444444444</v>
+      </c>
+      <c r="F9" s="46" t="n">
+        <v>0.458333333333333</v>
+      </c>
       <c r="G9" s="46"/>
       <c r="H9" s="47" t="n">
         <f aca="false">(E9-D9-F9+G9)</f>
-        <v>0</v>
+        <v>0.338194444444444</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -3535,7 +3547,7 @@
       <c r="G34" s="39"/>
       <c r="H34" s="51" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>0.734722222222222</v>
+        <v>1.07291666666667</v>
       </c>
       <c r="I34" s="41"/>
     </row>
@@ -3926,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -4110,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t xml:space="preserve">UNO code generator und Arduino API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fertigstellung uno code generator</t>
   </si>
   <si>
     <t xml:space="preserve">Erste Ergebnisvorstellung</t>
@@ -301,7 +304,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -503,10 +506,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -819,7 +818,7 @@
       </c>
       <c r="B9" s="9" t="n">
         <f aca="false">'Dezember 2017'!H34</f>
-        <v>1.07291666666667</v>
+        <v>1.31736111111111</v>
       </c>
       <c r="C9" s="9" t="n">
         <f aca="false">4*B1</f>
@@ -827,7 +826,7 @@
       </c>
       <c r="E9" s="10" t="n">
         <f aca="false">B9/C9</f>
-        <v>0.715277777777778</v>
+        <v>0.878240740740741</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,7 +858,7 @@
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>3.51180555555555</v>
+        <v>3.75624999999999</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -867,7 +866,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>0.550871459694988</v>
+        <v>0.589215686274509</v>
       </c>
     </row>
   </sheetData>
@@ -2734,7 +2733,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2811,7 +2810,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="n">
         <f aca="false">A2+1</f>
         <v>43071</v>
@@ -2842,7 +2841,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="n">
         <f aca="false">A3+1</f>
         <v>43072</v>
@@ -2915,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="n">
         <f aca="false">A6+1</f>
         <v>43075</v>
@@ -2973,7 +2972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="n">
         <f aca="false">A8+1</f>
         <v>43077</v>
@@ -3017,15 +3016,23 @@
         <f aca="false">WEEKNUM(A10,2)</f>
         <v>50</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="D10" s="46" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="E10" s="46" t="n">
+        <v>0.931944444444444</v>
+      </c>
+      <c r="F10" s="46" t="n">
+        <v>0.125</v>
+      </c>
       <c r="G10" s="46"/>
       <c r="H10" s="47" t="n">
         <f aca="false">(E10-D10-F10+G10)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="24"/>
+        <v>0.244444444444444</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="42" t="n">
@@ -3160,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -3545,9 +3552,9 @@
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
-      <c r="H34" s="51" t="n">
+      <c r="H34" s="40" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>1.07291666666667</v>
+        <v>1.31736111111111</v>
       </c>
       <c r="I34" s="41"/>
     </row>
@@ -3938,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -3965,10 +3972,10 @@
         <f aca="false">E14-D14-F14+G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="42" t="n">
@@ -3991,10 +3998,10 @@
         <f aca="false">E15-D15-F15+G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="42" t="n">
@@ -4017,10 +4024,10 @@
         <f aca="false">E16-D16-F16+G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="52"/>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="42" t="n">
@@ -4043,10 +4050,10 @@
         <f aca="false">E17-D17-F17+G17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="42" t="n">
@@ -4069,10 +4076,10 @@
         <f aca="false">E18-D18-F18+G18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="42" t="n">
@@ -4095,10 +4102,10 @@
         <f aca="false">E19-D19-F19+G19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="52"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="44" t="n">
@@ -4122,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -4387,10 +4394,10 @@
         <f aca="false">WEEKNUM(A32,2)</f>
         <v>5</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="47" t="n">
         <f aca="false">E32-D32-F32+G32</f>
         <v>0</v>
@@ -4406,7 +4413,7 @@
         <f aca="false">Zusammenfassung!C10</f>
         <v>1.875</v>
       </c>
-      <c r="H33" s="55"/>
+      <c r="H33" s="54"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="38" t="s">

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t xml:space="preserve">Fertigstellung uno code generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threadsafe storing of answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errorhandling on pi side</t>
   </si>
   <si>
     <t xml:space="preserve">Erste Ergebnisvorstellung</t>
@@ -818,7 +824,7 @@
       </c>
       <c r="B9" s="9" t="n">
         <f aca="false">'Dezember 2017'!H34</f>
-        <v>1.31736111111111</v>
+        <v>1.53263888888889</v>
       </c>
       <c r="C9" s="9" t="n">
         <f aca="false">4*B1</f>
@@ -826,7 +832,7 @@
       </c>
       <c r="E9" s="10" t="n">
         <f aca="false">B9/C9</f>
-        <v>0.878240740740741</v>
+        <v>1.02175925925926</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,7 +864,7 @@
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>3.75624999999999</v>
+        <v>3.97152777777777</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -866,7 +872,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>0.589215686274509</v>
+        <v>0.622984749455337</v>
       </c>
     </row>
   </sheetData>
@@ -2733,7 +2739,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3034,7 +3040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="42" t="n">
         <f aca="false">A10+1</f>
         <v>43079</v>
@@ -3047,15 +3053,21 @@
         <f aca="false">WEEKNUM(A11,2)</f>
         <v>50</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="D11" s="46" t="n">
+        <v>0.756944444444444</v>
+      </c>
+      <c r="E11" s="46" t="n">
+        <v>0.847222222222222</v>
+      </c>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="47" t="n">
         <f aca="false">(E11-D11-F11+G11)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="43"/>
+        <v>0.0902777777777778</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="42" t="n">
@@ -3070,13 +3082,20 @@
         <f aca="false">WEEKNUM(A12,2)</f>
         <v>51</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="D12" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="46" t="n">
+        <v>0.125</v>
+      </c>
       <c r="F12" s="46"/>
       <c r="G12" s="46"/>
       <c r="H12" s="47" t="n">
         <f aca="false">(E12-D12-F12+G12)</f>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -3554,7 +3573,7 @@
       <c r="G34" s="39"/>
       <c r="H34" s="40" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>1.31736111111111</v>
+        <v>1.53263888888889</v>
       </c>
       <c r="I34" s="41"/>
     </row>
@@ -3945,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -4129,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t xml:space="preserve">Errorhandling on pi side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehler einsehen und Nachtschichten einlegen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bereuen Fehler Eingesehen zu haben aber es trotzdem durchziehen alles nochmal neu zu machen, dass es hoffentlich funktioniert.</t>
   </si>
   <si>
     <t xml:space="preserve">Erste Ergebnisvorstellung</t>
@@ -824,7 +830,7 @@
       </c>
       <c r="B9" s="9" t="n">
         <f aca="false">'Dezember 2017'!H34</f>
-        <v>1.53263888888889</v>
+        <v>2.3375</v>
       </c>
       <c r="C9" s="9" t="n">
         <f aca="false">4*B1</f>
@@ -832,7 +838,7 @@
       </c>
       <c r="E9" s="10" t="n">
         <f aca="false">B9/C9</f>
-        <v>1.02175925925926</v>
+        <v>1.55833333333333</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,7 +870,7 @@
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>3.97152777777777</v>
+        <v>4.77638888888888</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -872,7 +878,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>0.622984749455337</v>
+        <v>0.749237472766884</v>
       </c>
     </row>
   </sheetData>
@@ -2739,7 +2745,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3089,10 +3095,12 @@
         <v>0.125</v>
       </c>
       <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+      <c r="G12" s="46" t="n">
+        <v>0.25</v>
+      </c>
       <c r="H12" s="47" t="n">
         <f aca="false">(E12-D12-F12+G12)</f>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>49</v>
@@ -3111,13 +3119,22 @@
         <f aca="false">WEEKNUM(A13,2)</f>
         <v>51</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="D13" s="46" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E13" s="46" t="n">
+        <v>1</v>
+      </c>
       <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
+      <c r="G13" s="46" t="n">
+        <v>0.1875</v>
+      </c>
       <c r="H13" s="47" t="n">
         <f aca="false">(E13-D13-F13+G13)</f>
-        <v>0</v>
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,13 +3150,20 @@
         <f aca="false">WEEKNUM(A14,2)</f>
         <v>51</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
+      <c r="D14" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="46" t="n">
+        <v>0.138194444444444</v>
+      </c>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
       <c r="H14" s="47" t="n">
         <f aca="false">(E14-D14-F14+G14)</f>
-        <v>0</v>
+        <v>0.138194444444444</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -3573,7 +3597,7 @@
       <c r="G34" s="39"/>
       <c r="H34" s="40" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>1.53263888888889</v>
+        <v>2.3375</v>
       </c>
       <c r="I34" s="41"/>
     </row>
@@ -3964,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -4148,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -182,7 +182,13 @@
     <t xml:space="preserve">Bereuen Fehler Eingesehen zu haben aber es trotzdem durchziehen alles nochmal neu zu machen, dass es hoffentlich funktioniert.</t>
   </si>
   <si>
+    <t xml:space="preserve">Segmentation Faults. Inbox Komponente umgeschrieben</t>
+  </si>
+  <si>
     <t xml:space="preserve">Erste Ergebnisvorstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umschreiben der Komponenten von std:: nach qt</t>
   </si>
   <si>
     <t xml:space="preserve">Präsentation bzw. Vorträge</t>
@@ -830,7 +836,7 @@
       </c>
       <c r="B9" s="9" t="n">
         <f aca="false">'Dezember 2017'!H34</f>
-        <v>2.3375</v>
+        <v>2.67083333333333</v>
       </c>
       <c r="C9" s="9" t="n">
         <f aca="false">4*B1</f>
@@ -838,7 +844,7 @@
       </c>
       <c r="E9" s="10" t="n">
         <f aca="false">B9/C9</f>
-        <v>1.55833333333333</v>
+        <v>1.78055555555556</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -870,7 +876,7 @@
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>4.77638888888888</v>
+        <v>5.10972222222222</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -878,7 +884,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>0.749237472766884</v>
+        <v>0.80152505446623</v>
       </c>
     </row>
   </sheetData>
@@ -2745,7 +2751,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3179,13 +3185,22 @@
         <f aca="false">WEEKNUM(A15,2)</f>
         <v>51</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
+      <c r="D15" s="46" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E15" s="46" t="n">
+        <v>0.791666666666667</v>
+      </c>
       <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
+      <c r="G15" s="46" t="n">
+        <v>0.125</v>
+      </c>
       <c r="H15" s="47" t="n">
         <f aca="false">(E15-D15-F15+G15)</f>
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3204,13 +3219,15 @@
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
-      <c r="G16" s="46"/>
+      <c r="G16" s="46" t="n">
+        <v>0.0833333333333333</v>
+      </c>
       <c r="H16" s="47" t="n">
         <f aca="false">(E16-D16-F16+G16)</f>
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -3297,13 +3314,20 @@
         <f aca="false">WEEKNUM(A20,2)</f>
         <v>52</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="D20" s="46" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="E20" s="46" t="n">
+        <v>0.6875</v>
+      </c>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="47" t="n">
         <f aca="false">(E20-D20-F20+G20)</f>
         <v>0</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,7 +3621,7 @@
       <c r="G34" s="39"/>
       <c r="H34" s="40" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>2.3375</v>
+        <v>2.67083333333333</v>
       </c>
       <c r="I34" s="41"/>
     </row>
@@ -3988,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -4172,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -182,13 +182,22 @@
     <t xml:space="preserve">Bereuen Fehler Eingesehen zu haben aber es trotzdem durchziehen alles nochmal neu zu machen, dass es hoffentlich funktioniert.</t>
   </si>
   <si>
-    <t xml:space="preserve">Segmentation Faults. Inbox Komponente umgeschrieben</t>
+    <t xml:space="preserve">Segmentation Faults. Inbox Komponente umgeschrieben, folien für ergebnisvorstellung erstellt</t>
   </si>
   <si>
     <t xml:space="preserve">Erste Ergebnisvorstellung</t>
   </si>
   <si>
     <t xml:space="preserve">Umschreiben der Komponenten von std:: nach qt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debugging in Protocoll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issues Flashing uno and debugging protocoll</t>
   </si>
   <si>
     <t xml:space="preserve">Präsentation bzw. Vorträge</t>
@@ -744,8 +753,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -836,7 +845,7 @@
       </c>
       <c r="B9" s="9" t="n">
         <f aca="false">'Dezember 2017'!H34</f>
-        <v>2.67083333333333</v>
+        <v>2.75416666666667</v>
       </c>
       <c r="C9" s="9" t="n">
         <f aca="false">4*B1</f>
@@ -844,7 +853,7 @@
       </c>
       <c r="E9" s="10" t="n">
         <f aca="false">B9/C9</f>
-        <v>1.78055555555556</v>
+        <v>1.83611111111111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,7 +862,7 @@
       </c>
       <c r="B10" s="9" t="n">
         <f aca="false">'Januar 2018'!H34</f>
-        <v>0</v>
+        <v>0.560416666666667</v>
       </c>
       <c r="C10" s="9" t="n">
         <f aca="false">5*B1</f>
@@ -861,7 +870,7 @@
       </c>
       <c r="E10" s="10" t="n">
         <f aca="false">B10/C10</f>
-        <v>0</v>
+        <v>0.298888888888889</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,7 +885,7 @@
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>5.10972222222222</v>
+        <v>5.75347222222222</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -884,7 +893,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>0.80152505446623</v>
+        <v>0.902505446623093</v>
       </c>
     </row>
   </sheetData>
@@ -2750,8 +2759,8 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3172,7 +3181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="42" t="n">
         <f aca="false">A14+1</f>
         <v>43083</v>
@@ -3189,15 +3198,17 @@
         <v>0.666666666666667</v>
       </c>
       <c r="E15" s="46" t="n">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F15" s="46"/>
+        <v>0.875</v>
+      </c>
+      <c r="F15" s="46" t="n">
+        <v>0.0416666666666667</v>
+      </c>
       <c r="G15" s="46" t="n">
         <v>0.125</v>
       </c>
       <c r="H15" s="47" t="n">
         <f aca="false">(E15-D15-F15+G15)</f>
-        <v>0.25</v>
+        <v>0.291666666666666</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>52</v>
@@ -3315,7 +3326,7 @@
         <v>52</v>
       </c>
       <c r="D20" s="46" t="n">
-        <v>0.6875</v>
+        <v>0.645833333333333</v>
       </c>
       <c r="E20" s="46" t="n">
         <v>0.6875</v>
@@ -3324,7 +3335,7 @@
       <c r="G20" s="46"/>
       <c r="H20" s="47" t="n">
         <f aca="false">(E20-D20-F20+G20)</f>
-        <v>0</v>
+        <v>0.0416666666666666</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>54</v>
@@ -3621,7 +3632,7 @@
       <c r="G34" s="39"/>
       <c r="H34" s="40" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>2.67083333333333</v>
+        <v>2.75416666666667</v>
       </c>
       <c r="I34" s="41"/>
     </row>
@@ -3701,8 +3712,8 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3892,15 +3903,21 @@
         <f aca="false">WEEKNUM(A8,2)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+      <c r="D8" s="47" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E8" s="47" t="n">
+        <v>0.708333333333333</v>
+      </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
       <c r="H8" s="47" t="n">
         <f aca="false">E8-D8-F8+G8</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="43"/>
+        <v>0.0833333333333334</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="n">
@@ -3959,13 +3976,22 @@
         <f aca="false">WEEKNUM(A11,2)</f>
         <v>2</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="D11" s="47" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E11" s="47" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F11" s="47" t="n">
+        <v>0.0833333333333333</v>
+      </c>
       <c r="G11" s="47"/>
       <c r="H11" s="47" t="n">
         <f aca="false">E11-D11-F11+G11</f>
-        <v>0</v>
+        <v>0.28125</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3981,13 +4007,22 @@
         <f aca="false">WEEKNUM(A12,2)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
+      <c r="D12" s="47" t="n">
+        <v>0.510416666666667</v>
+      </c>
+      <c r="E12" s="47" t="n">
+        <v>0.675</v>
+      </c>
       <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
+      <c r="G12" s="47" t="n">
+        <v>0.03125</v>
+      </c>
       <c r="H12" s="47" t="n">
         <f aca="false">E12-D12-F12+G12</f>
-        <v>0</v>
+        <v>0.195833333333333</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4012,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -4196,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -4492,9 +4527,9 @@
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
-      <c r="H34" s="41" t="n">
+      <c r="H34" s="40" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>0</v>
+        <v>0.560416666666667</v>
       </c>
       <c r="I34" s="41"/>
     </row>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t xml:space="preserve">Präsentation bzw. Vorträge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation</t>
   </si>
   <si>
     <t xml:space="preserve">Vorführung der Ergebnisse</t>
@@ -536,7 +539,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -754,7 +757,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -828,7 +831,7 @@
       </c>
       <c r="B8" s="9" t="n">
         <f aca="false">'November 2017'!H34</f>
-        <v>1.76180555555555</v>
+        <v>1.80347222222222</v>
       </c>
       <c r="C8" s="9" t="n">
         <f aca="false">5*B1</f>
@@ -836,7 +839,7 @@
       </c>
       <c r="E8" s="10" t="n">
         <f aca="false">B8/C8</f>
-        <v>0.939629629629629</v>
+        <v>0.961851851851851</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,7 +865,7 @@
       </c>
       <c r="B10" s="9" t="n">
         <f aca="false">'Januar 2018'!H34</f>
-        <v>0.560416666666667</v>
+        <v>0.949305555555555</v>
       </c>
       <c r="C10" s="9" t="n">
         <f aca="false">5*B1</f>
@@ -870,7 +873,7 @@
       </c>
       <c r="E10" s="10" t="n">
         <f aca="false">B10/C10</f>
-        <v>0.298888888888889</v>
+        <v>0.506296296296296</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,7 +888,7 @@
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>5.75347222222222</v>
+        <v>6.18402777777778</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -893,7 +896,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>0.902505446623093</v>
+        <v>0.97004357298475</v>
       </c>
     </row>
   </sheetData>
@@ -917,8 +920,8 @@
   </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1817,8 +1820,8 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q25" activeCellId="0" sqref="Q25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2322,10 +2325,12 @@
         <f aca="false">WEEKNUM(A19,2)</f>
         <v>47</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="9" t="n">
+        <v>0.0416666666666667</v>
+      </c>
       <c r="H19" s="9" t="n">
         <f aca="false">(E19-D19-F19+G19)</f>
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="I19" s="24"/>
     </row>
@@ -2684,7 +2689,7 @@
       <c r="G34" s="40"/>
       <c r="H34" s="40" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>1.76180555555555</v>
+        <v>1.80347222222222</v>
       </c>
       <c r="I34" s="41"/>
     </row>
@@ -3713,7 +3718,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4041,10 +4046,12 @@
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="G13" s="47" t="n">
+        <v>0.138888888888889</v>
+      </c>
       <c r="H13" s="47" t="n">
         <f aca="false">E13-D13-F13+G13</f>
-        <v>0</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="I13" s="27" t="s">
         <v>58</v>
@@ -4066,15 +4073,23 @@
         <f aca="false">WEEKNUM(A14,2)</f>
         <v>2</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="D14" s="47" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="E14" s="47" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F14" s="47" t="n">
+        <v>0.0625</v>
+      </c>
       <c r="G14" s="47"/>
       <c r="H14" s="47" t="n">
         <f aca="false">E14-D14-F14+G14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="51"/>
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>59</v>
+      </c>
       <c r="J14" s="51"/>
       <c r="K14" s="51"/>
       <c r="L14" s="52"/>
@@ -4231,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -4529,7 +4544,7 @@
       <c r="G34" s="39"/>
       <c r="H34" s="40" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>0.560416666666667</v>
+        <v>0.949305555555555</v>
       </c>
       <c r="I34" s="41"/>
     </row>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -756,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="B10" s="9" t="n">
         <f aca="false">'Januar 2018'!H34</f>
-        <v>0.949305555555555</v>
+        <v>1.23680555555556</v>
       </c>
       <c r="C10" s="9" t="n">
         <f aca="false">5*B1</f>
@@ -873,7 +873,7 @@
       </c>
       <c r="E10" s="10" t="n">
         <f aca="false">B10/C10</f>
-        <v>0.506296296296296</v>
+        <v>0.65962962962963</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,7 +888,7 @@
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>6.18402777777778</v>
+        <v>6.47152777777778</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -896,7 +896,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>0.97004357298475</v>
+        <v>1.01514161220044</v>
       </c>
     </row>
   </sheetData>
@@ -3717,8 +3717,8 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4107,15 +4107,23 @@
         <f aca="false">WEEKNUM(A15,2)</f>
         <v>2</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="D15" s="47" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="E15" s="47" t="n">
+        <v>1.0375</v>
+      </c>
+      <c r="F15" s="47" t="n">
+        <v>0.1875</v>
+      </c>
       <c r="G15" s="47"/>
       <c r="H15" s="47" t="n">
         <f aca="false">E15-D15-F15+G15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="51"/>
+        <v>0.2875</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>59</v>
+      </c>
       <c r="J15" s="51"/>
       <c r="K15" s="51"/>
       <c r="L15" s="52"/>
@@ -4544,7 +4552,7 @@
       <c r="G34" s="39"/>
       <c r="H34" s="40" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>0.949305555555555</v>
+        <v>1.23680555555556</v>
       </c>
       <c r="I34" s="41"/>
     </row>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dokumentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation, Übertrag in Google Doc und Formatierungen</t>
   </si>
   <si>
     <t xml:space="preserve">Vorführung der Ergebnisse</t>
@@ -756,7 +759,7 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -3717,8 +3720,8 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4149,7 +4152,9 @@
         <f aca="false">E16-D16-F16+G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="51"/>
+      <c r="I16" s="51" t="s">
+        <v>60</v>
+      </c>
       <c r="J16" s="51"/>
       <c r="K16" s="51"/>
       <c r="L16" s="52"/>
@@ -4254,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -86,7 +86,10 @@
     <t xml:space="preserve">Festlegung der Projekte</t>
   </si>
   <si>
-    <t xml:space="preserve">Persönliche Eintragung in Grenn Dia</t>
+    <t xml:space="preserve">Persönliche Eintragung in Grenn Diagramm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellung eines Pflichtenheftes via Latex-Template, Latex-Recherche</t>
   </si>
   <si>
     <t xml:space="preserve">Projektbeschreibung / Terminplan</t>
@@ -104,19 +107,19 @@
     <t xml:space="preserve">Iststunden:</t>
   </si>
   <si>
-    <t xml:space="preserve">Programmierkonventionen, Strukturierung</t>
+    <t xml:space="preserve">Programmierkonventionen wurden vereinbart, grobe Strukturierung</t>
   </si>
   <si>
     <t xml:space="preserve">Überlegungen zu Interboardkomminikation dokumentiert , zusätzliche Tex-Recherche</t>
   </si>
   <si>
-    <t xml:space="preserve">Serial Connection erste Versuche in Zusammenarbeit mit bof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versuch in C++ Komponente umgewandelt, Erweiterung meines Arbeitszeiten-Templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Überlegungen zur Verteilung von Nachrichten</t>
+    <t xml:space="preserve">Serial Connection erste Versuche in Zusammenarbeit mit Florian Bömmel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versuch zum Seriellen Port in C++ Komponente umgewandelt, Erweiterung meines Arbeitszeiten-Templates durch Teamzeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erste Versuche zur Protokollerstellung [V0.0] und Tests</t>
   </si>
   <si>
     <t xml:space="preserve">Implemetierung weiterer Kontrollstrukturen für Nachrichten</t>
@@ -125,22 +128,25 @@
     <t xml:space="preserve">Packet und Inbox strukturen für Nachrichten implementiert</t>
   </si>
   <si>
-    <t xml:space="preserve">An Organisationsklasse für Serial Header experimentiert, nach hash funktionen recherchiert</t>
+    <t xml:space="preserve">An Organisationsklasse für Serial Header experimentiert, Hash Funktionen recherchiert</t>
   </si>
   <si>
     <t xml:space="preserve">Verbindliche Zielvereinbarung</t>
   </si>
   <si>
-    <t xml:space="preserve">Beginn Refactoring IBC auf Grund von Anforderungsänderungen ()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refactored Protocoll, but made a mistake so it was all for naught</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refactored Protocoll again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fix errors and implementing more special features , adding TODO tags to what is still missing</t>
+    <t xml:space="preserve">Erster besserer Protokollablauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBC-Refactoring wegen Anforderungsänderungen bezüglich Übertragungssicherheit [V0.3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortsetzung, Implemetierungsfehler festgestellt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erneutes Reafactoring wegen Implementierungsfehler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehlerbehebung und Absicherung von Ablaufcode, z.B. Padding</t>
   </si>
   <si>
     <t xml:space="preserve">Simulation der Serial Verbindung für Testvorgänge zu Hause</t>
@@ -158,46 +164,52 @@
     <t xml:space="preserve">Dokumentieren und Kommentieren</t>
   </si>
   <si>
-    <t xml:space="preserve">Sendeprozess thread safe, implementierung von Arduino test cases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vereinfachung der benutzung des Protokolls auf Arduiono Seite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNO code generator und Arduino API</t>
+    <t xml:space="preserve">Sendeprozess thread safe gemacht , implementierung von Arduino test cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vereinfachung der Benutzung des Protokolls auf Arduiono Seite durch IBC-Klasse auf Arduino Seite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino-Code Generator in Python und Arduino API verbessert</t>
   </si>
   <si>
     <t xml:space="preserve">Fertigstellung uno code generator</t>
   </si>
   <si>
-    <t xml:space="preserve">Threadsafe storing of answers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Errorhandling on pi side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fehler einsehen und Nachtschichten einlegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bereuen Fehler Eingesehen zu haben aber es trotzdem durchziehen alles nochmal neu zu machen, dass es hoffentlich funktioniert.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segmentation Faults. Inbox Komponente umgeschrieben, folien für ergebnisvorstellung erstellt</t>
+    <t xml:space="preserve">Piseitige Speicherung und Verteilung von Antwortpacketen thread-safe implementiert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrierungsfehler, Seg-Faults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versuche, Seg-Fault durch Umschreiben vieler Komponenten zu vermeiden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versuche, Seg-Fault durch Umschreiben vieler Komponenten zu vermeiden und fluchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weiteres Debugging nach immernoch auftretetenden Segmentation Faults, Erstellung von einigen Folien über IBC, falls für Präsentation benötigt</t>
   </si>
   <si>
     <t xml:space="preserve">Erste Ergebnisvorstellung</t>
   </si>
   <si>
-    <t xml:space="preserve">Umschreiben der Komponenten von std:: nach qt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debugging in Protocoll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issues Flashing uno and debugging protocoll</t>
+    <t xml:space="preserve">Umschreiben der Komponenten von std nach qt um mögliche Fehler zu vermeiden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbesserter Protokollablauf erdacht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellen von Folien für Präsentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oberflächliche Fehlersuche nach Fehlermeldung von Kollegen über falsch übertragenen Sensorwerte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protokollfehler, Fehlersuche nur über Pi-sniffing am Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probleme beim Aufsetzen der Entwicklungsumgebung zum Flashen von Arduino,  letztendlich Auslagerung in einen Unittest und weiteres Debugging</t>
   </si>
   <si>
     <t xml:space="preserve">Präsentation bzw. Vorträge</t>
@@ -209,7 +221,13 @@
     <t xml:space="preserve">Dokumentation, Übertrag in Google Doc und Formatierungen</t>
   </si>
   <si>
+    <t xml:space="preserve">Funktionalitätstests für die Vorführung</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vorführung der Ergebnisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentation, Übertag in Google Doc und Formatierung, Überprüfung des Stundenzettels</t>
   </si>
 </sst>
 </file>
@@ -337,7 +355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -367,7 +385,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -380,6 +398,10 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -759,8 +781,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -768,7 +790,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,7 +821,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -834,7 +858,7 @@
       </c>
       <c r="B8" s="9" t="n">
         <f aca="false">'November 2017'!H34</f>
-        <v>1.80347222222222</v>
+        <v>2.04444444444444</v>
       </c>
       <c r="C8" s="9" t="n">
         <f aca="false">5*B1</f>
@@ -842,7 +866,7 @@
       </c>
       <c r="E8" s="10" t="n">
         <f aca="false">B8/C8</f>
-        <v>0.961851851851851</v>
+        <v>1.09037037037037</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,7 +875,7 @@
       </c>
       <c r="B9" s="9" t="n">
         <f aca="false">'Dezember 2017'!H34</f>
-        <v>2.75416666666667</v>
+        <v>2.8375</v>
       </c>
       <c r="C9" s="9" t="n">
         <f aca="false">4*B1</f>
@@ -859,7 +883,7 @@
       </c>
       <c r="E9" s="10" t="n">
         <f aca="false">B9/C9</f>
-        <v>1.83611111111111</v>
+        <v>1.89166666666667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -868,7 +892,7 @@
       </c>
       <c r="B10" s="9" t="n">
         <f aca="false">'Januar 2018'!H34</f>
-        <v>1.23680555555556</v>
+        <v>1.77013888888889</v>
       </c>
       <c r="C10" s="9" t="n">
         <f aca="false">5*B1</f>
@@ -876,7 +900,7 @@
       </c>
       <c r="E10" s="10" t="n">
         <f aca="false">B10/C10</f>
-        <v>0.65962962962963</v>
+        <v>0.944074074074074</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,12 +910,12 @@
       <c r="E11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>6.47152777777778</v>
+        <v>7.32916666666666</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -899,7 +923,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>1.01514161220044</v>
+        <v>1.14967320261438</v>
       </c>
     </row>
   </sheetData>
@@ -923,8 +947,8 @@
   </sheetPr>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -940,178 +964,178 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="13" t="n">
         <f aca="false">DATE(2017,10,1)</f>
         <v>43009</v>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="14" t="n">
         <f aca="false">A2</f>
         <v>43009</v>
       </c>
-      <c r="C2" s="14" t="n">
+      <c r="C2" s="15" t="n">
         <f aca="false">WEEKNUM(A2,2)</f>
         <v>40</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16" t="n">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="n">
         <f aca="false">(E2-D2-F2+G2)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="13" t="n">
         <f aca="false">A2+1</f>
         <v>43010</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="14" t="n">
         <f aca="false">A3</f>
         <v>43010</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="15" t="n">
         <f aca="false">WEEKNUM(A3,2)</f>
         <v>41</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="16" t="n">
+      <c r="H3" s="17" t="n">
         <f aca="false">(E3-D3-F3+G3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="13" t="n">
         <f aca="false">A3+1</f>
         <v>43011</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="14" t="n">
         <f aca="false">A4</f>
         <v>43011</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="15" t="n">
         <f aca="false">WEEKNUM(A4,2)</f>
         <v>41</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="16" t="n">
+      <c r="H4" s="17" t="n">
         <f aca="false">(E4-D4-F4+G4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="13" t="n">
         <f aca="false">A4+1</f>
         <v>43012</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="14" t="n">
         <f aca="false">A5</f>
         <v>43012</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="15" t="n">
         <f aca="false">WEEKNUM(A5,2)</f>
         <v>41</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="16" t="n">
+      <c r="H5" s="17" t="n">
         <f aca="false">(E5-D5-F5+G5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="13" t="n">
         <f aca="false">A5+1</f>
         <v>43013</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="15" t="n">
         <f aca="false">WEEKNUM(A6,2)</f>
         <v>41</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="16" t="n">
+      <c r="H6" s="17" t="n">
         <f aca="false">(E6-D6-F6+G6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="21" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="n">
+    <row r="7" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="n">
         <f aca="false">A6+1</f>
         <v>43014</v>
       </c>
-      <c r="B7" s="20" t="n">
+      <c r="B7" s="21" t="n">
         <f aca="false">A7</f>
         <v>43014</v>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C7" s="22" t="n">
         <f aca="false">WEEKNUM(A7,2)</f>
         <v>41</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16" t="n">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="n">
         <v>0.0625</v>
       </c>
-      <c r="H7" s="16" t="n">
+      <c r="H7" s="17" t="n">
         <f aca="false">(E7-D7-F7+G7)</f>
         <v>0.0625</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="22" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="n">
+      <c r="A8" s="23" t="n">
         <f aca="false">A7+1</f>
         <v>43015</v>
       </c>
-      <c r="B8" s="23" t="n">
+      <c r="B8" s="24" t="n">
         <f aca="false">A8</f>
         <v>43015</v>
       </c>
@@ -1122,19 +1146,19 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="n">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17" t="n">
         <f aca="false">(E8-D8-F8+G8)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="n">
+      <c r="A9" s="23" t="n">
         <f aca="false">A8+1</f>
         <v>43016</v>
       </c>
-      <c r="B9" s="23" t="n">
+      <c r="B9" s="24" t="n">
         <f aca="false">A9</f>
         <v>43016</v>
       </c>
@@ -1145,19 +1169,19 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="n">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="n">
         <f aca="false">(E9-D9-F9+G9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="n">
+      <c r="A10" s="23" t="n">
         <f aca="false">A9+1</f>
         <v>43017</v>
       </c>
-      <c r="B10" s="23" t="n">
+      <c r="B10" s="24" t="n">
         <f aca="false">A10</f>
         <v>43017</v>
       </c>
@@ -1168,18 +1192,18 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="n">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="n">
         <f aca="false">(E10-D10-F10+G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="n">
+      <c r="A11" s="23" t="n">
         <f aca="false">A10+1</f>
         <v>43018</v>
       </c>
-      <c r="B11" s="23" t="n">
+      <c r="B11" s="24" t="n">
         <f aca="false">A11</f>
         <v>43018</v>
       </c>
@@ -1190,18 +1214,18 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="n">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17" t="n">
         <f aca="false">(E11-D11-F11+G11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="n">
+      <c r="A12" s="23" t="n">
         <f aca="false">A11+1</f>
         <v>43019</v>
       </c>
-      <c r="B12" s="23" t="n">
+      <c r="B12" s="24" t="n">
         <f aca="false">A12</f>
         <v>43019</v>
       </c>
@@ -1212,18 +1236,18 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16" t="n">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="n">
         <f aca="false">(E12-D12-F12+G12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="n">
+      <c r="A13" s="23" t="n">
         <f aca="false">A12+1</f>
         <v>43020</v>
       </c>
-      <c r="B13" s="23" t="n">
+      <c r="B13" s="24" t="n">
         <f aca="false">A13</f>
         <v>43020</v>
       </c>
@@ -1234,18 +1258,18 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="n">
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="n">
         <f aca="false">(E13-D13-F13+G13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="n">
+      <c r="A14" s="26" t="n">
         <f aca="false">A13+1</f>
         <v>43021</v>
       </c>
-      <c r="B14" s="26" t="n">
+      <c r="B14" s="27" t="n">
         <f aca="false">A14</f>
         <v>43021</v>
       </c>
@@ -1256,27 +1280,27 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="16" t="n">
+      <c r="G14" s="17" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="H14" s="16" t="n">
+      <c r="H14" s="17" t="n">
         <f aca="false">(E14-D14-F14+G14)</f>
         <v>0.0833333333333333</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="n">
+      <c r="A15" s="23" t="n">
         <f aca="false">A14+1</f>
         <v>43022</v>
       </c>
-      <c r="B15" s="23" t="n">
+      <c r="B15" s="24" t="n">
         <f aca="false">A15</f>
         <v>43022</v>
       </c>
@@ -1287,19 +1311,19 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16" t="n">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17" t="n">
         <f aca="false">(E15-D15-F15+G15)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="24"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="n">
+      <c r="A16" s="23" t="n">
         <f aca="false">A15+1</f>
         <v>43023</v>
       </c>
-      <c r="B16" s="23" t="n">
+      <c r="B16" s="24" t="n">
         <f aca="false">A16</f>
         <v>43023</v>
       </c>
@@ -1310,19 +1334,19 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="n">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="n">
         <f aca="false">(E16-D16-F16+G16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="24"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="n">
+      <c r="A17" s="23" t="n">
         <f aca="false">A16+1</f>
         <v>43024</v>
       </c>
-      <c r="B17" s="23" t="n">
+      <c r="B17" s="24" t="n">
         <f aca="false">A17</f>
         <v>43024</v>
       </c>
@@ -1333,19 +1357,19 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16" t="n">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17" t="n">
         <f aca="false">(E17-D17-F17+G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="24"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="n">
+      <c r="A18" s="23" t="n">
         <f aca="false">A17+1</f>
         <v>43025</v>
       </c>
-      <c r="B18" s="23" t="n">
+      <c r="B18" s="24" t="n">
         <f aca="false">A18</f>
         <v>43025</v>
       </c>
@@ -1356,8 +1380,8 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16" t="n">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17" t="n">
         <f aca="false">(E18-D18-F18+G18)</f>
         <v>0</v>
       </c>
@@ -1366,11 +1390,11 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="n">
+      <c r="A19" s="23" t="n">
         <f aca="false">A18+1</f>
         <v>43026</v>
       </c>
-      <c r="B19" s="23" t="n">
+      <c r="B19" s="24" t="n">
         <f aca="false">A19</f>
         <v>43026</v>
       </c>
@@ -1381,18 +1405,18 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16" t="n">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17" t="n">
         <f aca="false">(E19-D19-F19+G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="n">
+      <c r="A20" s="23" t="n">
         <f aca="false">A19+1</f>
         <v>43027</v>
       </c>
-      <c r="B20" s="23" t="n">
+      <c r="B20" s="24" t="n">
         <f aca="false">A20</f>
         <v>43027</v>
       </c>
@@ -1409,18 +1433,21 @@
       <c r="F20" s="9" t="n">
         <v>0.125</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16" t="n">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17" t="n">
         <f aca="false">(E20-D20-F20+G20)</f>
         <v>0.172916666666667</v>
       </c>
+      <c r="I20" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="n">
+      <c r="A21" s="26" t="n">
         <f aca="false">A20+1</f>
         <v>43028</v>
       </c>
-      <c r="B21" s="26" t="n">
+      <c r="B21" s="27" t="n">
         <f aca="false">A21</f>
         <v>43028</v>
       </c>
@@ -1437,27 +1464,27 @@
       <c r="F21" s="9" t="n">
         <v>0.104166666666667</v>
       </c>
-      <c r="G21" s="16" t="n">
+      <c r="G21" s="17" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="H21" s="16" t="n">
+      <c r="H21" s="17" t="n">
         <f aca="false">(E21-D21-F21+G21)</f>
         <v>0.184027777777778</v>
       </c>
-      <c r="I21" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
+      <c r="I21" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="n">
+      <c r="A22" s="23" t="n">
         <f aca="false">A21+1</f>
         <v>43029</v>
       </c>
-      <c r="B22" s="23" t="n">
+      <c r="B22" s="24" t="n">
         <f aca="false">A22</f>
         <v>43029</v>
       </c>
@@ -1468,19 +1495,19 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16" t="n">
+      <c r="G22" s="17"/>
+      <c r="H22" s="17" t="n">
         <f aca="false">(E22-D22-F22+G22)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="24"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="n">
+      <c r="A23" s="23" t="n">
         <f aca="false">A22+1</f>
         <v>43030</v>
       </c>
-      <c r="B23" s="23" t="n">
+      <c r="B23" s="24" t="n">
         <f aca="false">A23</f>
         <v>43030</v>
       </c>
@@ -1491,19 +1518,19 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16" t="n">
+      <c r="G23" s="17"/>
+      <c r="H23" s="17" t="n">
         <f aca="false">(E23-D23-F23+G23)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="24"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="n">
+      <c r="A24" s="23" t="n">
         <f aca="false">A23+1</f>
         <v>43031</v>
       </c>
-      <c r="B24" s="23" t="n">
+      <c r="B24" s="24" t="n">
         <f aca="false">A24</f>
         <v>43031</v>
       </c>
@@ -1514,18 +1541,18 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16" t="n">
+      <c r="G24" s="17"/>
+      <c r="H24" s="17" t="n">
         <f aca="false">(E24-D24-F24+G24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="n">
+      <c r="A25" s="23" t="n">
         <f aca="false">A24+1</f>
         <v>43032</v>
       </c>
-      <c r="B25" s="23" t="n">
+      <c r="B25" s="24" t="n">
         <f aca="false">A25</f>
         <v>43032</v>
       </c>
@@ -1536,18 +1563,18 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16" t="n">
+      <c r="G25" s="17"/>
+      <c r="H25" s="17" t="n">
         <f aca="false">(E25-D25-F25+G25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="n">
+      <c r="A26" s="23" t="n">
         <f aca="false">A25+1</f>
         <v>43033</v>
       </c>
-      <c r="B26" s="23" t="n">
+      <c r="B26" s="24" t="n">
         <f aca="false">A26</f>
         <v>43033</v>
       </c>
@@ -1558,18 +1585,18 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16" t="n">
+      <c r="G26" s="17"/>
+      <c r="H26" s="17" t="n">
         <f aca="false">(E26-D26-F26+G26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="n">
+      <c r="A27" s="23" t="n">
         <f aca="false">A26+1</f>
         <v>43034</v>
       </c>
-      <c r="B27" s="23" t="n">
+      <c r="B27" s="24" t="n">
         <f aca="false">A27</f>
         <v>43034</v>
       </c>
@@ -1580,18 +1607,18 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16" t="n">
+      <c r="G27" s="17"/>
+      <c r="H27" s="17" t="n">
         <f aca="false">(E27-D27-F27+G27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="n">
+      <c r="A28" s="23" t="n">
         <f aca="false">A27+1</f>
         <v>43035</v>
       </c>
-      <c r="B28" s="23" t="n">
+      <c r="B28" s="24" t="n">
         <f aca="false">A28</f>
         <v>43035</v>
       </c>
@@ -1602,23 +1629,23 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="16" t="n">
+      <c r="G28" s="17" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="H28" s="16" t="n">
+      <c r="H28" s="17" t="n">
         <f aca="false">(E28-D28-F28+G28)</f>
         <v>0.0833333333333333</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="n">
+      <c r="A29" s="23" t="n">
         <f aca="false">A28+1</f>
         <v>43036</v>
       </c>
-      <c r="B29" s="23" t="n">
+      <c r="B29" s="24" t="n">
         <f aca="false">A29</f>
         <v>43036</v>
       </c>
@@ -1629,19 +1656,19 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16" t="n">
+      <c r="G29" s="17"/>
+      <c r="H29" s="17" t="n">
         <f aca="false">(E29-D29-F29+G29)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="24"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="n">
+      <c r="A30" s="23" t="n">
         <f aca="false">A29+1</f>
         <v>43037</v>
       </c>
-      <c r="B30" s="23" t="n">
+      <c r="B30" s="24" t="n">
         <f aca="false">A30</f>
         <v>43037</v>
       </c>
@@ -1656,21 +1683,21 @@
         <v>0.722916666666667</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16" t="n">
+      <c r="G30" s="17"/>
+      <c r="H30" s="17" t="n">
         <f aca="false">(E30-D30-F30+G30)</f>
         <v>0.090972222222223</v>
       </c>
-      <c r="I30" s="30" t="s">
-        <v>23</v>
+      <c r="I30" s="31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="n">
+      <c r="A31" s="23" t="n">
         <f aca="false">A30+1</f>
         <v>43038</v>
       </c>
-      <c r="B31" s="23" t="n">
+      <c r="B31" s="24" t="n">
         <f aca="false">A31</f>
         <v>43038</v>
       </c>
@@ -1681,40 +1708,40 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16" t="n">
+      <c r="G31" s="17"/>
+      <c r="H31" s="17" t="n">
         <f aca="false">(E31-D31-F31+G31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="31" t="n">
+      <c r="A32" s="32" t="n">
         <f aca="false">A31+1</f>
         <v>43039</v>
       </c>
-      <c r="B32" s="32" t="n">
+      <c r="B32" s="33" t="n">
         <f aca="false">A32</f>
         <v>43039</v>
       </c>
-      <c r="C32" s="33" t="n">
+      <c r="C32" s="34" t="n">
         <f aca="false">WEEKNUM(A32,2)</f>
         <v>45</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="16" t="n">
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="17" t="n">
         <f aca="false">(E32-D32-F32+G32)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="35"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="36"/>
+      <c r="A33" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="37"/>
       <c r="C33" s="9" t="n">
         <f aca="false">Zusammenfassung!C7</f>
         <v>1.125</v>
@@ -1723,23 +1750,23 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="37"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40" t="n">
+      <c r="A34" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41" t="n">
         <f aca="false">SUM(H2:H32)</f>
         <v>0.677083333333334</v>
       </c>
-      <c r="I34" s="41"/>
+      <c r="I34" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1823,8 +1850,8 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1832,7 +1859,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.57"/>
@@ -1840,40 +1867,40 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="n">
+      <c r="A2" s="43" t="n">
         <f aca="false">DATE(2017,11,1)</f>
         <v>43040</v>
       </c>
-      <c r="B2" s="23" t="n">
+      <c r="B2" s="24" t="n">
         <f aca="false">A2</f>
         <v>43040</v>
       </c>
@@ -1891,11 +1918,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="n">
+      <c r="A3" s="43" t="n">
         <f aca="false">A2+1</f>
         <v>43041</v>
       </c>
-      <c r="B3" s="23" t="n">
+      <c r="B3" s="24" t="n">
         <f aca="false">A3</f>
         <v>43041</v>
       </c>
@@ -1913,11 +1940,11 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="n">
+      <c r="A4" s="43" t="n">
         <f aca="false">A3+1</f>
         <v>43042</v>
       </c>
-      <c r="B4" s="23" t="n">
+      <c r="B4" s="24" t="n">
         <f aca="false">A4</f>
         <v>43042</v>
       </c>
@@ -1936,15 +1963,15 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="n">
+      <c r="A5" s="43" t="n">
         <f aca="false">A4+1</f>
         <v>43043</v>
       </c>
-      <c r="B5" s="23" t="n">
+      <c r="B5" s="24" t="n">
         <f aca="false">A5</f>
         <v>43043</v>
       </c>
@@ -1964,16 +1991,16 @@
         <f aca="false">(E5-D5-F5+G5)</f>
         <v>0.1125</v>
       </c>
-      <c r="I5" s="43" t="s">
-        <v>27</v>
+      <c r="I5" s="44" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="n">
+      <c r="A6" s="43" t="n">
         <f aca="false">A5+1</f>
         <v>43044</v>
       </c>
-      <c r="B6" s="23" t="n">
+      <c r="B6" s="24" t="n">
         <f aca="false">A6</f>
         <v>43044</v>
       </c>
@@ -1989,14 +2016,14 @@
         <f aca="false">(E6-D6-F6+G6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="n">
+      <c r="A7" s="43" t="n">
         <f aca="false">A6+1</f>
         <v>43045</v>
       </c>
-      <c r="B7" s="23" t="n">
+      <c r="B7" s="24" t="n">
         <f aca="false">A7</f>
         <v>43045</v>
       </c>
@@ -2014,11 +2041,11 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42" t="n">
+      <c r="A8" s="43" t="n">
         <f aca="false">A7+1</f>
         <v>43046</v>
       </c>
-      <c r="B8" s="23" t="n">
+      <c r="B8" s="24" t="n">
         <f aca="false">A8</f>
         <v>43046</v>
       </c>
@@ -2039,15 +2066,15 @@
         <v>0.0729166666666666</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42" t="n">
+      <c r="A9" s="43" t="n">
         <f aca="false">A8+1</f>
         <v>43047</v>
       </c>
-      <c r="B9" s="23" t="n">
+      <c r="B9" s="24" t="n">
         <f aca="false">A9</f>
         <v>43047</v>
       </c>
@@ -2070,15 +2097,15 @@
         <v>0.134027777777777</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="n">
+      <c r="A10" s="43" t="n">
         <f aca="false">A9+1</f>
         <v>43048</v>
       </c>
-      <c r="B10" s="23" t="n">
+      <c r="B10" s="24" t="n">
         <f aca="false">A10</f>
         <v>43048</v>
       </c>
@@ -2096,11 +2123,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42" t="n">
+      <c r="A11" s="43" t="n">
         <f aca="false">A10+1</f>
         <v>43049</v>
       </c>
-      <c r="B11" s="23" t="n">
+      <c r="B11" s="24" t="n">
         <f aca="false">A11</f>
         <v>43049</v>
       </c>
@@ -2120,11 +2147,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="n">
+      <c r="A12" s="43" t="n">
         <f aca="false">A11+1</f>
         <v>43050</v>
       </c>
-      <c r="B12" s="23" t="n">
+      <c r="B12" s="24" t="n">
         <f aca="false">A12</f>
         <v>43050</v>
       </c>
@@ -2140,14 +2167,14 @@
         <f aca="false">(E12-D12-F12+G12)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42" t="n">
+      <c r="A13" s="43" t="n">
         <f aca="false">A12+1</f>
         <v>43051</v>
       </c>
-      <c r="B13" s="23" t="n">
+      <c r="B13" s="24" t="n">
         <f aca="false">A13</f>
         <v>43051</v>
       </c>
@@ -2163,14 +2190,14 @@
         <f aca="false">(E13-D13-F13+G13)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="42" t="n">
+      <c r="A14" s="43" t="n">
         <f aca="false">A13+1</f>
         <v>43052</v>
       </c>
-      <c r="B14" s="23" t="n">
+      <c r="B14" s="24" t="n">
         <f aca="false">A14</f>
         <v>43052</v>
       </c>
@@ -2193,15 +2220,15 @@
         <v>0.0625</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42" t="n">
+      <c r="A15" s="43" t="n">
         <f aca="false">A14+1</f>
         <v>43053</v>
       </c>
-      <c r="B15" s="23" t="n">
+      <c r="B15" s="24" t="n">
         <f aca="false">A15</f>
         <v>43053</v>
       </c>
@@ -2224,15 +2251,15 @@
         <v>0.14375</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="42" t="n">
+      <c r="A16" s="43" t="n">
         <f aca="false">A15+1</f>
         <v>43054</v>
       </c>
-      <c r="B16" s="23" t="n">
+      <c r="B16" s="24" t="n">
         <f aca="false">A16</f>
         <v>43054</v>
       </c>
@@ -2255,15 +2282,15 @@
         <v>0.133333333333333</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="42" t="n">
+      <c r="A17" s="43" t="n">
         <f aca="false">A16+1</f>
         <v>43055</v>
       </c>
-      <c r="B17" s="23" t="n">
+      <c r="B17" s="24" t="n">
         <f aca="false">A17</f>
         <v>43055</v>
       </c>
@@ -2284,15 +2311,15 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="44" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="45" t="n">
         <f aca="false">A17+1</f>
         <v>43056</v>
       </c>
-      <c r="B18" s="26" t="n">
+      <c r="B18" s="27" t="n">
         <f aca="false">A18</f>
         <v>43056</v>
       </c>
@@ -2303,24 +2330,26 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9" t="n">
+        <v>0.0416666666666667</v>
+      </c>
       <c r="H18" s="9" t="n">
         <f aca="false">(E18-D18-F18+G18)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="42" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="43" t="n">
         <f aca="false">A18+1</f>
         <v>43057</v>
       </c>
-      <c r="B19" s="23" t="n">
+      <c r="B19" s="24" t="n">
         <f aca="false">A19</f>
         <v>43057</v>
       </c>
@@ -2328,21 +2357,28 @@
         <f aca="false">WEEKNUM(A19,2)</f>
         <v>47</v>
       </c>
-      <c r="G19" s="9" t="n">
-        <v>0.0416666666666667</v>
-      </c>
+      <c r="D19" s="9" t="n">
+        <v>0.631944444444444</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>0.729166666666667</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="9" t="n">
         <f aca="false">(E19-D19-F19+G19)</f>
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42" t="n">
+        <v>0.0972222222222222</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="43" t="n">
         <f aca="false">A19+1</f>
         <v>43058</v>
       </c>
-      <c r="B20" s="23" t="n">
+      <c r="B20" s="24" t="n">
         <f aca="false">A20</f>
         <v>43058</v>
       </c>
@@ -2360,17 +2396,20 @@
         <v>0.03125</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="43" t="s">
-        <v>35</v>
+      <c r="H20" s="9" t="n">
+        <f aca="false">(E20-D20-F20+G20)</f>
+        <v>0.14375</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42" t="n">
+      <c r="A21" s="43" t="n">
         <f aca="false">A20+1</f>
         <v>43059</v>
       </c>
-      <c r="B21" s="23" t="n">
+      <c r="B21" s="24" t="n">
         <f aca="false">A21</f>
         <v>43059</v>
       </c>
@@ -2388,11 +2427,11 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="42" t="n">
+      <c r="A22" s="43" t="n">
         <f aca="false">A21+1</f>
         <v>43060</v>
       </c>
-      <c r="B22" s="23" t="n">
+      <c r="B22" s="24" t="n">
         <f aca="false">A22</f>
         <v>43060</v>
       </c>
@@ -2410,11 +2449,11 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42" t="n">
+      <c r="A23" s="43" t="n">
         <f aca="false">A22+1</f>
         <v>43061</v>
       </c>
-      <c r="B23" s="23" t="n">
+      <c r="B23" s="24" t="n">
         <f aca="false">A23</f>
         <v>43061</v>
       </c>
@@ -2437,15 +2476,15 @@
         <v>0.145833333333333</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="42" t="n">
+      <c r="A24" s="43" t="n">
         <f aca="false">A23+1</f>
         <v>43062</v>
       </c>
-      <c r="B24" s="23" t="n">
+      <c r="B24" s="24" t="n">
         <f aca="false">A24</f>
         <v>43062</v>
       </c>
@@ -2463,11 +2502,11 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="42" t="n">
+      <c r="A25" s="43" t="n">
         <f aca="false">A24+1</f>
         <v>43063</v>
       </c>
-      <c r="B25" s="23" t="n">
+      <c r="B25" s="24" t="n">
         <f aca="false">A25</f>
         <v>43063</v>
       </c>
@@ -2492,15 +2531,15 @@
         <v>0.211111111111111</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="42" t="n">
+      <c r="A26" s="43" t="n">
         <f aca="false">A25+1</f>
         <v>43064</v>
       </c>
-      <c r="B26" s="23" t="n">
+      <c r="B26" s="24" t="n">
         <f aca="false">A26</f>
         <v>43064</v>
       </c>
@@ -2516,14 +2555,14 @@
         <f aca="false">(E26-D26-F26+G26)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="24"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="42" t="n">
+      <c r="A27" s="43" t="n">
         <f aca="false">A26+1</f>
         <v>43065</v>
       </c>
-      <c r="B27" s="23" t="n">
+      <c r="B27" s="24" t="n">
         <f aca="false">A27</f>
         <v>43065</v>
       </c>
@@ -2539,14 +2578,14 @@
         <f aca="false">(E27-D27-F27+G27)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="24"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="42" t="n">
+      <c r="A28" s="43" t="n">
         <f aca="false">A27+1</f>
         <v>43066</v>
       </c>
-      <c r="B28" s="23" t="n">
+      <c r="B28" s="24" t="n">
         <f aca="false">A28</f>
         <v>43066</v>
       </c>
@@ -2569,15 +2608,15 @@
         <v>0.190277777777778</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="42" t="n">
+      <c r="A29" s="43" t="n">
         <f aca="false">A28+1</f>
         <v>43067</v>
       </c>
-      <c r="B29" s="23" t="n">
+      <c r="B29" s="24" t="n">
         <f aca="false">A29</f>
         <v>43067</v>
       </c>
@@ -2595,11 +2634,11 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="42" t="n">
+      <c r="A30" s="43" t="n">
         <f aca="false">A29+1</f>
         <v>43068</v>
       </c>
-      <c r="B30" s="23" t="n">
+      <c r="B30" s="24" t="n">
         <f aca="false">A30</f>
         <v>43068</v>
       </c>
@@ -2622,15 +2661,15 @@
         <v>0.208333333333333</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="42" t="n">
+      <c r="A31" s="43" t="n">
         <f aca="false">A30+1</f>
         <v>43069</v>
       </c>
-      <c r="B31" s="23" t="n">
+      <c r="B31" s="24" t="n">
         <f aca="false">A31</f>
         <v>43069</v>
       </c>
@@ -2651,25 +2690,25 @@
         <v>0.0972222222222222</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="45"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="35"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="36"/>
+      <c r="A33" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="37"/>
       <c r="C33" s="9" t="n">
         <f aca="false">Zusammenfassung!C8</f>
         <v>1.875</v>
@@ -2681,20 +2720,20 @@
       <c r="H33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40" t="n">
+      <c r="A34" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>1.80347222222222</v>
-      </c>
-      <c r="I34" s="41"/>
+        <v>2.04444444444444</v>
+      </c>
+      <c r="I34" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2767,8 +2806,8 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2784,40 +2823,40 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="n">
+      <c r="A2" s="43" t="n">
         <f aca="false">DATE(2017,12,1)</f>
         <v>43070</v>
       </c>
-      <c r="B2" s="23" t="n">
+      <c r="B2" s="24" t="n">
         <f aca="false">A2</f>
         <v>43070</v>
       </c>
@@ -2825,32 +2864,32 @@
         <f aca="false">WEEKNUM(A2,2)</f>
         <v>49</v>
       </c>
-      <c r="D2" s="46" t="n">
+      <c r="D2" s="47" t="n">
         <v>0.634722222222222</v>
       </c>
-      <c r="E2" s="46" t="n">
+      <c r="E2" s="47" t="n">
         <v>0.791666666666667</v>
       </c>
-      <c r="F2" s="46" t="n">
+      <c r="F2" s="47" t="n">
         <v>0.0416666666666667</v>
       </c>
-      <c r="G2" s="46" t="n">
+      <c r="G2" s="47" t="n">
         <v>0.125</v>
       </c>
-      <c r="H2" s="47" t="n">
+      <c r="H2" s="48" t="n">
         <f aca="false">(E2-D2-F2+G2)</f>
         <v>0.240277777777778</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="n">
+      <c r="A3" s="43" t="n">
         <f aca="false">A2+1</f>
         <v>43071</v>
       </c>
-      <c r="B3" s="23" t="n">
+      <c r="B3" s="24" t="n">
         <f aca="false">A3</f>
         <v>43071</v>
       </c>
@@ -2858,30 +2897,30 @@
         <f aca="false">WEEKNUM(A3,2)</f>
         <v>49</v>
       </c>
-      <c r="D3" s="46" t="n">
+      <c r="D3" s="47" t="n">
         <v>0.645833333333333</v>
       </c>
-      <c r="E3" s="46" t="n">
+      <c r="E3" s="47" t="n">
         <v>0.846527777777778</v>
       </c>
-      <c r="F3" s="46" t="n">
+      <c r="F3" s="47" t="n">
         <v>0.0625</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47" t="n">
+      <c r="G3" s="47"/>
+      <c r="H3" s="48" t="n">
         <f aca="false">(E3-D3-F3+G3)</f>
         <v>0.138194444444444</v>
       </c>
-      <c r="I3" s="43" t="s">
-        <v>42</v>
+      <c r="I3" s="44" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="n">
+      <c r="A4" s="43" t="n">
         <f aca="false">A3+1</f>
         <v>43072</v>
       </c>
-      <c r="B4" s="23" t="n">
+      <c r="B4" s="24" t="n">
         <f aca="false">A4</f>
         <v>43072</v>
       </c>
@@ -2889,28 +2928,28 @@
         <f aca="false">WEEKNUM(A4,2)</f>
         <v>49</v>
       </c>
-      <c r="D4" s="46" t="n">
+      <c r="D4" s="47" t="n">
         <v>0.729166666666667</v>
       </c>
-      <c r="E4" s="46" t="n">
+      <c r="E4" s="47" t="n">
         <v>0.805555555555556</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47" t="n">
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48" t="n">
         <f aca="false">(E4-D4-F4+G4)</f>
         <v>0.0763888888888889</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>43</v>
+      <c r="I4" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="n">
+      <c r="A5" s="43" t="n">
         <f aca="false">A4+1</f>
         <v>43073</v>
       </c>
-      <c r="B5" s="23" t="n">
+      <c r="B5" s="24" t="n">
         <f aca="false">A5</f>
         <v>43073</v>
       </c>
@@ -2918,21 +2957,21 @@
         <f aca="false">WEEKNUM(A5,2)</f>
         <v>50</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47" t="n">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48" t="n">
         <f aca="false">(E5-D5-F5+G5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="n">
+      <c r="A6" s="43" t="n">
         <f aca="false">A5+1</f>
         <v>43074</v>
       </c>
-      <c r="B6" s="23" t="n">
+      <c r="B6" s="24" t="n">
         <f aca="false">A6</f>
         <v>43074</v>
       </c>
@@ -2940,21 +2979,21 @@
         <f aca="false">WEEKNUM(A6,2)</f>
         <v>50</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47" t="n">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48" t="n">
         <f aca="false">(E6-D6-F6+G6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="n">
+      <c r="A7" s="43" t="n">
         <f aca="false">A6+1</f>
         <v>43075</v>
       </c>
-      <c r="B7" s="23" t="n">
+      <c r="B7" s="24" t="n">
         <f aca="false">A7</f>
         <v>43075</v>
       </c>
@@ -2962,28 +3001,28 @@
         <f aca="false">WEEKNUM(A7,2)</f>
         <v>50</v>
       </c>
-      <c r="D7" s="46" t="n">
+      <c r="D7" s="47" t="n">
         <v>0.395833333333333</v>
       </c>
-      <c r="E7" s="46" t="n">
+      <c r="E7" s="47" t="n">
         <v>0.479166666666667</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47" t="n">
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48" t="n">
         <f aca="false">(E7-D7-F7+G7)</f>
         <v>0.0833333333333334</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42" t="n">
+      <c r="A8" s="43" t="n">
         <f aca="false">A7+1</f>
         <v>43076</v>
       </c>
-      <c r="B8" s="23" t="n">
+      <c r="B8" s="24" t="n">
         <f aca="false">A8</f>
         <v>43076</v>
       </c>
@@ -2991,28 +3030,28 @@
         <f aca="false">WEEKNUM(A8,2)</f>
         <v>50</v>
       </c>
-      <c r="D8" s="46" t="n">
+      <c r="D8" s="47" t="n">
         <v>0.770833333333333</v>
       </c>
-      <c r="E8" s="46" t="n">
+      <c r="E8" s="47" t="n">
         <v>0.967361111111111</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47" t="n">
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48" t="n">
         <f aca="false">(E8-D8-F8+G8)</f>
         <v>0.196527777777778</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42" t="n">
+      <c r="A9" s="43" t="n">
         <f aca="false">A8+1</f>
         <v>43077</v>
       </c>
-      <c r="B9" s="23" t="n">
+      <c r="B9" s="24" t="n">
         <f aca="false">A9</f>
         <v>43077</v>
       </c>
@@ -3020,30 +3059,30 @@
         <f aca="false">WEEKNUM(A9,2)</f>
         <v>50</v>
       </c>
-      <c r="D9" s="46" t="n">
+      <c r="D9" s="47" t="n">
         <v>0.104166666666667</v>
       </c>
-      <c r="E9" s="46" t="n">
+      <c r="E9" s="47" t="n">
         <v>0.900694444444444</v>
       </c>
-      <c r="F9" s="46" t="n">
+      <c r="F9" s="47" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47" t="n">
+      <c r="G9" s="47"/>
+      <c r="H9" s="48" t="n">
         <f aca="false">(E9-D9-F9+G9)</f>
         <v>0.338194444444444</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="n">
+      <c r="A10" s="43" t="n">
         <f aca="false">A9+1</f>
         <v>43078</v>
       </c>
-      <c r="B10" s="23" t="n">
+      <c r="B10" s="24" t="n">
         <f aca="false">A10</f>
         <v>43078</v>
       </c>
@@ -3051,30 +3090,30 @@
         <f aca="false">WEEKNUM(A10,2)</f>
         <v>50</v>
       </c>
-      <c r="D10" s="46" t="n">
+      <c r="D10" s="47" t="n">
         <v>0.5625</v>
       </c>
-      <c r="E10" s="46" t="n">
+      <c r="E10" s="47" t="n">
         <v>0.931944444444444</v>
       </c>
-      <c r="F10" s="46" t="n">
+      <c r="F10" s="47" t="n">
         <v>0.125</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47" t="n">
+      <c r="G10" s="47"/>
+      <c r="H10" s="48" t="n">
         <f aca="false">(E10-D10-F10+G10)</f>
         <v>0.244444444444444</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>47</v>
+      <c r="I10" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42" t="n">
+      <c r="A11" s="43" t="n">
         <f aca="false">A10+1</f>
         <v>43079</v>
       </c>
-      <c r="B11" s="23" t="n">
+      <c r="B11" s="24" t="n">
         <f aca="false">A11</f>
         <v>43079</v>
       </c>
@@ -3082,28 +3121,28 @@
         <f aca="false">WEEKNUM(A11,2)</f>
         <v>50</v>
       </c>
-      <c r="D11" s="46" t="n">
+      <c r="D11" s="47" t="n">
         <v>0.756944444444444</v>
       </c>
-      <c r="E11" s="46" t="n">
+      <c r="E11" s="47" t="n">
         <v>0.847222222222222</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47" t="n">
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48" t="n">
         <f aca="false">(E11-D11-F11+G11)</f>
         <v>0.0902777777777778</v>
       </c>
-      <c r="I11" s="43" t="s">
-        <v>48</v>
+      <c r="I11" s="44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="n">
+      <c r="A12" s="43" t="n">
         <f aca="false">A11+1</f>
         <v>43080</v>
       </c>
-      <c r="B12" s="23" t="n">
+      <c r="B12" s="24" t="n">
         <f aca="false">A12</f>
         <v>43080</v>
       </c>
@@ -3111,30 +3150,30 @@
         <f aca="false">WEEKNUM(A12,2)</f>
         <v>51</v>
       </c>
-      <c r="D12" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="46" t="n">
+      <c r="D12" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="47" t="n">
         <v>0.125</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46" t="n">
+      <c r="F12" s="47"/>
+      <c r="G12" s="47" t="n">
         <v>0.25</v>
       </c>
-      <c r="H12" s="47" t="n">
+      <c r="H12" s="48" t="n">
         <f aca="false">(E12-D12-F12+G12)</f>
         <v>0.375</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42" t="n">
+      <c r="A13" s="43" t="n">
         <f aca="false">A12+1</f>
         <v>43081</v>
       </c>
-      <c r="B13" s="23" t="n">
+      <c r="B13" s="24" t="n">
         <f aca="false">A13</f>
         <v>43081</v>
       </c>
@@ -3142,30 +3181,30 @@
         <f aca="false">WEEKNUM(A13,2)</f>
         <v>51</v>
       </c>
-      <c r="D13" s="46" t="n">
+      <c r="D13" s="47" t="n">
         <v>0.770833333333333</v>
       </c>
-      <c r="E13" s="46" t="n">
+      <c r="E13" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46" t="n">
+      <c r="F13" s="47"/>
+      <c r="G13" s="47" t="n">
         <v>0.1875</v>
       </c>
-      <c r="H13" s="47" t="n">
+      <c r="H13" s="48" t="n">
         <f aca="false">(E13-D13-F13+G13)</f>
         <v>0.416666666666667</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="42" t="n">
+      <c r="A14" s="43" t="n">
         <f aca="false">A13+1</f>
         <v>43082</v>
       </c>
-      <c r="B14" s="23" t="n">
+      <c r="B14" s="24" t="n">
         <f aca="false">A14</f>
         <v>43082</v>
       </c>
@@ -3173,28 +3212,28 @@
         <f aca="false">WEEKNUM(A14,2)</f>
         <v>51</v>
       </c>
-      <c r="D14" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="46" t="n">
+      <c r="D14" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="47" t="n">
         <v>0.138194444444444</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47" t="n">
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48" t="n">
         <f aca="false">(E14-D14-F14+G14)</f>
         <v>0.138194444444444</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42" t="n">
+      <c r="A15" s="43" t="n">
         <f aca="false">A14+1</f>
         <v>43083</v>
       </c>
-      <c r="B15" s="23" t="n">
+      <c r="B15" s="24" t="n">
         <f aca="false">A15</f>
         <v>43083</v>
       </c>
@@ -3202,32 +3241,32 @@
         <f aca="false">WEEKNUM(A15,2)</f>
         <v>51</v>
       </c>
-      <c r="D15" s="46" t="n">
+      <c r="D15" s="47" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="E15" s="46" t="n">
+      <c r="E15" s="47" t="n">
         <v>0.875</v>
       </c>
-      <c r="F15" s="46" t="n">
+      <c r="F15" s="47" t="n">
         <v>0.0416666666666667</v>
       </c>
-      <c r="G15" s="46" t="n">
+      <c r="G15" s="47" t="n">
         <v>0.125</v>
       </c>
-      <c r="H15" s="47" t="n">
+      <c r="H15" s="48" t="n">
         <f aca="false">(E15-D15-F15+G15)</f>
         <v>0.291666666666666</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44" t="n">
+      <c r="A16" s="45" t="n">
         <f aca="false">A15+1</f>
         <v>43084</v>
       </c>
-      <c r="B16" s="26" t="n">
+      <c r="B16" s="27" t="n">
         <f aca="false">A16</f>
         <v>43084</v>
       </c>
@@ -3238,26 +3277,26 @@
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
-      <c r="G16" s="46" t="n">
+      <c r="G16" s="47" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="H16" s="47" t="n">
+      <c r="H16" s="48" t="n">
         <f aca="false">(E16-D16-F16+G16)</f>
         <v>0.0833333333333333</v>
       </c>
-      <c r="I16" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="I16" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="42" t="n">
+      <c r="A17" s="43" t="n">
         <f aca="false">A16+1</f>
         <v>43085</v>
       </c>
-      <c r="B17" s="23" t="n">
+      <c r="B17" s="24" t="n">
         <f aca="false">A17</f>
         <v>43085</v>
       </c>
@@ -3265,22 +3304,22 @@
         <f aca="false">WEEKNUM(A17,2)</f>
         <v>51</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47" t="n">
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48" t="n">
         <f aca="false">(E17-D17-F17+G17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="24"/>
+      <c r="I17" s="44"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="42" t="n">
+      <c r="A18" s="43" t="n">
         <f aca="false">A17+1</f>
         <v>43086</v>
       </c>
-      <c r="B18" s="23" t="n">
+      <c r="B18" s="24" t="n">
         <f aca="false">A18</f>
         <v>43086</v>
       </c>
@@ -3288,22 +3327,22 @@
         <f aca="false">WEEKNUM(A18,2)</f>
         <v>51</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47" t="n">
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48" t="n">
         <f aca="false">(E18-D18-F18+G18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="24"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="42" t="n">
+      <c r="A19" s="43" t="n">
         <f aca="false">A18+1</f>
         <v>43087</v>
       </c>
-      <c r="B19" s="23" t="n">
+      <c r="B19" s="24" t="n">
         <f aca="false">A19</f>
         <v>43087</v>
       </c>
@@ -3311,21 +3350,21 @@
         <f aca="false">WEEKNUM(A19,2)</f>
         <v>52</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47" t="n">
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48" t="n">
         <f aca="false">(E19-D19-F19+G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42" t="n">
+      <c r="A20" s="43" t="n">
         <f aca="false">A19+1</f>
         <v>43088</v>
       </c>
-      <c r="B20" s="23" t="n">
+      <c r="B20" s="24" t="n">
         <f aca="false">A20</f>
         <v>43088</v>
       </c>
@@ -3333,28 +3372,28 @@
         <f aca="false">WEEKNUM(A20,2)</f>
         <v>52</v>
       </c>
-      <c r="D20" s="46" t="n">
+      <c r="D20" s="47" t="n">
         <v>0.645833333333333</v>
       </c>
-      <c r="E20" s="46" t="n">
+      <c r="E20" s="47" t="n">
         <v>0.6875</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47" t="n">
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48" t="n">
         <f aca="false">(E20-D20-F20+G20)</f>
         <v>0.0416666666666666</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42" t="n">
+      <c r="A21" s="43" t="n">
         <f aca="false">A20+1</f>
         <v>43089</v>
       </c>
-      <c r="B21" s="23" t="n">
+      <c r="B21" s="24" t="n">
         <f aca="false">A21</f>
         <v>43089</v>
       </c>
@@ -3362,21 +3401,21 @@
         <f aca="false">WEEKNUM(A21,2)</f>
         <v>52</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47" t="n">
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48" t="n">
         <f aca="false">(E21-D21-F21+G21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="42" t="n">
+      <c r="A22" s="43" t="n">
         <f aca="false">A21+1</f>
         <v>43090</v>
       </c>
-      <c r="B22" s="23" t="n">
+      <c r="B22" s="24" t="n">
         <f aca="false">A22</f>
         <v>43090</v>
       </c>
@@ -3384,21 +3423,21 @@
         <f aca="false">WEEKNUM(A22,2)</f>
         <v>52</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47" t="n">
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48" t="n">
         <f aca="false">(E22-D22-F22+G22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42" t="n">
+      <c r="A23" s="43" t="n">
         <f aca="false">A22+1</f>
         <v>43091</v>
       </c>
-      <c r="B23" s="23" t="n">
+      <c r="B23" s="24" t="n">
         <f aca="false">A23</f>
         <v>43091</v>
       </c>
@@ -3406,21 +3445,21 @@
         <f aca="false">WEEKNUM(A23,2)</f>
         <v>52</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47" t="n">
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48" t="n">
         <f aca="false">(E23-D23-F23+G23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="42" t="n">
+      <c r="A24" s="43" t="n">
         <f aca="false">A23+1</f>
         <v>43092</v>
       </c>
-      <c r="B24" s="23" t="n">
+      <c r="B24" s="24" t="n">
         <f aca="false">A24</f>
         <v>43092</v>
       </c>
@@ -3428,22 +3467,22 @@
         <f aca="false">WEEKNUM(A24,2)</f>
         <v>52</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47" t="n">
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48" t="n">
         <f aca="false">(E24-D24-F24+G24)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="24"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="42" t="n">
+      <c r="A25" s="43" t="n">
         <f aca="false">A24+1</f>
         <v>43093</v>
       </c>
-      <c r="B25" s="23" t="n">
+      <c r="B25" s="24" t="n">
         <f aca="false">A25</f>
         <v>43093</v>
       </c>
@@ -3451,22 +3490,22 @@
         <f aca="false">WEEKNUM(A25,2)</f>
         <v>52</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47" t="n">
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48" t="n">
         <f aca="false">(E25-D25-F25+G25)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="43"/>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="42" t="n">
+      <c r="A26" s="43" t="n">
         <f aca="false">A25+1</f>
         <v>43094</v>
       </c>
-      <c r="B26" s="23" t="n">
+      <c r="B26" s="24" t="n">
         <f aca="false">A26</f>
         <v>43094</v>
       </c>
@@ -3474,21 +3513,21 @@
         <f aca="false">WEEKNUM(A26,2)</f>
         <v>53</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47" t="n">
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48" t="n">
         <f aca="false">(E26-D26-F26+G26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="42" t="n">
+      <c r="A27" s="43" t="n">
         <f aca="false">A26+1</f>
         <v>43095</v>
       </c>
-      <c r="B27" s="23" t="n">
+      <c r="B27" s="24" t="n">
         <f aca="false">A27</f>
         <v>43095</v>
       </c>
@@ -3496,21 +3535,21 @@
         <f aca="false">WEEKNUM(A27,2)</f>
         <v>53</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47" t="n">
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48" t="n">
         <f aca="false">(E27-D27-F27+G27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="42" t="n">
+      <c r="A28" s="43" t="n">
         <f aca="false">A27+1</f>
         <v>43096</v>
       </c>
-      <c r="B28" s="23" t="n">
+      <c r="B28" s="24" t="n">
         <f aca="false">A28</f>
         <v>43096</v>
       </c>
@@ -3518,21 +3557,21 @@
         <f aca="false">WEEKNUM(A28,2)</f>
         <v>53</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47" t="n">
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48" t="n">
         <f aca="false">(E28-D28-F28+G28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="42" t="n">
+      <c r="A29" s="43" t="n">
         <f aca="false">A28+1</f>
         <v>43097</v>
       </c>
-      <c r="B29" s="23" t="n">
+      <c r="B29" s="24" t="n">
         <f aca="false">A29</f>
         <v>43097</v>
       </c>
@@ -3540,21 +3579,28 @@
         <f aca="false">WEEKNUM(A29,2)</f>
         <v>53</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47" t="n">
+      <c r="D29" s="47" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E29" s="47" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48" t="n">
         <f aca="false">(E29-D29-F29+G29)</f>
-        <v>0</v>
+        <v>0.0833333333333334</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="42" t="n">
+      <c r="A30" s="43" t="n">
         <f aca="false">A29+1</f>
         <v>43098</v>
       </c>
-      <c r="B30" s="23" t="n">
+      <c r="B30" s="24" t="n">
         <f aca="false">A30</f>
         <v>43098</v>
       </c>
@@ -3562,21 +3608,21 @@
         <f aca="false">WEEKNUM(A30,2)</f>
         <v>53</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47" t="n">
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48" t="n">
         <f aca="false">(E30-D30-F30+G30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="42" t="n">
+      <c r="A31" s="43" t="n">
         <f aca="false">A30+1</f>
         <v>43099</v>
       </c>
-      <c r="B31" s="23" t="n">
+      <c r="B31" s="24" t="n">
         <f aca="false">A31</f>
         <v>43099</v>
       </c>
@@ -3584,65 +3630,65 @@
         <f aca="false">WEEKNUM(A31,2)</f>
         <v>53</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="47" t="n">
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="48" t="n">
         <f aca="false">(E31-D31-F31+G31)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="24"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="48" t="n">
+      <c r="A32" s="49" t="n">
         <f aca="false">A31+1</f>
         <v>43100</v>
       </c>
-      <c r="B32" s="32" t="n">
+      <c r="B32" s="33" t="n">
         <f aca="false">A32</f>
         <v>43100</v>
       </c>
-      <c r="C32" s="33" t="n">
+      <c r="C32" s="34" t="n">
         <f aca="false">WEEKNUM(A32,2)</f>
         <v>53</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="47" t="n">
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="48" t="n">
         <f aca="false">(E32-D32-F32+G32)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="35"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="36"/>
+      <c r="A33" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="37"/>
       <c r="C33" s="9" t="n">
         <f aca="false">Zusammenfassung!C9</f>
         <v>1.5</v>
       </c>
-      <c r="H33" s="50"/>
+      <c r="H33" s="51"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40" t="n">
+      <c r="A34" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>2.75416666666667</v>
-      </c>
-      <c r="I34" s="41"/>
+        <v>2.8375</v>
+      </c>
+      <c r="I34" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3720,57 +3766,58 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="n">
+      <c r="A2" s="43" t="n">
         <f aca="false">DATE(2018,1,1)</f>
         <v>43101</v>
       </c>
-      <c r="B2" s="23" t="n">
+      <c r="B2" s="24" t="n">
         <f aca="false">A2</f>
         <v>43101</v>
       </c>
@@ -3778,21 +3825,21 @@
         <f aca="false">WEEKNUM(A2,2)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47" t="n">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48" t="n">
         <f aca="false">E2-D2-F2+G2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="n">
+      <c r="A3" s="43" t="n">
         <f aca="false">A2+1</f>
         <v>43102</v>
       </c>
-      <c r="B3" s="23" t="n">
+      <c r="B3" s="24" t="n">
         <f aca="false">A3</f>
         <v>43102</v>
       </c>
@@ -3800,21 +3847,21 @@
         <f aca="false">WEEKNUM(A3,2)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="n">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48" t="n">
         <f aca="false">E3-D3-F3+G3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="n">
+      <c r="A4" s="43" t="n">
         <f aca="false">A3+1</f>
         <v>43103</v>
       </c>
-      <c r="B4" s="23" t="n">
+      <c r="B4" s="24" t="n">
         <f aca="false">A4</f>
         <v>43103</v>
       </c>
@@ -3822,21 +3869,21 @@
         <f aca="false">WEEKNUM(A4,2)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47" t="n">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48" t="n">
         <f aca="false">E4-D4-F4+G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="n">
+      <c r="A5" s="43" t="n">
         <f aca="false">A4+1</f>
         <v>43104</v>
       </c>
-      <c r="B5" s="23" t="n">
+      <c r="B5" s="24" t="n">
         <f aca="false">A5</f>
         <v>43104</v>
       </c>
@@ -3844,21 +3891,21 @@
         <f aca="false">WEEKNUM(A5,2)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="n">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48" t="n">
         <f aca="false">E5-D5-F5+G5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="n">
+      <c r="A6" s="43" t="n">
         <f aca="false">A5+1</f>
         <v>43105</v>
       </c>
-      <c r="B6" s="23" t="n">
+      <c r="B6" s="24" t="n">
         <f aca="false">A6</f>
         <v>43105</v>
       </c>
@@ -3866,21 +3913,21 @@
         <f aca="false">WEEKNUM(A6,2)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47" t="n">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="n">
         <f aca="false">E6-D6-F6+G6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="n">
+      <c r="A7" s="43" t="n">
         <f aca="false">A6+1</f>
         <v>43106</v>
       </c>
-      <c r="B7" s="23" t="n">
+      <c r="B7" s="24" t="n">
         <f aca="false">A7</f>
         <v>43106</v>
       </c>
@@ -3888,22 +3935,22 @@
         <f aca="false">WEEKNUM(A7,2)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47" t="n">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48" t="n">
         <f aca="false">E7-D7-F7+G7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="24"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42" t="n">
+      <c r="A8" s="43" t="n">
         <f aca="false">A7+1</f>
         <v>43107</v>
       </c>
-      <c r="B8" s="23" t="n">
+      <c r="B8" s="24" t="n">
         <f aca="false">A8</f>
         <v>43107</v>
       </c>
@@ -3911,28 +3958,28 @@
         <f aca="false">WEEKNUM(A8,2)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="47" t="n">
+      <c r="D8" s="48" t="n">
         <v>0.625</v>
       </c>
-      <c r="E8" s="47" t="n">
+      <c r="E8" s="48" t="n">
         <v>0.708333333333333</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47" t="n">
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48" t="n">
         <f aca="false">E8-D8-F8+G8</f>
         <v>0.0833333333333334</v>
       </c>
-      <c r="I8" s="43" t="s">
-        <v>55</v>
+      <c r="I8" s="44" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42" t="n">
+      <c r="A9" s="43" t="n">
         <f aca="false">A8+1</f>
         <v>43108</v>
       </c>
-      <c r="B9" s="23" t="n">
+      <c r="B9" s="24" t="n">
         <f aca="false">A9</f>
         <v>43108</v>
       </c>
@@ -3940,21 +3987,21 @@
         <f aca="false">WEEKNUM(A9,2)</f>
         <v>2</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47" t="n">
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48" t="n">
         <f aca="false">E9-D9-F9+G9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="n">
+      <c r="A10" s="43" t="n">
         <f aca="false">A9+1</f>
         <v>43109</v>
       </c>
-      <c r="B10" s="23" t="n">
+      <c r="B10" s="24" t="n">
         <f aca="false">A10</f>
         <v>43109</v>
       </c>
@@ -3962,21 +4009,28 @@
         <f aca="false">WEEKNUM(A10,2)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47" t="n">
+      <c r="D10" s="48" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E10" s="48" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48" t="n">
         <f aca="false">E10-D10-F10+G10</f>
-        <v>0</v>
+        <v>0.0416666666666666</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42" t="n">
+      <c r="A11" s="43" t="n">
         <f aca="false">A10+1</f>
         <v>43110</v>
       </c>
-      <c r="B11" s="23" t="n">
+      <c r="B11" s="24" t="n">
         <f aca="false">A11</f>
         <v>43110</v>
       </c>
@@ -3984,30 +4038,30 @@
         <f aca="false">WEEKNUM(A11,2)</f>
         <v>2</v>
       </c>
-      <c r="D11" s="47" t="n">
+      <c r="D11" s="48" t="n">
         <v>0.34375</v>
       </c>
-      <c r="E11" s="47" t="n">
+      <c r="E11" s="48" t="n">
         <v>0.708333333333333</v>
       </c>
-      <c r="F11" s="47" t="n">
+      <c r="F11" s="48" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47" t="n">
+      <c r="G11" s="48"/>
+      <c r="H11" s="48" t="n">
         <f aca="false">E11-D11-F11+G11</f>
         <v>0.28125</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="n">
+      <c r="A12" s="43" t="n">
         <f aca="false">A11+1</f>
         <v>43111</v>
       </c>
-      <c r="B12" s="23" t="n">
+      <c r="B12" s="24" t="n">
         <f aca="false">A12</f>
         <v>43111</v>
       </c>
@@ -4015,30 +4069,30 @@
         <f aca="false">WEEKNUM(A12,2)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="47" t="n">
+      <c r="D12" s="48" t="n">
         <v>0.510416666666667</v>
       </c>
-      <c r="E12" s="47" t="n">
+      <c r="E12" s="48" t="n">
         <v>0.675</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47" t="n">
+      <c r="F12" s="48"/>
+      <c r="G12" s="48" t="n">
         <v>0.03125</v>
       </c>
-      <c r="H12" s="47" t="n">
+      <c r="H12" s="48" t="n">
         <f aca="false">E12-D12-F12+G12</f>
         <v>0.195833333333333</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="n">
+      <c r="A13" s="45" t="n">
         <f aca="false">A12+1</f>
         <v>43112</v>
       </c>
-      <c r="B13" s="26" t="n">
+      <c r="B13" s="27" t="n">
         <f aca="false">A13</f>
         <v>43112</v>
       </c>
@@ -4046,29 +4100,29 @@
         <f aca="false">WEEKNUM(A13,2)</f>
         <v>2</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47" t="n">
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48" t="n">
         <v>0.138888888888889</v>
       </c>
-      <c r="H13" s="47" t="n">
+      <c r="H13" s="48" t="n">
         <f aca="false">E13-D13-F13+G13</f>
         <v>0.138888888888889</v>
       </c>
-      <c r="I13" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="I13" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="42" t="n">
+      <c r="A14" s="43" t="n">
         <f aca="false">A13+1</f>
         <v>43113</v>
       </c>
-      <c r="B14" s="23" t="n">
+      <c r="B14" s="24" t="n">
         <f aca="false">A14</f>
         <v>43113</v>
       </c>
@@ -4076,33 +4130,33 @@
         <f aca="false">WEEKNUM(A14,2)</f>
         <v>2</v>
       </c>
-      <c r="D14" s="47" t="n">
+      <c r="D14" s="48" t="n">
         <v>0.5625</v>
       </c>
-      <c r="E14" s="47" t="n">
+      <c r="E14" s="48" t="n">
         <v>0.875</v>
       </c>
-      <c r="F14" s="47" t="n">
+      <c r="F14" s="48" t="n">
         <v>0.0625</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47" t="n">
+      <c r="G14" s="48"/>
+      <c r="H14" s="48" t="n">
         <f aca="false">E14-D14-F14+G14</f>
         <v>0.25</v>
       </c>
-      <c r="I14" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
+      <c r="I14" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42" t="n">
+      <c r="A15" s="43" t="n">
         <f aca="false">A14+1</f>
         <v>43114</v>
       </c>
-      <c r="B15" s="23" t="n">
+      <c r="B15" s="24" t="n">
         <f aca="false">A15</f>
         <v>43114</v>
       </c>
@@ -4110,33 +4164,33 @@
         <f aca="false">WEEKNUM(A15,2)</f>
         <v>2</v>
       </c>
-      <c r="D15" s="47" t="n">
+      <c r="D15" s="48" t="n">
         <v>0.5625</v>
       </c>
-      <c r="E15" s="47" t="n">
+      <c r="E15" s="48" t="n">
         <v>1.0375</v>
       </c>
-      <c r="F15" s="47" t="n">
+      <c r="F15" s="48" t="n">
         <v>0.1875</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47" t="n">
+      <c r="G15" s="48"/>
+      <c r="H15" s="48" t="n">
         <f aca="false">E15-D15-F15+G15</f>
         <v>0.2875</v>
       </c>
-      <c r="I15" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
+      <c r="I15" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="42" t="n">
+      <c r="A16" s="43" t="n">
         <f aca="false">A15+1</f>
         <v>43115</v>
       </c>
-      <c r="B16" s="23" t="n">
+      <c r="B16" s="24" t="n">
         <f aca="false">A16</f>
         <v>43115</v>
       </c>
@@ -4144,27 +4198,33 @@
         <f aca="false">WEEKNUM(A16,2)</f>
         <v>3</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47" t="n">
+      <c r="D16" s="48" t="n">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="E16" s="48" t="n">
+        <v>0.729166666666667</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48" t="n">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="H16" s="48" t="n">
         <f aca="false">E16-D16-F16+G16</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
+        <v>0.145833333333333</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
     </row>
     <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="42" t="n">
+      <c r="A17" s="43" t="n">
         <f aca="false">A16+1</f>
         <v>43116</v>
       </c>
-      <c r="B17" s="23" t="n">
+      <c r="B17" s="24" t="n">
         <f aca="false">A17</f>
         <v>43116</v>
       </c>
@@ -4172,25 +4232,25 @@
         <f aca="false">WEEKNUM(A17,2)</f>
         <v>3</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47" t="n">
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48" t="n">
         <f aca="false">E17-D17-F17+G17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="53"/>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="42" t="n">
+      <c r="A18" s="43" t="n">
         <f aca="false">A17+1</f>
         <v>43117</v>
       </c>
-      <c r="B18" s="23" t="n">
+      <c r="B18" s="24" t="n">
         <f aca="false">A18</f>
         <v>43117</v>
       </c>
@@ -4198,25 +4258,25 @@
         <f aca="false">WEEKNUM(A18,2)</f>
         <v>3</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47" t="n">
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48" t="n">
         <f aca="false">E18-D18-F18+G18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="53"/>
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="42" t="n">
+      <c r="A19" s="43" t="n">
         <f aca="false">A18+1</f>
         <v>43118</v>
       </c>
-      <c r="B19" s="23" t="n">
+      <c r="B19" s="24" t="n">
         <f aca="false">A19</f>
         <v>43118</v>
       </c>
@@ -4224,25 +4284,29 @@
         <f aca="false">WEEKNUM(A19,2)</f>
         <v>3</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47" t="n">
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="H19" s="48" t="n">
         <f aca="false">E19-D19-F19+G19</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
+        <v>0.0625</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44" t="n">
+      <c r="A20" s="45" t="n">
         <f aca="false">A19+1</f>
         <v>43119</v>
       </c>
-      <c r="B20" s="26" t="n">
+      <c r="B20" s="27" t="n">
         <f aca="false">A20</f>
         <v>43119</v>
       </c>
@@ -4250,27 +4314,29 @@
         <f aca="false">WEEKNUM(A20,2)</f>
         <v>3</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47" t="n">
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="H20" s="48" t="n">
         <f aca="false">E20-D20-F20+G20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+        <v>0.0625</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42" t="n">
+      <c r="A21" s="43" t="n">
         <f aca="false">A20+1</f>
         <v>43120</v>
       </c>
-      <c r="B21" s="23" t="n">
+      <c r="B21" s="24" t="n">
         <f aca="false">A21</f>
         <v>43120</v>
       </c>
@@ -4278,22 +4344,30 @@
         <f aca="false">WEEKNUM(A21,2)</f>
         <v>3</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47" t="n">
+      <c r="D21" s="48" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E21" s="48" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F21" s="48" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48" t="n">
         <f aca="false">E21-D21-F21+G21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="24"/>
+        <v>0.220833333333333</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="42" t="n">
+      <c r="A22" s="43" t="n">
         <f aca="false">A21+1</f>
         <v>43121</v>
       </c>
-      <c r="B22" s="23" t="n">
+      <c r="B22" s="24" t="n">
         <f aca="false">A22</f>
         <v>43121</v>
       </c>
@@ -4301,22 +4375,22 @@
         <f aca="false">WEEKNUM(A22,2)</f>
         <v>3</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47" t="n">
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48" t="n">
         <f aca="false">E22-D22-F22+G22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="24"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42" t="n">
+      <c r="A23" s="43" t="n">
         <f aca="false">A22+1</f>
         <v>43122</v>
       </c>
-      <c r="B23" s="23" t="n">
+      <c r="B23" s="24" t="n">
         <f aca="false">A23</f>
         <v>43122</v>
       </c>
@@ -4324,21 +4398,21 @@
         <f aca="false">WEEKNUM(A23,2)</f>
         <v>4</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47" t="n">
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48" t="n">
         <f aca="false">E23-D23-F23+G23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="42" t="n">
+      <c r="A24" s="43" t="n">
         <f aca="false">A23+1</f>
         <v>43123</v>
       </c>
-      <c r="B24" s="23" t="n">
+      <c r="B24" s="24" t="n">
         <f aca="false">A24</f>
         <v>43123</v>
       </c>
@@ -4346,21 +4420,21 @@
         <f aca="false">WEEKNUM(A24,2)</f>
         <v>4</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47" t="n">
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48" t="n">
         <f aca="false">E24-D24-F24+G24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="42" t="n">
+      <c r="A25" s="43" t="n">
         <f aca="false">A24+1</f>
         <v>43124</v>
       </c>
-      <c r="B25" s="23" t="n">
+      <c r="B25" s="24" t="n">
         <f aca="false">A25</f>
         <v>43124</v>
       </c>
@@ -4368,21 +4442,21 @@
         <f aca="false">WEEKNUM(A25,2)</f>
         <v>4</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47" t="n">
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48" t="n">
         <f aca="false">E25-D25-F25+G25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="42" t="n">
+      <c r="A26" s="43" t="n">
         <f aca="false">A25+1</f>
         <v>43125</v>
       </c>
-      <c r="B26" s="23" t="n">
+      <c r="B26" s="24" t="n">
         <f aca="false">A26</f>
         <v>43125</v>
       </c>
@@ -4390,21 +4464,21 @@
         <f aca="false">WEEKNUM(A26,2)</f>
         <v>4</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47" t="n">
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48" t="n">
         <f aca="false">E26-D26-F26+G26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="42" t="n">
+      <c r="A27" s="43" t="n">
         <f aca="false">A26+1</f>
         <v>43126</v>
       </c>
-      <c r="B27" s="23" t="n">
+      <c r="B27" s="24" t="n">
         <f aca="false">A27</f>
         <v>43126</v>
       </c>
@@ -4412,21 +4486,21 @@
         <f aca="false">WEEKNUM(A27,2)</f>
         <v>4</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47" t="n">
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48" t="n">
         <f aca="false">E27-D27-F27+G27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="42" t="n">
+      <c r="A28" s="43" t="n">
         <f aca="false">A27+1</f>
         <v>43127</v>
       </c>
-      <c r="B28" s="23" t="n">
+      <c r="B28" s="24" t="n">
         <f aca="false">A28</f>
         <v>43127</v>
       </c>
@@ -4434,22 +4508,22 @@
         <f aca="false">WEEKNUM(A28,2)</f>
         <v>4</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47" t="n">
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48" t="n">
         <f aca="false">E28-D28-F28+G28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="24"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="42" t="n">
+      <c r="A29" s="43" t="n">
         <f aca="false">A28+1</f>
         <v>43128</v>
       </c>
-      <c r="B29" s="23" t="n">
+      <c r="B29" s="24" t="n">
         <f aca="false">A29</f>
         <v>43128</v>
       </c>
@@ -4457,22 +4531,22 @@
         <f aca="false">WEEKNUM(A29,2)</f>
         <v>4</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47" t="n">
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48" t="n">
         <f aca="false">E29-D29-F29+G29</f>
         <v>0</v>
       </c>
-      <c r="I29" s="43"/>
+      <c r="I29" s="44"/>
     </row>
     <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="42" t="n">
+      <c r="A30" s="43" t="n">
         <f aca="false">A29+1</f>
         <v>43129</v>
       </c>
-      <c r="B30" s="23" t="n">
+      <c r="B30" s="24" t="n">
         <f aca="false">A30</f>
         <v>43129</v>
       </c>
@@ -4480,21 +4554,21 @@
         <f aca="false">WEEKNUM(A30,2)</f>
         <v>5</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47" t="n">
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48" t="n">
         <f aca="false">E30-D30-F30+G30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="42" t="n">
+      <c r="A31" s="43" t="n">
         <f aca="false">A30+1</f>
         <v>43130</v>
       </c>
-      <c r="B31" s="23" t="n">
+      <c r="B31" s="24" t="n">
         <f aca="false">A31</f>
         <v>43130</v>
       </c>
@@ -4502,64 +4576,64 @@
         <f aca="false">WEEKNUM(A31,2)</f>
         <v>5</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47" t="n">
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48" t="n">
         <f aca="false">E31-D31-F31+G31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="48" t="n">
+      <c r="A32" s="49" t="n">
         <f aca="false">A31+1</f>
         <v>43131</v>
       </c>
-      <c r="B32" s="32" t="n">
+      <c r="B32" s="33" t="n">
         <f aca="false">A32</f>
         <v>43131</v>
       </c>
-      <c r="C32" s="33" t="n">
+      <c r="C32" s="34" t="n">
         <f aca="false">WEEKNUM(A32,2)</f>
         <v>5</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="47" t="n">
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="48" t="n">
         <f aca="false">E32-D32-F32+G32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="35"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="36"/>
+      <c r="A33" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="37"/>
       <c r="C33" s="9" t="n">
         <f aca="false">Zusammenfassung!C10</f>
         <v>1.875</v>
       </c>
-      <c r="H33" s="54"/>
+      <c r="H33" s="55"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40" t="n">
+      <c r="A34" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>1.23680555555556</v>
-      </c>
-      <c r="I34" s="41"/>
+        <v>1.77013888888889</v>
+      </c>
+      <c r="I34" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
+++ b/dokumentation/arbeitszeiten/Arbeitszeiten_grr37213.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t xml:space="preserve">Arbeitszeit je Woche:</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dokumentation, Übertag in Google Doc und Formatierung, Überprüfung des Stundenzettels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versioning und Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -892,7 +895,7 @@
       </c>
       <c r="B10" s="9" t="n">
         <f aca="false">'Januar 2018'!H34</f>
-        <v>1.77013888888889</v>
+        <v>1.86388888888889</v>
       </c>
       <c r="C10" s="9" t="n">
         <f aca="false">5*B1</f>
@@ -900,7 +903,7 @@
       </c>
       <c r="E10" s="10" t="n">
         <f aca="false">B10/C10</f>
-        <v>0.944074074074074</v>
+        <v>0.994074074074074</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,7 +918,7 @@
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">SUM(B7:B10)</f>
-        <v>7.32916666666666</v>
+        <v>7.42291666666666</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">SUM(C7:C10)</f>
@@ -923,7 +926,7 @@
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/C12</f>
-        <v>1.14967320261438</v>
+        <v>1.16437908496732</v>
       </c>
     </row>
   </sheetData>
@@ -3767,7 +3770,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4398,13 +4401,20 @@
         <f aca="false">WEEKNUM(A23,2)</f>
         <v>4</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
+      <c r="D23" s="48" t="n">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="E23" s="48" t="n">
+        <v>0.697916666666667</v>
+      </c>
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
       <c r="H23" s="48" t="n">
         <f aca="false">E23-D23-F23+G23</f>
-        <v>0</v>
+        <v>0.09375</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4631,7 +4641,7 @@
       <c r="G34" s="40"/>
       <c r="H34" s="41" t="n">
         <f aca="false">SUM(H2:H32)</f>
-        <v>1.77013888888889</v>
+        <v>1.86388888888889</v>
       </c>
       <c r="I34" s="42"/>
     </row>
